--- a/1-策略开发/1-开发中的策略/1-bar回测/7-multi_timeframe/multi_timeframe参数优化记录.xlsx
+++ b/1-策略开发/1-开发中的策略/1-bar回测/7-multi_timeframe/multi_timeframe参数优化记录.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16040"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="参数优化区间设置" sheetId="3" r:id="rId1"/>
     <sheet name="2020-2013" sheetId="5" r:id="rId2"/>
     <sheet name="滚动回测结果汇总" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">滚动回测结果汇总!#REF!</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>multi_timeframe参数优化区间设置</t>
   </si>
@@ -100,6 +101,33 @@
   </si>
   <si>
     <t>第三参数</t>
+  </si>
+  <si>
+    <t>bar_window1'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'bar_window2'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'rsi_signal'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'rsi_window'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'fast_window'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'slow_window'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'fixed_size'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pricetick_multiplier1'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'pricetick_multiplier2'</t>
   </si>
 </sst>
 </file>
@@ -107,17 +135,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0.00&quot;天&quot;"/>
+    <numFmt numFmtId="176" formatCode="#,##0.00&quot;小时&quot;"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0.00&quot;小时&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;组&quot;"/>
+    <numFmt numFmtId="177" formatCode="#,##0&quot;组&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00&quot;天&quot;"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -154,7 +189,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,10 +209,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,29 +301,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -213,23 +309,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,60 +331,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -318,187 +353,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,20 +706,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,6 +760,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -719,21 +793,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -744,218 +803,197 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -967,84 +1005,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1311,11 +1340,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1323,9 +1352,9 @@
       <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.46666666666667" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.46666666666667" style="12" customWidth="1"/>
     <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="12.4416666666667" customWidth="1"/>
     <col min="4" max="4" width="11.975" customWidth="1"/>
@@ -1335,53 +1364,53 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="14">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>3</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>2</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>17</v>
       </c>
-      <c r="F3" s="20">
-        <f>((E3-C3)/D3)+1</f>
+      <c r="F3" s="15">
+        <f t="shared" ref="F3:F8" si="0">((E3-C3)/D3)+1</f>
         <v>8</v>
       </c>
     </row>
@@ -1392,38 +1421,38 @@
       <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="17">
         <v>14</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="17">
         <v>2</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <v>30</v>
       </c>
-      <c r="F4" s="21">
-        <f>((E4-C4)/D4)+1</f>
+      <c r="F4" s="17">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>10</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>5</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>35</v>
       </c>
-      <c r="F5" s="20">
-        <f>((E5-C5)/D5)+1</f>
+      <c r="F5" s="15">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1434,38 +1463,38 @@
       <c r="B6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <v>3</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="17">
         <v>3</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <v>33</v>
       </c>
-      <c r="F6" s="21">
-        <f>((E6-C6)/D6)+1</f>
+      <c r="F6" s="17">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="14">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>2</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>2</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>30</v>
       </c>
-      <c r="F7" s="20">
-        <f>((E7-C7)/D7)+1</f>
+      <c r="F7" s="15">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -1476,31 +1505,31 @@
       <c r="B8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <v>6</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <v>3</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <v>42</v>
       </c>
-      <c r="F8" s="21">
-        <f>((E8-C8)/D8)+1</f>
+      <c r="F8" s="17">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="14">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="17">
@@ -1509,22 +1538,22 @@
       <c r="B10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="14">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="17" t="s">
@@ -1534,31 +1563,31 @@
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="22">
+      <c r="F12" s="19">
         <f>PRODUCT(F3:F8)</f>
         <v>926640</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="23">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="20">
         <f>(F12*1.9)/3600</f>
         <v>489.06</v>
       </c>
     </row>
-    <row r="14" ht="13.95" spans="1:6">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="24">
+    <row r="14" ht="16.5" spans="1:6">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="21">
         <f>F13/24</f>
         <v>20.3775</v>
       </c>
@@ -1575,15 +1604,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1591,11 +1620,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="167" zoomScaleNormal="138" zoomScaleSheetLayoutView="167" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="167" zoomScaleNormal="138" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1603,7 +1632,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="15.8333333333333" customWidth="1"/>
@@ -1611,278 +1640,278 @@
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" ht="26" spans="1:6">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+    <row r="3" ht="23.25" spans="1:6">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" ht="26" spans="1:6">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="6" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" ht="23.25" spans="1:6">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" ht="26" spans="1:6">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="6" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" ht="23.25" spans="1:6">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" ht="19.2" spans="1:6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" ht="19.2" spans="1:6">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" ht="19.2" spans="1:6">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" ht="19.2" spans="1:6">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" ht="19.2" spans="1:6">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" ht="19.2" spans="1:6">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" ht="19.2" spans="1:6">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" ht="19.2" spans="1:6">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" ht="19.2" spans="1:6">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" ht="23.25" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" ht="23.25" spans="1:6">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" ht="23.25" spans="1:6">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" ht="23.25" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" ht="23.25" spans="1:6">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" ht="23.25" spans="1:6">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" ht="23.25" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" ht="23.25" spans="1:6">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" ht="23.25" spans="1:6">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1898,4 +1927,97 @@
   <pageSetup paperSize="9" scale="120" orientation="landscape" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:T2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1"/>
+  <cols>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="3.375" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="3.375" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="8" max="8" width="3.375" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="3.375" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
+    <col min="12" max="12" width="2.375" customWidth="1"/>
+    <col min="13" max="13" width="13.75" customWidth="1"/>
+    <col min="14" max="14" width="3.375" customWidth="1"/>
+    <col min="15" max="15" width="10.25" customWidth="1"/>
+    <col min="16" max="16" width="2.375" customWidth="1"/>
+    <col min="17" max="17" width="19.625" customWidth="1"/>
+    <col min="18" max="18" width="4.375" customWidth="1"/>
+    <col min="19" max="19" width="19.625" customWidth="1"/>
+    <col min="20" max="20" width="2.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:20">
+      <c r="C2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="1">
+        <v>39</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/1-策略开发/1-开发中的策略/1-bar回测/7-multi_timeframe/multi_timeframe参数优化记录.xlsx
+++ b/1-策略开发/1-开发中的策略/1-bar回测/7-multi_timeframe/multi_timeframe参数优化记录.xlsx
@@ -4,23 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="参数优化区间设置" sheetId="3" r:id="rId1"/>
-    <sheet name="2020-2013" sheetId="5" r:id="rId2"/>
-    <sheet name="滚动回测结果汇总" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="回测结果" sheetId="6" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">滚动回测结果汇总!#REF!</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>multi_timeframe参数优化区间设置</t>
   </si>
@@ -76,10 +71,31 @@
     <t>以平均单次回测时间1.5秒计算，预计优化时间</t>
   </si>
   <si>
-    <t>multi_timeframe_滚动回测结果汇总</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 回测区间</t>
+    <t>本地代码</t>
+  </si>
+  <si>
+    <t>K线周期</t>
+  </si>
+  <si>
+    <t>手续费率</t>
+  </si>
+  <si>
+    <t>交易滑点</t>
+  </si>
+  <si>
+    <t>合约乘数</t>
+  </si>
+  <si>
+    <t>价格跳动</t>
+  </si>
+  <si>
+    <t>回测资金</t>
+  </si>
+  <si>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>结束日期</t>
   </si>
   <si>
     <t>参数1</t>
@@ -91,16 +107,103 @@
     <t>参数3</t>
   </si>
   <si>
-    <t>收益率</t>
-  </si>
-  <si>
-    <t>最优参数</t>
-  </si>
-  <si>
-    <t>次优参数</t>
-  </si>
-  <si>
-    <t>第三参数</t>
+    <t>参数4</t>
+  </si>
+  <si>
+    <t>参数5</t>
+  </si>
+  <si>
+    <t>参数6</t>
+  </si>
+  <si>
+    <t>参数7</t>
+  </si>
+  <si>
+    <t>参数8</t>
+  </si>
+  <si>
+    <t>参数9</t>
+  </si>
+  <si>
+    <t>首个交易日</t>
+  </si>
+  <si>
+    <t>最后交易日</t>
+  </si>
+  <si>
+    <t>总交易日</t>
+  </si>
+  <si>
+    <t>盈利交易日</t>
+  </si>
+  <si>
+    <t>亏损交易日</t>
+  </si>
+  <si>
+    <t>起始资金</t>
+  </si>
+  <si>
+    <t>结束资金</t>
+  </si>
+  <si>
+    <t>总收益率</t>
+  </si>
+  <si>
+    <t>年化收益</t>
+  </si>
+  <si>
+    <t>最大回撤</t>
+  </si>
+  <si>
+    <t>百分比最大回撤</t>
+  </si>
+  <si>
+    <t>总盈亏</t>
+  </si>
+  <si>
+    <t>总手续费</t>
+  </si>
+  <si>
+    <t>总滑点</t>
+  </si>
+  <si>
+    <t>总成交额</t>
+  </si>
+  <si>
+    <t>总成交笔数</t>
+  </si>
+  <si>
+    <t>日均盈亏</t>
+  </si>
+  <si>
+    <t>日均手续费</t>
+  </si>
+  <si>
+    <t>日均滑点</t>
+  </si>
+  <si>
+    <t>日均成交额</t>
+  </si>
+  <si>
+    <t>日均成交笔数</t>
+  </si>
+  <si>
+    <t>日均收益率</t>
+  </si>
+  <si>
+    <t>收益标准差</t>
+  </si>
+  <si>
+    <t>夏普比率</t>
+  </si>
+  <si>
+    <t>收益回撤比</t>
+  </si>
+  <si>
+    <t>rb888.SHFE</t>
+  </si>
+  <si>
+    <t>1m</t>
   </si>
   <si>
     <t>bar_window1'</t>
@@ -134,16 +237,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="10">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0.00&quot;小时&quot;"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0&quot;组&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00&quot;天&quot;"/>
+    <numFmt numFmtId="177" formatCode="#,##0.000000_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0&quot;组&quot;"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00&quot;小时&quot;"/>
+    <numFmt numFmtId="181" formatCode="#,##0.00&quot;天&quot;"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,27 +263,6 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -189,21 +274,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,14 +334,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,30 +356,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,6 +394,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -311,21 +411,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -353,25 +438,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,19 +546,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,13 +582,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,55 +612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,76 +622,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -565,81 +641,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -706,6 +707,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -717,6 +727,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,35 +770,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,10 +812,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,205 +824,196 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1354,7 +1346,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.46666666666667" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.46666666666667" style="9" customWidth="1"/>
     <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="12.4416666666667" customWidth="1"/>
     <col min="4" max="4" width="11.975" customWidth="1"/>
@@ -1364,230 +1356,230 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="15">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="12">
         <v>3</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="12">
         <v>2</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>17</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="12">
         <f t="shared" ref="F3:F8" si="0">((E3-C3)/D3)+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="17">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="14">
         <v>14</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="14">
         <v>2</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="14">
         <v>30</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>10</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>5</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>35</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="17">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="14">
         <v>3</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="14">
         <v>3</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="14">
         <v>33</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="15">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>2</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>2</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>30</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="17">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="14">
         <v>6</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="14">
         <v>3</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="14">
         <v>42</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="15">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="17">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="15">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="19">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="16">
         <f>PRODUCT(F3:F8)</f>
         <v>926640</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="20">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="17">
         <f>(F12*1.9)/3600</f>
         <v>489.06</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:6">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="21">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="18">
         <f>F13/24</f>
         <v>20.3775</v>
       </c>
@@ -1606,415 +1598,403 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AZ3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F32"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="167" zoomScaleNormal="138" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="15.8333333333333" customWidth="1"/>
-    <col min="4" max="6" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="3" max="7" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="11"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="3.375" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="3.375" customWidth="1"/>
+    <col min="14" max="14" width="9.75" customWidth="1"/>
+    <col min="15" max="15" width="3.375" customWidth="1"/>
+    <col min="16" max="16" width="11.625" customWidth="1"/>
+    <col min="17" max="17" width="3.375" customWidth="1"/>
+    <col min="18" max="18" width="12.875" customWidth="1"/>
+    <col min="19" max="19" width="2.375" customWidth="1"/>
+    <col min="20" max="20" width="13.75" customWidth="1"/>
+    <col min="21" max="21" width="3.375" customWidth="1"/>
+    <col min="22" max="22" width="10.25" customWidth="1"/>
+    <col min="23" max="23" width="2.375" customWidth="1"/>
+    <col min="24" max="24" width="19.625" customWidth="1"/>
+    <col min="25" max="25" width="4.375" customWidth="1"/>
+    <col min="26" max="26" width="19.625" customWidth="1"/>
+    <col min="27" max="27" width="2.375" customWidth="1"/>
+    <col min="28" max="29" width="11.5" customWidth="1"/>
+    <col min="30" max="30" width="9.375" customWidth="1"/>
+    <col min="31" max="32" width="11.5" customWidth="1"/>
+    <col min="33" max="33" width="9.875" customWidth="1"/>
+    <col min="34" max="34" width="9.875"/>
+    <col min="35" max="35" width="9.375" customWidth="1"/>
+    <col min="37" max="37" width="9.875"/>
+    <col min="38" max="38" width="16" customWidth="1"/>
+    <col min="39" max="39" width="9.875"/>
+    <col min="42" max="42" width="13.75"/>
+    <col min="43" max="43" width="11.5" customWidth="1"/>
+    <col min="45" max="45" width="11.5" customWidth="1"/>
+    <col min="47" max="47" width="11.5" customWidth="1"/>
+    <col min="48" max="48" width="13.75" customWidth="1"/>
+    <col min="49" max="50" width="11.5" customWidth="1"/>
+    <col min="51" max="51" width="9.375" customWidth="1"/>
+    <col min="52" max="52" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:52">
+      <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" ht="28" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="4" t="s">
+    <row r="2" spans="1:52">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.0001</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>50000</v>
+      </c>
+      <c r="H2" s="5">
+        <v>40179</v>
+      </c>
+      <c r="I2" s="5">
+        <v>41274</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="6">
+        <v>13</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="6">
         <v>22</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>23</v>
+      <c r="N2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="6">
+        <v>10</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>18</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S2" s="6">
+        <v>8</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2" s="6">
+        <v>39</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W2" s="6">
+        <v>1</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>40193</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>41638</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>957</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>417</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>437</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>50000</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>82171.62</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>0.6434</v>
+      </c>
+      <c r="AJ2" s="8">
+        <v>0.1614</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>-3947.22</v>
+      </c>
+      <c r="AL2" s="8">
+        <v>-0.0639</v>
+      </c>
+      <c r="AM2" s="4">
+        <f>AH2-AG2</f>
+        <v>32171.62</v>
+      </c>
+      <c r="AN2" s="4">
+        <v>1760.38</v>
+      </c>
+      <c r="AO2" s="4">
+        <v>1448</v>
+      </c>
+      <c r="AP2" s="4">
+        <v>17603840</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>720</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>33.62</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>1.51</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>18394.82</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AW2" s="8">
+        <v>0.0005</v>
+      </c>
+      <c r="AX2" s="8">
+        <v>0.0045</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>10.07</v>
       </c>
     </row>
-    <row r="3" ht="23.25" spans="1:6">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" ht="23.25" spans="1:6">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" ht="23.25" spans="1:6">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" ht="23.25" spans="1:6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" ht="23.25" spans="1:6">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" ht="23.25" spans="1:6">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" ht="23.25" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" ht="23.25" spans="1:6">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" ht="23.25" spans="1:6">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" ht="23.25" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" ht="23.25" spans="1:6">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" ht="23.25" spans="1:6">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B5"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="A9:B11"/>
-    <mergeCell ref="A12:B14"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.751388888888889" bottom="0.751388888888889" header="0.297916666666667" footer="0.297916666666667"/>
-  <pageSetup paperSize="9" scale="120" orientation="landscape" horizontalDpi="600"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C2:T2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1"/>
-  <cols>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="3.375" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="3.375" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
-    <col min="8" max="8" width="3.375" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="3.375" customWidth="1"/>
-    <col min="11" max="11" width="12.875" customWidth="1"/>
-    <col min="12" max="12" width="2.375" customWidth="1"/>
-    <col min="13" max="13" width="13.75" customWidth="1"/>
-    <col min="14" max="14" width="3.375" customWidth="1"/>
-    <col min="15" max="15" width="10.25" customWidth="1"/>
-    <col min="16" max="16" width="2.375" customWidth="1"/>
-    <col min="17" max="17" width="19.625" customWidth="1"/>
-    <col min="18" max="18" width="4.375" customWidth="1"/>
-    <col min="19" max="19" width="19.625" customWidth="1"/>
-    <col min="20" max="20" width="2.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:20">
-      <c r="C2" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="1">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="1">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="1">
-        <v>8</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="1">
-        <v>39</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
+    <row r="3" spans="8:52">
+      <c r="H3" s="5">
+        <v>40909</v>
+      </c>
+      <c r="I3" s="5">
+        <v>42370</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/1-策略开发/1-开发中的策略/1-bar回测/7-multi_timeframe/multi_timeframe参数优化记录.xlsx
+++ b/1-策略开发/1-开发中的策略/1-bar回测/7-multi_timeframe/multi_timeframe参数优化记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="214" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="参数优化区间设置" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>multi_timeframe参数优化区间设置</t>
   </si>
@@ -238,18 +238,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00&quot;天&quot;"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.000000_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0.000000_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0&quot;组&quot;"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00&quot;小时&quot;"/>
-    <numFmt numFmtId="181" formatCode="#,##0.00&quot;天&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0&quot;组&quot;"/>
+    <numFmt numFmtId="181" formatCode="#,##0.00&quot;小时&quot;"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -260,6 +260,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -274,7 +281,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,24 +363,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,44 +395,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -362,48 +402,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,6 +416,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -438,19 +445,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,13 +583,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,145 +619,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,11 +714,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,17 +783,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,30 +797,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,10 +819,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,37 +831,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -863,98 +870,98 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -964,28 +971,34 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,13 +1016,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1334,19 +1347,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.46666666666667" style="9" customWidth="1"/>
+    <col min="1" max="1" width="5.46666666666667" style="11" customWidth="1"/>
     <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="12.4416666666667" customWidth="1"/>
     <col min="4" max="4" width="11.975" customWidth="1"/>
@@ -1356,232 +1369,237 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="12">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="14">
         <v>3</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="14">
         <v>2</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="14">
         <v>17</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="14">
         <f t="shared" ref="F3:F8" si="0">((E3-C3)/D3)+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="14">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="16">
         <v>14</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="16">
         <v>2</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="16">
         <v>30</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="12">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="14">
         <v>10</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="14">
         <v>5</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="14">
         <v>35</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="14">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="16">
         <v>3</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="16">
         <v>3</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="16">
         <v>33</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="12">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="14">
         <v>2</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="14">
         <v>2</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="14">
         <v>30</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="14">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="16">
         <v>6</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="16">
         <v>3</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="16">
         <v>42</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="12">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="14">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="12">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="16">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="18">
         <f>PRODUCT(F3:F8)</f>
         <v>926640</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="17">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="19">
         <f>(F12*1.9)/3600</f>
         <v>489.06</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:6">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="18">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="20">
         <f>F13/24</f>
         <v>20.3775</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1598,13 +1616,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AZ3"/>
+  <dimension ref="A1:AZ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="3" max="7" width="13.75" customWidth="1"/>
@@ -1618,7 +1636,7 @@
     <col min="16" max="16" width="11.625" customWidth="1"/>
     <col min="17" max="17" width="3.375" customWidth="1"/>
     <col min="18" max="18" width="12.875" customWidth="1"/>
-    <col min="19" max="19" width="2.375" customWidth="1"/>
+    <col min="19" max="19" width="3.375" customWidth="1"/>
     <col min="20" max="20" width="13.75" customWidth="1"/>
     <col min="21" max="21" width="3.375" customWidth="1"/>
     <col min="22" max="22" width="10.25" customWidth="1"/>
@@ -1814,17 +1832,17 @@
       <c r="I2" s="5">
         <v>41274</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="21" t="s">
         <v>63</v>
       </c>
       <c r="K2" s="6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>64</v>
       </c>
       <c r="M2" s="6">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>65</v>
@@ -1836,19 +1854,19 @@
         <v>66</v>
       </c>
       <c r="Q2" s="6">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>67</v>
       </c>
       <c r="S2" s="6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>68</v>
       </c>
       <c r="U2" s="6">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>69</v>
@@ -1872,129 +1890,224 @@
         <v>40193</v>
       </c>
       <c r="AC2" s="7">
-        <v>41638</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>957</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>417</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>437</v>
-      </c>
-      <c r="AG2" s="4">
+        <v>41271</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>719</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>313</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>292</v>
+      </c>
+      <c r="AG2" s="9">
         <v>50000</v>
       </c>
-      <c r="AH2" s="4">
-        <v>82171.62</v>
-      </c>
-      <c r="AI2" s="8">
-        <v>0.6434</v>
-      </c>
-      <c r="AJ2" s="8">
-        <v>0.1614</v>
-      </c>
-      <c r="AK2" s="4">
-        <v>-3947.22</v>
-      </c>
-      <c r="AL2" s="8">
-        <v>-0.0639</v>
-      </c>
-      <c r="AM2" s="4">
+      <c r="AH2" s="9">
+        <v>79327.25</v>
+      </c>
+      <c r="AI2" s="10">
+        <v>0.5865</v>
+      </c>
+      <c r="AJ2" s="10">
+        <v>0.1958</v>
+      </c>
+      <c r="AK2" s="9">
+        <v>-3461.23</v>
+      </c>
+      <c r="AL2" s="10">
+        <v>-0.0478</v>
+      </c>
+      <c r="AM2" s="9">
         <f>AH2-AG2</f>
-        <v>32171.62</v>
-      </c>
-      <c r="AN2" s="4">
-        <v>1760.38</v>
-      </c>
-      <c r="AO2" s="4">
-        <v>1448</v>
-      </c>
-      <c r="AP2" s="4">
-        <v>17603840</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>720</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>33.62</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>1.84</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>1.51</v>
-      </c>
-      <c r="AU2" s="4">
-        <v>18394.82</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="AW2" s="8">
-        <v>0.0005</v>
-      </c>
-      <c r="AX2" s="8">
-        <v>0.0045</v>
-      </c>
-      <c r="AY2" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="AZ2" s="1">
-        <v>10.07</v>
+        <v>29327.25</v>
+      </c>
+      <c r="AN2" s="9">
+        <v>1004.75</v>
+      </c>
+      <c r="AO2" s="9">
+        <v>758</v>
+      </c>
+      <c r="AP2" s="9">
+        <v>10047530</v>
+      </c>
+      <c r="AQ2" s="8">
+        <v>376</v>
+      </c>
+      <c r="AR2" s="8">
+        <v>40.79</v>
+      </c>
+      <c r="AS2" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="AT2" s="9">
+        <v>1.05</v>
+      </c>
+      <c r="AU2" s="9">
+        <v>13974.31</v>
+      </c>
+      <c r="AV2" s="9">
+        <v>0.52</v>
+      </c>
+      <c r="AW2" s="10">
+        <v>0.0006</v>
+      </c>
+      <c r="AX2" s="10">
+        <v>0.0052</v>
+      </c>
+      <c r="AY2" s="8">
+        <v>1.86</v>
+      </c>
+      <c r="AZ2" s="8">
+        <v>12.27</v>
       </c>
     </row>
     <row r="3" spans="8:52">
       <c r="H3" s="5">
+        <v>40544</v>
+      </c>
+      <c r="I3" s="5">
+        <v>41639</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="6">
+        <v>13</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="6">
+        <v>22</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="6">
+        <v>10</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>9</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S3" s="6">
+        <v>4</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="U3" s="6">
+        <v>12</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" s="6">
+        <v>1</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>40560</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>41638</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>715</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>323</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>384</v>
+      </c>
+      <c r="AG3" s="9">
+        <v>50000</v>
+      </c>
+      <c r="AH3" s="9">
+        <v>77271.39</v>
+      </c>
+      <c r="AI3" s="10">
+        <v>0.5454</v>
+      </c>
+      <c r="AJ3" s="10">
+        <v>0.1831</v>
+      </c>
+      <c r="AK3" s="9">
+        <v>-4646.44</v>
+      </c>
+      <c r="AL3" s="10">
+        <v>-0.0745</v>
+      </c>
+      <c r="AM3" s="9">
+        <f>AH3-AG3</f>
+        <v>27271.39</v>
+      </c>
+      <c r="AN3" s="9">
+        <v>2700.61</v>
+      </c>
+      <c r="AO3" s="9">
+        <v>2398</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>2700610</v>
+      </c>
+      <c r="AQ3" s="8">
+        <v>1192</v>
+      </c>
+      <c r="AR3" s="8">
+        <v>38.14</v>
+      </c>
+      <c r="AS3" s="9">
+        <v>3.78</v>
+      </c>
+      <c r="AT3" s="9">
+        <v>3.35</v>
+      </c>
+      <c r="AU3" s="9">
+        <v>37770.83</v>
+      </c>
+      <c r="AV3" s="9">
+        <v>1.67</v>
+      </c>
+      <c r="AW3" s="10">
+        <v>0.0006</v>
+      </c>
+      <c r="AX3" s="10">
+        <v>0.0045</v>
+      </c>
+      <c r="AY3" s="8">
+        <v>2.12</v>
+      </c>
+      <c r="AZ3" s="8">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="4" spans="8:9">
+      <c r="H4" s="5">
         <v>40909</v>
       </c>
-      <c r="I3" s="5">
-        <v>42370</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="1"/>
-      <c r="AZ3" s="1"/>
+      <c r="I4" s="5">
+        <v>42004</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/1-策略开发/1-开发中的策略/1-bar回测/7-multi_timeframe/multi_timeframe参数优化记录.xlsx
+++ b/1-策略开发/1-开发中的策略/1-bar回测/7-multi_timeframe/multi_timeframe参数优化记录.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="214" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="参数优化区间设置" sheetId="3" r:id="rId1"/>
-    <sheet name="回测结果" sheetId="6" r:id="rId2"/>
+    <sheet name="3年期滚动回测结果" sheetId="6" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'3年期滚动回测结果'!$A$1:$AZ$6</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
   <si>
     <t>multi_timeframe参数优化区间设置</t>
   </si>
@@ -125,6 +128,12 @@
     <t>参数9</t>
   </si>
   <si>
+    <t>总收益率</t>
+  </si>
+  <si>
+    <t>年化收益</t>
+  </si>
+  <si>
     <t>首个交易日</t>
   </si>
   <si>
@@ -144,12 +153,6 @@
   </si>
   <si>
     <t>结束资金</t>
-  </si>
-  <si>
-    <t>总收益率</t>
-  </si>
-  <si>
-    <t>年化收益</t>
   </si>
   <si>
     <t>最大回撤</t>
@@ -238,16 +241,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="#,##0.00&quot;天&quot;"/>
+    <numFmt numFmtId="176" formatCode="#,##0.00&quot;小时&quot;"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0.000000_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.000000_ "/>
     <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="180" formatCode="#,##0&quot;组&quot;"/>
-    <numFmt numFmtId="181" formatCode="#,##0.00&quot;小时&quot;"/>
+    <numFmt numFmtId="181" formatCode="#,##0.00&quot;天&quot;"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -287,29 +290,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -317,9 +297,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,9 +318,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,6 +365,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -380,6 +389,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -389,21 +406,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,61 +448,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,19 +604,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,78 +622,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -614,18 +629,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,26 +717,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,21 +752,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,7 +775,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,8 +783,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,10 +822,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -831,133 +834,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -968,12 +971,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -983,17 +986,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1019,10 +1022,10 @@
     <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1347,14 +1350,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -1597,11 +1600,6 @@
         <v>20.3775</v>
       </c>
     </row>
-    <row r="22" spans="4:4">
-      <c r="D22">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
@@ -1616,16 +1614,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AZ4"/>
+  <dimension ref="A1:AZ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="3" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="9.875"/>
     <col min="9" max="9" width="11"/>
     <col min="10" max="10" width="12.875" customWidth="1"/>
     <col min="11" max="11" width="3.375" customWidth="1"/>
@@ -1645,13 +1644,12 @@
     <col min="25" max="25" width="4.375" customWidth="1"/>
     <col min="26" max="26" width="19.625" customWidth="1"/>
     <col min="27" max="27" width="2.375" customWidth="1"/>
-    <col min="28" max="29" width="11.5" customWidth="1"/>
-    <col min="30" max="30" width="9.375" customWidth="1"/>
-    <col min="31" max="32" width="11.5" customWidth="1"/>
-    <col min="33" max="33" width="9.875" customWidth="1"/>
-    <col min="34" max="34" width="9.875"/>
-    <col min="35" max="35" width="9.375" customWidth="1"/>
-    <col min="37" max="37" width="9.875"/>
+    <col min="28" max="28" width="9.375" customWidth="1"/>
+    <col min="30" max="31" width="11.5" customWidth="1"/>
+    <col min="32" max="32" width="9.375" customWidth="1"/>
+    <col min="33" max="34" width="11.5" customWidth="1"/>
+    <col min="35" max="35" width="9.875" customWidth="1"/>
+    <col min="36" max="37" width="9.875"/>
     <col min="38" max="38" width="16" customWidth="1"/>
     <col min="39" max="39" width="9.875"/>
     <col min="42" max="42" width="13.75"/>
@@ -1887,79 +1885,80 @@
         <v>0</v>
       </c>
       <c r="AB2" s="7">
+        <f>(AJ2-AI2)/AI2</f>
+        <v>0.586545</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>0.1958</v>
+      </c>
+      <c r="AD2" s="8">
         <v>40193</v>
       </c>
-      <c r="AC2" s="7">
+      <c r="AE2" s="8">
         <v>41271</v>
       </c>
-      <c r="AD2" s="8">
+      <c r="AF2" s="9">
         <v>719</v>
       </c>
-      <c r="AE2" s="8">
+      <c r="AG2" s="9">
         <v>313</v>
       </c>
-      <c r="AF2" s="8">
+      <c r="AH2" s="9">
         <v>292</v>
       </c>
-      <c r="AG2" s="9">
+      <c r="AI2" s="10">
         <v>50000</v>
       </c>
-      <c r="AH2" s="9">
+      <c r="AJ2" s="10">
         <v>79327.25</v>
       </c>
-      <c r="AI2" s="10">
-        <v>0.5865</v>
-      </c>
-      <c r="AJ2" s="10">
-        <v>0.1958</v>
-      </c>
-      <c r="AK2" s="9">
+      <c r="AK2" s="10">
         <v>-3461.23</v>
       </c>
-      <c r="AL2" s="10">
+      <c r="AL2" s="7">
         <v>-0.0478</v>
       </c>
-      <c r="AM2" s="9">
-        <f>AH2-AG2</f>
+      <c r="AM2" s="10">
+        <f>AJ2-AI2</f>
         <v>29327.25</v>
       </c>
-      <c r="AN2" s="9">
+      <c r="AN2" s="10">
         <v>1004.75</v>
       </c>
-      <c r="AO2" s="9">
+      <c r="AO2" s="10">
         <v>758</v>
       </c>
-      <c r="AP2" s="9">
+      <c r="AP2" s="10">
         <v>10047530</v>
       </c>
-      <c r="AQ2" s="8">
+      <c r="AQ2" s="9">
         <v>376</v>
       </c>
-      <c r="AR2" s="8">
+      <c r="AR2" s="10">
         <v>40.79</v>
       </c>
-      <c r="AS2" s="9">
+      <c r="AS2" s="10">
         <v>1.4</v>
       </c>
-      <c r="AT2" s="9">
+      <c r="AT2" s="10">
         <v>1.05</v>
       </c>
-      <c r="AU2" s="9">
+      <c r="AU2" s="10">
         <v>13974.31</v>
       </c>
-      <c r="AV2" s="9">
+      <c r="AV2" s="10">
         <v>0.52</v>
       </c>
-      <c r="AW2" s="10">
+      <c r="AW2" s="7">
         <v>0.0006</v>
       </c>
-      <c r="AX2" s="10">
+      <c r="AX2" s="7">
         <v>0.0052</v>
       </c>
-      <c r="AY2" s="8">
+      <c r="AY2" s="9">
         <v>1.86</v>
       </c>
-      <c r="AZ2" s="8">
+      <c r="AZ2" s="10">
         <v>12.27</v>
       </c>
     </row>
@@ -2025,91 +2024,776 @@
         <v>0</v>
       </c>
       <c r="AB3" s="7">
+        <f>(AJ3-AI3)/AI3</f>
+        <v>0.5454278</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>0.1831</v>
+      </c>
+      <c r="AD3" s="8">
         <v>40560</v>
       </c>
-      <c r="AC3" s="7">
+      <c r="AE3" s="8">
         <v>41638</v>
       </c>
-      <c r="AD3" s="8">
+      <c r="AF3" s="9">
         <v>715</v>
       </c>
-      <c r="AE3" s="8">
+      <c r="AG3" s="9">
         <v>323</v>
       </c>
-      <c r="AF3" s="8">
+      <c r="AH3" s="9">
         <v>384</v>
       </c>
-      <c r="AG3" s="9">
+      <c r="AI3" s="10">
         <v>50000</v>
       </c>
-      <c r="AH3" s="9">
+      <c r="AJ3" s="10">
         <v>77271.39</v>
       </c>
-      <c r="AI3" s="10">
-        <v>0.5454</v>
-      </c>
-      <c r="AJ3" s="10">
-        <v>0.1831</v>
-      </c>
-      <c r="AK3" s="9">
+      <c r="AK3" s="10">
         <v>-4646.44</v>
       </c>
-      <c r="AL3" s="10">
+      <c r="AL3" s="7">
         <v>-0.0745</v>
       </c>
-      <c r="AM3" s="9">
-        <f>AH3-AG3</f>
+      <c r="AM3" s="10">
+        <f>AJ3-AI3</f>
         <v>27271.39</v>
       </c>
-      <c r="AN3" s="9">
+      <c r="AN3" s="10">
         <v>2700.61</v>
       </c>
-      <c r="AO3" s="9">
+      <c r="AO3" s="10">
         <v>2398</v>
       </c>
-      <c r="AP3" s="9">
-        <v>2700610</v>
-      </c>
-      <c r="AQ3" s="8">
+      <c r="AP3" s="10">
+        <v>27006140</v>
+      </c>
+      <c r="AQ3" s="9">
         <v>1192</v>
       </c>
-      <c r="AR3" s="8">
+      <c r="AR3" s="10">
         <v>38.14</v>
       </c>
-      <c r="AS3" s="9">
+      <c r="AS3" s="10">
         <v>3.78</v>
       </c>
-      <c r="AT3" s="9">
+      <c r="AT3" s="10">
         <v>3.35</v>
       </c>
-      <c r="AU3" s="9">
+      <c r="AU3" s="10">
         <v>37770.83</v>
       </c>
-      <c r="AV3" s="9">
+      <c r="AV3" s="10">
         <v>1.67</v>
       </c>
-      <c r="AW3" s="10">
+      <c r="AW3" s="7">
         <v>0.0006</v>
       </c>
-      <c r="AX3" s="10">
+      <c r="AX3" s="7">
         <v>0.0045</v>
       </c>
-      <c r="AY3" s="8">
+      <c r="AY3" s="9">
         <v>2.12</v>
       </c>
-      <c r="AZ3" s="8">
+      <c r="AZ3" s="10">
         <v>7.32</v>
       </c>
     </row>
-    <row r="4" spans="8:9">
+    <row r="4" spans="8:52">
       <c r="H4" s="5">
         <v>40909</v>
       </c>
       <c r="I4" s="5">
         <v>42004</v>
       </c>
+      <c r="J4" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="6">
+        <v>9</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="6">
+        <v>14</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="6">
+        <v>10</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>15</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S4" s="6">
+        <v>2</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="U4" s="6">
+        <v>18</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W4" s="6">
+        <v>1</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="7">
+        <f>(AJ4-AI4)/AI4</f>
+        <v>0.4702732</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>0.1572</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>40925</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>42004</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>718</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>320</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>386</v>
+      </c>
+      <c r="AI4" s="10">
+        <v>50000</v>
+      </c>
+      <c r="AJ4" s="10">
+        <v>73513.66</v>
+      </c>
+      <c r="AK4" s="10">
+        <v>-2326.22</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>-0.0316</v>
+      </c>
+      <c r="AM4" s="10">
+        <f>AJ4-AI4</f>
+        <v>23513.66</v>
+      </c>
+      <c r="AN4" s="10">
+        <v>1844.35</v>
+      </c>
+      <c r="AO4" s="10">
+        <v>2342</v>
+      </c>
+      <c r="AP4" s="10">
+        <v>18443450</v>
+      </c>
+      <c r="AQ4" s="9">
+        <v>1167</v>
+      </c>
+      <c r="AR4" s="10">
+        <v>32.75</v>
+      </c>
+      <c r="AS4" s="10">
+        <v>2.57</v>
+      </c>
+      <c r="AT4" s="10">
+        <v>3.26</v>
+      </c>
+      <c r="AU4" s="10">
+        <v>25687.26</v>
+      </c>
+      <c r="AV4" s="10">
+        <v>1.63</v>
+      </c>
+      <c r="AW4" s="7">
+        <v>0.0005</v>
+      </c>
+      <c r="AX4" s="7">
+        <v>0.0041</v>
+      </c>
+      <c r="AY4" s="9">
+        <v>1.99</v>
+      </c>
+      <c r="AZ4" s="10">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="5" spans="8:52">
+      <c r="H5" s="5">
+        <v>41275</v>
+      </c>
+      <c r="I5" s="5">
+        <v>42369</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="6">
+        <v>17</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="6">
+        <v>30</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="6">
+        <v>10</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>27</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S5" s="6">
+        <v>18</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="U5" s="6">
+        <v>42</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5" s="6">
+        <v>1</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>0.322</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>0.1013</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>41291</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>42369</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>763</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>276</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>269</v>
+      </c>
+      <c r="AI5" s="10">
+        <v>50000</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>66098.05</v>
+      </c>
+      <c r="AK5" s="10">
+        <v>-1957.84</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>-0.0358</v>
+      </c>
+      <c r="AM5" s="10">
+        <f>AJ5-AI5</f>
+        <v>16098.05</v>
+      </c>
+      <c r="AN5" s="10">
+        <v>191.95</v>
+      </c>
+      <c r="AO5" s="10">
+        <v>680</v>
+      </c>
+      <c r="AP5" s="10">
+        <v>1919510</v>
+      </c>
+      <c r="AQ5" s="9">
+        <v>339</v>
+      </c>
+      <c r="AR5" s="10">
+        <v>21.1</v>
+      </c>
+      <c r="AS5" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="AT5" s="10">
+        <v>0.89</v>
+      </c>
+      <c r="AU5" s="10">
+        <v>2515.74</v>
+      </c>
+      <c r="AV5" s="10">
+        <v>0.44</v>
+      </c>
+      <c r="AW5" s="7">
+        <v>0.0004</v>
+      </c>
+      <c r="AX5" s="7">
+        <v>0.0036</v>
+      </c>
+      <c r="AY5" s="9">
+        <v>1.56</v>
+      </c>
+      <c r="AZ5" s="10">
+        <v>8.98</v>
+      </c>
+    </row>
+    <row r="6" spans="8:52">
+      <c r="H6" s="5">
+        <v>41640</v>
+      </c>
+      <c r="I6" s="5">
+        <v>42735</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="6">
+        <v>9</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="6">
+        <v>26</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="6">
+        <v>15</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>9</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6" s="6">
+        <v>4</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="U6" s="6">
+        <v>30</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W6" s="6">
+        <v>1</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>0.6254</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>0.1919</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>41654</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>42734</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>782</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>345</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>384</v>
+      </c>
+      <c r="AI6" s="10">
+        <v>50000</v>
+      </c>
+      <c r="AJ6" s="10">
+        <v>81270.19</v>
+      </c>
+      <c r="AK6" s="10">
+        <v>-2321.78</v>
+      </c>
+      <c r="AL6" s="7">
+        <v>-0.0352</v>
+      </c>
+      <c r="AM6" s="10">
+        <f>AJ6-AI6</f>
+        <v>31270.19</v>
+      </c>
+      <c r="AN6" s="10">
+        <v>317.81</v>
+      </c>
+      <c r="AO6" s="10">
+        <v>3382</v>
+      </c>
+      <c r="AP6" s="10">
+        <v>3178140</v>
+      </c>
+      <c r="AQ6" s="9">
+        <v>1686</v>
+      </c>
+      <c r="AR6" s="10">
+        <v>39.99</v>
+      </c>
+      <c r="AS6" s="10">
+        <v>0.41</v>
+      </c>
+      <c r="AT6" s="10">
+        <v>4.32</v>
+      </c>
+      <c r="AU6" s="10">
+        <v>4064.12</v>
+      </c>
+      <c r="AV6" s="10">
+        <v>2.16</v>
+      </c>
+      <c r="AW6" s="7">
+        <v>0.0006</v>
+      </c>
+      <c r="AX6" s="7">
+        <v>0.0045</v>
+      </c>
+      <c r="AY6" s="9">
+        <v>2.15</v>
+      </c>
+      <c r="AZ6" s="10">
+        <v>17.76</v>
+      </c>
+    </row>
+    <row r="7" spans="8:52">
+      <c r="H7" s="5">
+        <v>42005</v>
+      </c>
+      <c r="I7" s="5">
+        <v>43100</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="6">
+        <v>13</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="6">
+        <v>20</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="6">
+        <v>15</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>6</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" s="6">
+        <v>12</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="U7" s="6">
+        <v>27</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W7" s="6">
+        <v>1</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>0.7734</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>0.238</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>42019</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>43098</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>780</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>360</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>380</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>50000</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>88670.32</v>
+      </c>
+      <c r="AK7" s="10">
+        <v>-5166.64</v>
+      </c>
+      <c r="AL7" s="7">
+        <v>-0.0575</v>
+      </c>
+      <c r="AM7" s="10">
+        <f>AJ7-AI7</f>
+        <v>38670.32</v>
+      </c>
+      <c r="AN7" s="10">
+        <v>893.68</v>
+      </c>
+      <c r="AO7" s="10">
+        <v>3956</v>
+      </c>
+      <c r="AP7" s="10">
+        <v>8936840</v>
+      </c>
+      <c r="AQ7" s="9">
+        <v>1969</v>
+      </c>
+      <c r="AR7" s="10">
+        <v>49.58</v>
+      </c>
+      <c r="AS7" s="10">
+        <v>1.15</v>
+      </c>
+      <c r="AT7" s="10">
+        <v>5.07</v>
+      </c>
+      <c r="AU7" s="10">
+        <v>11457.49</v>
+      </c>
+      <c r="AV7" s="10">
+        <v>2.52</v>
+      </c>
+      <c r="AW7" s="7">
+        <v>0.0007</v>
+      </c>
+      <c r="AX7" s="7">
+        <v>0.0056</v>
+      </c>
+      <c r="AY7" s="9">
+        <v>2.02</v>
+      </c>
+      <c r="AZ7" s="10">
+        <v>13.44</v>
+      </c>
+    </row>
+    <row r="8" spans="8:29">
+      <c r="H8" s="5">
+        <v>42370</v>
+      </c>
+      <c r="I8" s="5">
+        <v>43465</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="6">
+        <v>14</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="6">
+        <v>18</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="6">
+        <v>15</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>6</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8" s="6">
+        <v>6</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="U8" s="6">
+        <v>42</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W8" s="6">
+        <v>1</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>0.9564</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>0.3123</v>
+      </c>
+    </row>
+    <row r="9" spans="8:29">
+      <c r="H9" s="5">
+        <v>42736</v>
+      </c>
+      <c r="I9" s="5">
+        <v>43830</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="6">
+        <v>13</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="6">
+        <v>16</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="6">
+        <v>10</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>9</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9" s="6">
+        <v>14</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="U9" s="6">
+        <v>33</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W9" s="6">
+        <v>1</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>0.5934</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>0.1975</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AZ6">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/1-策略开发/1-开发中的策略/1-bar回测/7-multi_timeframe/multi_timeframe参数优化记录.xlsx
+++ b/1-策略开发/1-开发中的策略/1-bar回测/7-multi_timeframe/multi_timeframe参数优化记录.xlsx
@@ -11,14 +11,14 @@
     <sheet name="3年期滚动回测结果" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'3年期滚动回测结果'!$A$1:$AZ$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'3年期滚动回测结果'!$A$1:$AZ$10</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
   <si>
     <t>multi_timeframe参数优化区间设置</t>
   </si>
@@ -241,12 +241,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="#,##0.00&quot;小时&quot;"/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.00&quot;小时&quot;"/>
     <numFmt numFmtId="178" formatCode="#,##0.000000_ "/>
     <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="180" formatCode="#,##0&quot;组&quot;"/>
@@ -283,6 +283,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -291,14 +307,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,6 +335,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -326,24 +350,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,14 +389,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -406,22 +407,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,55 +448,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,127 +628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,9 +719,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,21 +754,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,16 +791,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -806,11 +808,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,10 +822,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,36 +834,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,98 +870,101 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -974,7 +974,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -986,6 +986,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1022,7 +1028,7 @@
     <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1357,12 +1363,12 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.46666666666667" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.46666666666667" style="13" customWidth="1"/>
     <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="12.4416666666667" customWidth="1"/>
     <col min="4" max="4" width="11.975" customWidth="1"/>
@@ -1372,230 +1378,230 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="14">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="16">
         <v>3</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="16">
         <v>2</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="16">
         <v>17</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="16">
         <f t="shared" ref="F3:F8" si="0">((E3-C3)/D3)+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="16">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="18">
         <v>14</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="18">
         <v>2</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="18">
         <v>30</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="16">
         <v>10</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="16">
         <v>5</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="16">
         <v>35</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="16">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="18">
         <v>3</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="18">
         <v>3</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="18">
         <v>33</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="14">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="16">
         <v>2</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="16">
         <v>2</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="16">
         <v>30</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="16">
+      <c r="A8" s="18">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="18">
         <v>6</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="18">
         <v>3</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="18">
         <v>42</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="14">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="16">
+      <c r="A10" s="18">
         <v>8</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="14">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="18">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="20">
         <f>PRODUCT(F3:F8)</f>
         <v>926640</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="19">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="21">
         <f>(F12*1.9)/3600</f>
         <v>489.06</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:6">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="20">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="22">
         <f>F13/24</f>
         <v>20.3775</v>
       </c>
@@ -1614,10 +1620,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AZ9"/>
+  <dimension ref="A1:AZ10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1830,7 +1836,7 @@
       <c r="I2" s="5">
         <v>41274</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="23" t="s">
         <v>63</v>
       </c>
       <c r="K2" s="6">
@@ -1884,81 +1890,81 @@
       <c r="AA2" s="6">
         <v>0</v>
       </c>
-      <c r="AB2" s="7">
+      <c r="AB2" s="9">
         <f>(AJ2-AI2)/AI2</f>
         <v>0.586545</v>
       </c>
-      <c r="AC2" s="7">
+      <c r="AC2" s="9">
         <v>0.1958</v>
       </c>
-      <c r="AD2" s="8">
+      <c r="AD2" s="10">
         <v>40193</v>
       </c>
-      <c r="AE2" s="8">
+      <c r="AE2" s="10">
         <v>41271</v>
       </c>
-      <c r="AF2" s="9">
+      <c r="AF2" s="11">
         <v>719</v>
       </c>
-      <c r="AG2" s="9">
+      <c r="AG2" s="11">
         <v>313</v>
       </c>
-      <c r="AH2" s="9">
+      <c r="AH2" s="11">
         <v>292</v>
       </c>
-      <c r="AI2" s="10">
+      <c r="AI2" s="12">
         <v>50000</v>
       </c>
-      <c r="AJ2" s="10">
+      <c r="AJ2" s="12">
         <v>79327.25</v>
       </c>
-      <c r="AK2" s="10">
+      <c r="AK2" s="12">
         <v>-3461.23</v>
       </c>
-      <c r="AL2" s="7">
+      <c r="AL2" s="9">
         <v>-0.0478</v>
       </c>
-      <c r="AM2" s="10">
-        <f>AJ2-AI2</f>
+      <c r="AM2" s="12">
+        <f t="shared" ref="AM2:AM7" si="0">AJ2-AI2</f>
         <v>29327.25</v>
       </c>
-      <c r="AN2" s="10">
+      <c r="AN2" s="12">
         <v>1004.75</v>
       </c>
-      <c r="AO2" s="10">
+      <c r="AO2" s="12">
         <v>758</v>
       </c>
-      <c r="AP2" s="10">
+      <c r="AP2" s="12">
         <v>10047530</v>
       </c>
-      <c r="AQ2" s="9">
+      <c r="AQ2" s="11">
         <v>376</v>
       </c>
-      <c r="AR2" s="10">
+      <c r="AR2" s="12">
         <v>40.79</v>
       </c>
-      <c r="AS2" s="10">
+      <c r="AS2" s="12">
         <v>1.4</v>
       </c>
-      <c r="AT2" s="10">
+      <c r="AT2" s="12">
         <v>1.05</v>
       </c>
-      <c r="AU2" s="10">
+      <c r="AU2" s="12">
         <v>13974.31</v>
       </c>
-      <c r="AV2" s="10">
+      <c r="AV2" s="12">
         <v>0.52</v>
       </c>
-      <c r="AW2" s="7">
+      <c r="AW2" s="9">
         <v>0.0006</v>
       </c>
-      <c r="AX2" s="7">
+      <c r="AX2" s="9">
         <v>0.0052</v>
       </c>
-      <c r="AY2" s="9">
+      <c r="AY2" s="11">
         <v>1.86</v>
       </c>
-      <c r="AZ2" s="10">
+      <c r="AZ2" s="12">
         <v>12.27</v>
       </c>
     </row>
@@ -1969,7 +1975,7 @@
       <c r="I3" s="5">
         <v>41639</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="23" t="s">
         <v>63</v>
       </c>
       <c r="K3" s="6">
@@ -2023,81 +2029,81 @@
       <c r="AA3" s="6">
         <v>0</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AB3" s="9">
         <f>(AJ3-AI3)/AI3</f>
         <v>0.5454278</v>
       </c>
-      <c r="AC3" s="7">
+      <c r="AC3" s="9">
         <v>0.1831</v>
       </c>
-      <c r="AD3" s="8">
+      <c r="AD3" s="10">
         <v>40560</v>
       </c>
-      <c r="AE3" s="8">
+      <c r="AE3" s="10">
         <v>41638</v>
       </c>
-      <c r="AF3" s="9">
+      <c r="AF3" s="11">
         <v>715</v>
       </c>
-      <c r="AG3" s="9">
+      <c r="AG3" s="11">
         <v>323</v>
       </c>
-      <c r="AH3" s="9">
+      <c r="AH3" s="11">
         <v>384</v>
       </c>
-      <c r="AI3" s="10">
+      <c r="AI3" s="12">
         <v>50000</v>
       </c>
-      <c r="AJ3" s="10">
+      <c r="AJ3" s="12">
         <v>77271.39</v>
       </c>
-      <c r="AK3" s="10">
+      <c r="AK3" s="12">
         <v>-4646.44</v>
       </c>
-      <c r="AL3" s="7">
+      <c r="AL3" s="9">
         <v>-0.0745</v>
       </c>
-      <c r="AM3" s="10">
-        <f>AJ3-AI3</f>
+      <c r="AM3" s="12">
+        <f t="shared" si="0"/>
         <v>27271.39</v>
       </c>
-      <c r="AN3" s="10">
+      <c r="AN3" s="12">
         <v>2700.61</v>
       </c>
-      <c r="AO3" s="10">
+      <c r="AO3" s="12">
         <v>2398</v>
       </c>
-      <c r="AP3" s="10">
+      <c r="AP3" s="12">
         <v>27006140</v>
       </c>
-      <c r="AQ3" s="9">
+      <c r="AQ3" s="11">
         <v>1192</v>
       </c>
-      <c r="AR3" s="10">
+      <c r="AR3" s="12">
         <v>38.14</v>
       </c>
-      <c r="AS3" s="10">
+      <c r="AS3" s="12">
         <v>3.78</v>
       </c>
-      <c r="AT3" s="10">
+      <c r="AT3" s="12">
         <v>3.35</v>
       </c>
-      <c r="AU3" s="10">
+      <c r="AU3" s="12">
         <v>37770.83</v>
       </c>
-      <c r="AV3" s="10">
+      <c r="AV3" s="12">
         <v>1.67</v>
       </c>
-      <c r="AW3" s="7">
+      <c r="AW3" s="9">
         <v>0.0006</v>
       </c>
-      <c r="AX3" s="7">
+      <c r="AX3" s="9">
         <v>0.0045</v>
       </c>
-      <c r="AY3" s="9">
+      <c r="AY3" s="11">
         <v>2.12</v>
       </c>
-      <c r="AZ3" s="10">
+      <c r="AZ3" s="12">
         <v>7.32</v>
       </c>
     </row>
@@ -2108,7 +2114,7 @@
       <c r="I4" s="5">
         <v>42004</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="23" t="s">
         <v>63</v>
       </c>
       <c r="K4" s="6">
@@ -2162,81 +2168,81 @@
       <c r="AA4" s="6">
         <v>0</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AB4" s="9">
         <f>(AJ4-AI4)/AI4</f>
         <v>0.4702732</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AC4" s="9">
         <v>0.1572</v>
       </c>
-      <c r="AD4" s="8">
+      <c r="AD4" s="10">
         <v>40925</v>
       </c>
-      <c r="AE4" s="8">
+      <c r="AE4" s="10">
         <v>42004</v>
       </c>
-      <c r="AF4" s="9">
+      <c r="AF4" s="11">
         <v>718</v>
       </c>
-      <c r="AG4" s="9">
+      <c r="AG4" s="11">
         <v>320</v>
       </c>
-      <c r="AH4" s="9">
+      <c r="AH4" s="11">
         <v>386</v>
       </c>
-      <c r="AI4" s="10">
+      <c r="AI4" s="12">
         <v>50000</v>
       </c>
-      <c r="AJ4" s="10">
+      <c r="AJ4" s="12">
         <v>73513.66</v>
       </c>
-      <c r="AK4" s="10">
+      <c r="AK4" s="12">
         <v>-2326.22</v>
       </c>
-      <c r="AL4" s="7">
+      <c r="AL4" s="9">
         <v>-0.0316</v>
       </c>
-      <c r="AM4" s="10">
-        <f>AJ4-AI4</f>
+      <c r="AM4" s="12">
+        <f t="shared" si="0"/>
         <v>23513.66</v>
       </c>
-      <c r="AN4" s="10">
+      <c r="AN4" s="12">
         <v>1844.35</v>
       </c>
-      <c r="AO4" s="10">
+      <c r="AO4" s="12">
         <v>2342</v>
       </c>
-      <c r="AP4" s="10">
+      <c r="AP4" s="12">
         <v>18443450</v>
       </c>
-      <c r="AQ4" s="9">
+      <c r="AQ4" s="11">
         <v>1167</v>
       </c>
-      <c r="AR4" s="10">
+      <c r="AR4" s="12">
         <v>32.75</v>
       </c>
-      <c r="AS4" s="10">
+      <c r="AS4" s="12">
         <v>2.57</v>
       </c>
-      <c r="AT4" s="10">
+      <c r="AT4" s="12">
         <v>3.26</v>
       </c>
-      <c r="AU4" s="10">
+      <c r="AU4" s="12">
         <v>25687.26</v>
       </c>
-      <c r="AV4" s="10">
+      <c r="AV4" s="12">
         <v>1.63</v>
       </c>
-      <c r="AW4" s="7">
+      <c r="AW4" s="9">
         <v>0.0005</v>
       </c>
-      <c r="AX4" s="7">
+      <c r="AX4" s="9">
         <v>0.0041</v>
       </c>
-      <c r="AY4" s="9">
+      <c r="AY4" s="11">
         <v>1.99</v>
       </c>
-      <c r="AZ4" s="10">
+      <c r="AZ4" s="12">
         <v>14.9</v>
       </c>
     </row>
@@ -2247,7 +2253,7 @@
       <c r="I5" s="5">
         <v>42369</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="23" t="s">
         <v>63</v>
       </c>
       <c r="K5" s="6">
@@ -2301,80 +2307,80 @@
       <c r="AA5" s="6">
         <v>0</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AB5" s="9">
         <v>0.322</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AC5" s="9">
         <v>0.1013</v>
       </c>
-      <c r="AD5" s="8">
+      <c r="AD5" s="10">
         <v>41291</v>
       </c>
-      <c r="AE5" s="8">
+      <c r="AE5" s="10">
         <v>42369</v>
       </c>
-      <c r="AF5" s="9">
+      <c r="AF5" s="11">
         <v>763</v>
       </c>
-      <c r="AG5" s="9">
+      <c r="AG5" s="11">
         <v>276</v>
       </c>
-      <c r="AH5" s="9">
+      <c r="AH5" s="11">
         <v>269</v>
       </c>
-      <c r="AI5" s="10">
+      <c r="AI5" s="12">
         <v>50000</v>
       </c>
-      <c r="AJ5" s="10">
+      <c r="AJ5" s="12">
         <v>66098.05</v>
       </c>
-      <c r="AK5" s="10">
+      <c r="AK5" s="12">
         <v>-1957.84</v>
       </c>
-      <c r="AL5" s="7">
+      <c r="AL5" s="9">
         <v>-0.0358</v>
       </c>
-      <c r="AM5" s="10">
-        <f>AJ5-AI5</f>
+      <c r="AM5" s="12">
+        <f t="shared" si="0"/>
         <v>16098.05</v>
       </c>
-      <c r="AN5" s="10">
+      <c r="AN5" s="12">
         <v>191.95</v>
       </c>
-      <c r="AO5" s="10">
+      <c r="AO5" s="12">
         <v>680</v>
       </c>
-      <c r="AP5" s="10">
+      <c r="AP5" s="12">
         <v>1919510</v>
       </c>
-      <c r="AQ5" s="9">
+      <c r="AQ5" s="11">
         <v>339</v>
       </c>
-      <c r="AR5" s="10">
+      <c r="AR5" s="12">
         <v>21.1</v>
       </c>
-      <c r="AS5" s="10">
+      <c r="AS5" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT5" s="10">
+      <c r="AT5" s="12">
         <v>0.89</v>
       </c>
-      <c r="AU5" s="10">
+      <c r="AU5" s="12">
         <v>2515.74</v>
       </c>
-      <c r="AV5" s="10">
+      <c r="AV5" s="12">
         <v>0.44</v>
       </c>
-      <c r="AW5" s="7">
+      <c r="AW5" s="9">
         <v>0.0004</v>
       </c>
-      <c r="AX5" s="7">
+      <c r="AX5" s="9">
         <v>0.0036</v>
       </c>
-      <c r="AY5" s="9">
+      <c r="AY5" s="11">
         <v>1.56</v>
       </c>
-      <c r="AZ5" s="10">
+      <c r="AZ5" s="12">
         <v>8.98</v>
       </c>
     </row>
@@ -2385,7 +2391,7 @@
       <c r="I6" s="5">
         <v>42735</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="23" t="s">
         <v>63</v>
       </c>
       <c r="K6" s="6">
@@ -2439,80 +2445,80 @@
       <c r="AA6" s="6">
         <v>0</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AB6" s="9">
         <v>0.6254</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="AC6" s="9">
         <v>0.1919</v>
       </c>
-      <c r="AD6" s="8">
+      <c r="AD6" s="10">
         <v>41654</v>
       </c>
-      <c r="AE6" s="8">
+      <c r="AE6" s="10">
         <v>42734</v>
       </c>
-      <c r="AF6" s="9">
+      <c r="AF6" s="11">
         <v>782</v>
       </c>
-      <c r="AG6" s="9">
+      <c r="AG6" s="11">
         <v>345</v>
       </c>
-      <c r="AH6" s="9">
+      <c r="AH6" s="11">
         <v>384</v>
       </c>
-      <c r="AI6" s="10">
+      <c r="AI6" s="12">
         <v>50000</v>
       </c>
-      <c r="AJ6" s="10">
+      <c r="AJ6" s="12">
         <v>81270.19</v>
       </c>
-      <c r="AK6" s="10">
+      <c r="AK6" s="12">
         <v>-2321.78</v>
       </c>
-      <c r="AL6" s="7">
+      <c r="AL6" s="9">
         <v>-0.0352</v>
       </c>
-      <c r="AM6" s="10">
-        <f>AJ6-AI6</f>
+      <c r="AM6" s="12">
+        <f t="shared" si="0"/>
         <v>31270.19</v>
       </c>
-      <c r="AN6" s="10">
+      <c r="AN6" s="12">
         <v>317.81</v>
       </c>
-      <c r="AO6" s="10">
+      <c r="AO6" s="12">
         <v>3382</v>
       </c>
-      <c r="AP6" s="10">
+      <c r="AP6" s="12">
         <v>3178140</v>
       </c>
-      <c r="AQ6" s="9">
+      <c r="AQ6" s="11">
         <v>1686</v>
       </c>
-      <c r="AR6" s="10">
+      <c r="AR6" s="12">
         <v>39.99</v>
       </c>
-      <c r="AS6" s="10">
+      <c r="AS6" s="12">
         <v>0.41</v>
       </c>
-      <c r="AT6" s="10">
+      <c r="AT6" s="12">
         <v>4.32</v>
       </c>
-      <c r="AU6" s="10">
+      <c r="AU6" s="12">
         <v>4064.12</v>
       </c>
-      <c r="AV6" s="10">
+      <c r="AV6" s="12">
         <v>2.16</v>
       </c>
-      <c r="AW6" s="7">
+      <c r="AW6" s="9">
         <v>0.0006</v>
       </c>
-      <c r="AX6" s="7">
+      <c r="AX6" s="9">
         <v>0.0045</v>
       </c>
-      <c r="AY6" s="9">
+      <c r="AY6" s="11">
         <v>2.15</v>
       </c>
-      <c r="AZ6" s="10">
+      <c r="AZ6" s="12">
         <v>17.76</v>
       </c>
     </row>
@@ -2523,7 +2529,7 @@
       <c r="I7" s="5">
         <v>43100</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="23" t="s">
         <v>63</v>
       </c>
       <c r="K7" s="6">
@@ -2577,80 +2583,80 @@
       <c r="AA7" s="6">
         <v>0</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AB7" s="9">
         <v>0.7734</v>
       </c>
-      <c r="AC7" s="7">
+      <c r="AC7" s="9">
         <v>0.238</v>
       </c>
-      <c r="AD7" s="8">
+      <c r="AD7" s="10">
         <v>42019</v>
       </c>
-      <c r="AE7" s="8">
+      <c r="AE7" s="10">
         <v>43098</v>
       </c>
-      <c r="AF7" s="9">
+      <c r="AF7" s="11">
         <v>780</v>
       </c>
-      <c r="AG7" s="9">
+      <c r="AG7" s="11">
         <v>360</v>
       </c>
-      <c r="AH7" s="9">
+      <c r="AH7" s="11">
         <v>380</v>
       </c>
-      <c r="AI7" s="10">
+      <c r="AI7" s="12">
         <v>50000</v>
       </c>
-      <c r="AJ7" s="10">
+      <c r="AJ7" s="12">
         <v>88670.32</v>
       </c>
-      <c r="AK7" s="10">
+      <c r="AK7" s="12">
         <v>-5166.64</v>
       </c>
-      <c r="AL7" s="7">
+      <c r="AL7" s="9">
         <v>-0.0575</v>
       </c>
-      <c r="AM7" s="10">
-        <f>AJ7-AI7</f>
+      <c r="AM7" s="12">
+        <f t="shared" si="0"/>
         <v>38670.32</v>
       </c>
-      <c r="AN7" s="10">
+      <c r="AN7" s="12">
         <v>893.68</v>
       </c>
-      <c r="AO7" s="10">
+      <c r="AO7" s="12">
         <v>3956</v>
       </c>
-      <c r="AP7" s="10">
+      <c r="AP7" s="12">
         <v>8936840</v>
       </c>
-      <c r="AQ7" s="9">
+      <c r="AQ7" s="11">
         <v>1969</v>
       </c>
-      <c r="AR7" s="10">
+      <c r="AR7" s="12">
         <v>49.58</v>
       </c>
-      <c r="AS7" s="10">
+      <c r="AS7" s="12">
         <v>1.15</v>
       </c>
-      <c r="AT7" s="10">
+      <c r="AT7" s="12">
         <v>5.07</v>
       </c>
-      <c r="AU7" s="10">
+      <c r="AU7" s="12">
         <v>11457.49</v>
       </c>
-      <c r="AV7" s="10">
+      <c r="AV7" s="12">
         <v>2.52</v>
       </c>
-      <c r="AW7" s="7">
+      <c r="AW7" s="9">
         <v>0.0007</v>
       </c>
-      <c r="AX7" s="7">
+      <c r="AX7" s="9">
         <v>0.0056</v>
       </c>
-      <c r="AY7" s="9">
+      <c r="AY7" s="11">
         <v>2.02</v>
       </c>
-      <c r="AZ7" s="10">
+      <c r="AZ7" s="12">
         <v>13.44</v>
       </c>
     </row>
@@ -2661,7 +2667,7 @@
       <c r="I8" s="5">
         <v>43465</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="23" t="s">
         <v>63</v>
       </c>
       <c r="K8" s="6">
@@ -2715,10 +2721,10 @@
       <c r="AA8" s="6">
         <v>0</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AB8" s="9">
         <v>0.9564</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AC8" s="9">
         <v>0.3123</v>
       </c>
     </row>
@@ -2729,7 +2735,7 @@
       <c r="I9" s="5">
         <v>43830</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="6" t="s">
         <v>63</v>
       </c>
       <c r="K9" s="6">
@@ -2745,25 +2751,25 @@
         <v>65</v>
       </c>
       <c r="O9" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>66</v>
       </c>
       <c r="Q9" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R9" s="6" t="s">
         <v>67</v>
       </c>
       <c r="S9" s="6">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="T9" s="6" t="s">
         <v>68</v>
       </c>
       <c r="U9" s="6">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="V9" s="6" t="s">
         <v>69</v>
@@ -2783,15 +2789,83 @@
       <c r="AA9" s="6">
         <v>0</v>
       </c>
-      <c r="AB9" s="7">
-        <v>0.5934</v>
-      </c>
-      <c r="AC9" s="7">
-        <v>0.1975</v>
+      <c r="AB9" s="9">
+        <v>0.6397</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>0.2129</v>
+      </c>
+    </row>
+    <row r="10" spans="8:29">
+      <c r="H10" s="5">
+        <v>43101</v>
+      </c>
+      <c r="I10" s="5">
+        <v>44196</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="8">
+        <v>13</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="8">
+        <v>24</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="8">
+        <v>20</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>6</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S10" s="8">
+        <v>8</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="U10" s="8">
+        <v>30</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="W10" s="8">
+        <v>1</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>0.4474</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>0.1491</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AZ6">
+  <autoFilter ref="A1:AZ10">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/1-策略开发/1-开发中的策略/1-bar回测/7-multi_timeframe/multi_timeframe参数优化记录.xlsx
+++ b/1-策略开发/1-开发中的策略/1-bar回测/7-multi_timeframe/multi_timeframe参数优化记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="255"/>
   </bookViews>
   <sheets>
     <sheet name="参数优化区间设置" sheetId="3" r:id="rId1"/>
@@ -241,15 +241,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.000000_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0.00&quot;小时&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0.000000_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="180" formatCode="#,##0&quot;组&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0&quot;组&quot;"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00&quot;小时&quot;"/>
     <numFmt numFmtId="181" formatCode="#,##0.00&quot;天&quot;"/>
   </numFmts>
   <fonts count="23">
@@ -283,17 +283,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,16 +311,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,22 +335,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,11 +380,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -413,6 +411,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -420,8 +419,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,19 +448,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +592,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,151 +622,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,26 +719,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,15 +780,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -806,11 +800,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,176 +822,170 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1001,7 +995,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1025,10 +1019,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1106,7 +1100,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1358,17 +1352,17 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC10" sqref="AC10"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.46666666666667" style="13" customWidth="1"/>
+    <col min="1" max="1" width="5.46666666666667" style="11" customWidth="1"/>
     <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="12.4416666666667" customWidth="1"/>
     <col min="4" max="4" width="11.975" customWidth="1"/>
@@ -1378,230 +1372,230 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="16">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>3</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="14">
         <v>2</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="14">
         <v>17</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="14">
         <f t="shared" ref="F3:F8" si="0">((E3-C3)/D3)+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="18">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <v>14</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <v>2</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="16">
         <v>30</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="16">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>10</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <v>5</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>35</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="18">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="16">
         <v>3</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <v>3</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="16">
         <v>33</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="16">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>2</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <v>2</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>30</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="18">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="16">
         <v>6</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>3</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="16">
         <v>42</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="16">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="18">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="16">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="20">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="18">
         <f>PRODUCT(F3:F8)</f>
         <v>926640</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="21">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="19">
         <f>(F12*1.9)/3600</f>
         <v>489.06</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:6">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="22">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="20">
         <f>F13/24</f>
         <v>20.3775</v>
       </c>
@@ -1622,8 +1616,8 @@
   <sheetPr/>
   <dimension ref="A1:AZ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1836,7 +1830,7 @@
       <c r="I2" s="5">
         <v>41274</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="21" t="s">
         <v>63</v>
       </c>
       <c r="K2" s="6">
@@ -1890,81 +1884,81 @@
       <c r="AA2" s="6">
         <v>0</v>
       </c>
-      <c r="AB2" s="9">
+      <c r="AB2" s="7">
         <f>(AJ2-AI2)/AI2</f>
         <v>0.586545</v>
       </c>
-      <c r="AC2" s="9">
+      <c r="AC2" s="7">
         <v>0.1958</v>
       </c>
-      <c r="AD2" s="10">
+      <c r="AD2" s="8">
         <v>40193</v>
       </c>
-      <c r="AE2" s="10">
+      <c r="AE2" s="8">
         <v>41271</v>
       </c>
-      <c r="AF2" s="11">
+      <c r="AF2" s="9">
         <v>719</v>
       </c>
-      <c r="AG2" s="11">
+      <c r="AG2" s="9">
         <v>313</v>
       </c>
-      <c r="AH2" s="11">
+      <c r="AH2" s="9">
         <v>292</v>
       </c>
-      <c r="AI2" s="12">
+      <c r="AI2" s="10">
         <v>50000</v>
       </c>
-      <c r="AJ2" s="12">
+      <c r="AJ2" s="10">
         <v>79327.25</v>
       </c>
-      <c r="AK2" s="12">
+      <c r="AK2" s="10">
         <v>-3461.23</v>
       </c>
-      <c r="AL2" s="9">
+      <c r="AL2" s="7">
         <v>-0.0478</v>
       </c>
-      <c r="AM2" s="12">
+      <c r="AM2" s="10">
         <f t="shared" ref="AM2:AM7" si="0">AJ2-AI2</f>
         <v>29327.25</v>
       </c>
-      <c r="AN2" s="12">
+      <c r="AN2" s="10">
         <v>1004.75</v>
       </c>
-      <c r="AO2" s="12">
+      <c r="AO2" s="10">
         <v>758</v>
       </c>
-      <c r="AP2" s="12">
+      <c r="AP2" s="10">
         <v>10047530</v>
       </c>
-      <c r="AQ2" s="11">
+      <c r="AQ2" s="9">
         <v>376</v>
       </c>
-      <c r="AR2" s="12">
+      <c r="AR2" s="10">
         <v>40.79</v>
       </c>
-      <c r="AS2" s="12">
+      <c r="AS2" s="10">
         <v>1.4</v>
       </c>
-      <c r="AT2" s="12">
+      <c r="AT2" s="10">
         <v>1.05</v>
       </c>
-      <c r="AU2" s="12">
+      <c r="AU2" s="10">
         <v>13974.31</v>
       </c>
-      <c r="AV2" s="12">
+      <c r="AV2" s="10">
         <v>0.52</v>
       </c>
-      <c r="AW2" s="9">
+      <c r="AW2" s="7">
         <v>0.0006</v>
       </c>
-      <c r="AX2" s="9">
+      <c r="AX2" s="7">
         <v>0.0052</v>
       </c>
-      <c r="AY2" s="11">
+      <c r="AY2" s="9">
         <v>1.86</v>
       </c>
-      <c r="AZ2" s="12">
+      <c r="AZ2" s="10">
         <v>12.27</v>
       </c>
     </row>
@@ -1975,7 +1969,7 @@
       <c r="I3" s="5">
         <v>41639</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="21" t="s">
         <v>63</v>
       </c>
       <c r="K3" s="6">
@@ -2029,81 +2023,81 @@
       <c r="AA3" s="6">
         <v>0</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AB3" s="7">
         <f>(AJ3-AI3)/AI3</f>
         <v>0.5454278</v>
       </c>
-      <c r="AC3" s="9">
+      <c r="AC3" s="7">
         <v>0.1831</v>
       </c>
-      <c r="AD3" s="10">
+      <c r="AD3" s="8">
         <v>40560</v>
       </c>
-      <c r="AE3" s="10">
+      <c r="AE3" s="8">
         <v>41638</v>
       </c>
-      <c r="AF3" s="11">
+      <c r="AF3" s="9">
         <v>715</v>
       </c>
-      <c r="AG3" s="11">
+      <c r="AG3" s="9">
         <v>323</v>
       </c>
-      <c r="AH3" s="11">
+      <c r="AH3" s="9">
         <v>384</v>
       </c>
-      <c r="AI3" s="12">
+      <c r="AI3" s="10">
         <v>50000</v>
       </c>
-      <c r="AJ3" s="12">
+      <c r="AJ3" s="10">
         <v>77271.39</v>
       </c>
-      <c r="AK3" s="12">
+      <c r="AK3" s="10">
         <v>-4646.44</v>
       </c>
-      <c r="AL3" s="9">
+      <c r="AL3" s="7">
         <v>-0.0745</v>
       </c>
-      <c r="AM3" s="12">
+      <c r="AM3" s="10">
         <f t="shared" si="0"/>
         <v>27271.39</v>
       </c>
-      <c r="AN3" s="12">
+      <c r="AN3" s="10">
         <v>2700.61</v>
       </c>
-      <c r="AO3" s="12">
+      <c r="AO3" s="10">
         <v>2398</v>
       </c>
-      <c r="AP3" s="12">
+      <c r="AP3" s="10">
         <v>27006140</v>
       </c>
-      <c r="AQ3" s="11">
+      <c r="AQ3" s="9">
         <v>1192</v>
       </c>
-      <c r="AR3" s="12">
+      <c r="AR3" s="10">
         <v>38.14</v>
       </c>
-      <c r="AS3" s="12">
+      <c r="AS3" s="10">
         <v>3.78</v>
       </c>
-      <c r="AT3" s="12">
+      <c r="AT3" s="10">
         <v>3.35</v>
       </c>
-      <c r="AU3" s="12">
+      <c r="AU3" s="10">
         <v>37770.83</v>
       </c>
-      <c r="AV3" s="12">
+      <c r="AV3" s="10">
         <v>1.67</v>
       </c>
-      <c r="AW3" s="9">
+      <c r="AW3" s="7">
         <v>0.0006</v>
       </c>
-      <c r="AX3" s="9">
+      <c r="AX3" s="7">
         <v>0.0045</v>
       </c>
-      <c r="AY3" s="11">
+      <c r="AY3" s="9">
         <v>2.12</v>
       </c>
-      <c r="AZ3" s="12">
+      <c r="AZ3" s="10">
         <v>7.32</v>
       </c>
     </row>
@@ -2114,7 +2108,7 @@
       <c r="I4" s="5">
         <v>42004</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="21" t="s">
         <v>63</v>
       </c>
       <c r="K4" s="6">
@@ -2168,81 +2162,81 @@
       <c r="AA4" s="6">
         <v>0</v>
       </c>
-      <c r="AB4" s="9">
+      <c r="AB4" s="7">
         <f>(AJ4-AI4)/AI4</f>
         <v>0.4702732</v>
       </c>
-      <c r="AC4" s="9">
+      <c r="AC4" s="7">
         <v>0.1572</v>
       </c>
-      <c r="AD4" s="10">
+      <c r="AD4" s="8">
         <v>40925</v>
       </c>
-      <c r="AE4" s="10">
+      <c r="AE4" s="8">
         <v>42004</v>
       </c>
-      <c r="AF4" s="11">
+      <c r="AF4" s="9">
         <v>718</v>
       </c>
-      <c r="AG4" s="11">
+      <c r="AG4" s="9">
         <v>320</v>
       </c>
-      <c r="AH4" s="11">
+      <c r="AH4" s="9">
         <v>386</v>
       </c>
-      <c r="AI4" s="12">
+      <c r="AI4" s="10">
         <v>50000</v>
       </c>
-      <c r="AJ4" s="12">
+      <c r="AJ4" s="10">
         <v>73513.66</v>
       </c>
-      <c r="AK4" s="12">
+      <c r="AK4" s="10">
         <v>-2326.22</v>
       </c>
-      <c r="AL4" s="9">
+      <c r="AL4" s="7">
         <v>-0.0316</v>
       </c>
-      <c r="AM4" s="12">
+      <c r="AM4" s="10">
         <f t="shared" si="0"/>
         <v>23513.66</v>
       </c>
-      <c r="AN4" s="12">
+      <c r="AN4" s="10">
         <v>1844.35</v>
       </c>
-      <c r="AO4" s="12">
+      <c r="AO4" s="10">
         <v>2342</v>
       </c>
-      <c r="AP4" s="12">
+      <c r="AP4" s="10">
         <v>18443450</v>
       </c>
-      <c r="AQ4" s="11">
+      <c r="AQ4" s="9">
         <v>1167</v>
       </c>
-      <c r="AR4" s="12">
+      <c r="AR4" s="10">
         <v>32.75</v>
       </c>
-      <c r="AS4" s="12">
+      <c r="AS4" s="10">
         <v>2.57</v>
       </c>
-      <c r="AT4" s="12">
+      <c r="AT4" s="10">
         <v>3.26</v>
       </c>
-      <c r="AU4" s="12">
+      <c r="AU4" s="10">
         <v>25687.26</v>
       </c>
-      <c r="AV4" s="12">
+      <c r="AV4" s="10">
         <v>1.63</v>
       </c>
-      <c r="AW4" s="9">
+      <c r="AW4" s="7">
         <v>0.0005</v>
       </c>
-      <c r="AX4" s="9">
+      <c r="AX4" s="7">
         <v>0.0041</v>
       </c>
-      <c r="AY4" s="11">
+      <c r="AY4" s="9">
         <v>1.99</v>
       </c>
-      <c r="AZ4" s="12">
+      <c r="AZ4" s="10">
         <v>14.9</v>
       </c>
     </row>
@@ -2253,7 +2247,7 @@
       <c r="I5" s="5">
         <v>42369</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="21" t="s">
         <v>63</v>
       </c>
       <c r="K5" s="6">
@@ -2307,80 +2301,80 @@
       <c r="AA5" s="6">
         <v>0</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AB5" s="7">
         <v>0.322</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AC5" s="7">
         <v>0.1013</v>
       </c>
-      <c r="AD5" s="10">
+      <c r="AD5" s="8">
         <v>41291</v>
       </c>
-      <c r="AE5" s="10">
+      <c r="AE5" s="8">
         <v>42369</v>
       </c>
-      <c r="AF5" s="11">
+      <c r="AF5" s="9">
         <v>763</v>
       </c>
-      <c r="AG5" s="11">
+      <c r="AG5" s="9">
         <v>276</v>
       </c>
-      <c r="AH5" s="11">
+      <c r="AH5" s="9">
         <v>269</v>
       </c>
-      <c r="AI5" s="12">
+      <c r="AI5" s="10">
         <v>50000</v>
       </c>
-      <c r="AJ5" s="12">
+      <c r="AJ5" s="10">
         <v>66098.05</v>
       </c>
-      <c r="AK5" s="12">
+      <c r="AK5" s="10">
         <v>-1957.84</v>
       </c>
-      <c r="AL5" s="9">
+      <c r="AL5" s="7">
         <v>-0.0358</v>
       </c>
-      <c r="AM5" s="12">
+      <c r="AM5" s="10">
         <f t="shared" si="0"/>
         <v>16098.05</v>
       </c>
-      <c r="AN5" s="12">
+      <c r="AN5" s="10">
         <v>191.95</v>
       </c>
-      <c r="AO5" s="12">
+      <c r="AO5" s="10">
         <v>680</v>
       </c>
-      <c r="AP5" s="12">
+      <c r="AP5" s="10">
         <v>1919510</v>
       </c>
-      <c r="AQ5" s="11">
+      <c r="AQ5" s="9">
         <v>339</v>
       </c>
-      <c r="AR5" s="12">
+      <c r="AR5" s="10">
         <v>21.1</v>
       </c>
-      <c r="AS5" s="12">
+      <c r="AS5" s="10">
         <v>0.25</v>
       </c>
-      <c r="AT5" s="12">
+      <c r="AT5" s="10">
         <v>0.89</v>
       </c>
-      <c r="AU5" s="12">
+      <c r="AU5" s="10">
         <v>2515.74</v>
       </c>
-      <c r="AV5" s="12">
+      <c r="AV5" s="10">
         <v>0.44</v>
       </c>
-      <c r="AW5" s="9">
+      <c r="AW5" s="7">
         <v>0.0004</v>
       </c>
-      <c r="AX5" s="9">
+      <c r="AX5" s="7">
         <v>0.0036</v>
       </c>
-      <c r="AY5" s="11">
+      <c r="AY5" s="9">
         <v>1.56</v>
       </c>
-      <c r="AZ5" s="12">
+      <c r="AZ5" s="10">
         <v>8.98</v>
       </c>
     </row>
@@ -2391,7 +2385,7 @@
       <c r="I6" s="5">
         <v>42735</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="21" t="s">
         <v>63</v>
       </c>
       <c r="K6" s="6">
@@ -2445,80 +2439,80 @@
       <c r="AA6" s="6">
         <v>0</v>
       </c>
-      <c r="AB6" s="9">
+      <c r="AB6" s="7">
         <v>0.6254</v>
       </c>
-      <c r="AC6" s="9">
+      <c r="AC6" s="7">
         <v>0.1919</v>
       </c>
-      <c r="AD6" s="10">
+      <c r="AD6" s="8">
         <v>41654</v>
       </c>
-      <c r="AE6" s="10">
+      <c r="AE6" s="8">
         <v>42734</v>
       </c>
-      <c r="AF6" s="11">
+      <c r="AF6" s="9">
         <v>782</v>
       </c>
-      <c r="AG6" s="11">
+      <c r="AG6" s="9">
         <v>345</v>
       </c>
-      <c r="AH6" s="11">
+      <c r="AH6" s="9">
         <v>384</v>
       </c>
-      <c r="AI6" s="12">
+      <c r="AI6" s="10">
         <v>50000</v>
       </c>
-      <c r="AJ6" s="12">
+      <c r="AJ6" s="10">
         <v>81270.19</v>
       </c>
-      <c r="AK6" s="12">
+      <c r="AK6" s="10">
         <v>-2321.78</v>
       </c>
-      <c r="AL6" s="9">
+      <c r="AL6" s="7">
         <v>-0.0352</v>
       </c>
-      <c r="AM6" s="12">
+      <c r="AM6" s="10">
         <f t="shared" si="0"/>
         <v>31270.19</v>
       </c>
-      <c r="AN6" s="12">
+      <c r="AN6" s="10">
         <v>317.81</v>
       </c>
-      <c r="AO6" s="12">
+      <c r="AO6" s="10">
         <v>3382</v>
       </c>
-      <c r="AP6" s="12">
+      <c r="AP6" s="10">
         <v>3178140</v>
       </c>
-      <c r="AQ6" s="11">
+      <c r="AQ6" s="9">
         <v>1686</v>
       </c>
-      <c r="AR6" s="12">
+      <c r="AR6" s="10">
         <v>39.99</v>
       </c>
-      <c r="AS6" s="12">
+      <c r="AS6" s="10">
         <v>0.41</v>
       </c>
-      <c r="AT6" s="12">
+      <c r="AT6" s="10">
         <v>4.32</v>
       </c>
-      <c r="AU6" s="12">
+      <c r="AU6" s="10">
         <v>4064.12</v>
       </c>
-      <c r="AV6" s="12">
+      <c r="AV6" s="10">
         <v>2.16</v>
       </c>
-      <c r="AW6" s="9">
+      <c r="AW6" s="7">
         <v>0.0006</v>
       </c>
-      <c r="AX6" s="9">
+      <c r="AX6" s="7">
         <v>0.0045</v>
       </c>
-      <c r="AY6" s="11">
+      <c r="AY6" s="9">
         <v>2.15</v>
       </c>
-      <c r="AZ6" s="12">
+      <c r="AZ6" s="10">
         <v>17.76</v>
       </c>
     </row>
@@ -2529,7 +2523,7 @@
       <c r="I7" s="5">
         <v>43100</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="21" t="s">
         <v>63</v>
       </c>
       <c r="K7" s="6">
@@ -2583,80 +2577,80 @@
       <c r="AA7" s="6">
         <v>0</v>
       </c>
-      <c r="AB7" s="9">
+      <c r="AB7" s="7">
         <v>0.7734</v>
       </c>
-      <c r="AC7" s="9">
+      <c r="AC7" s="7">
         <v>0.238</v>
       </c>
-      <c r="AD7" s="10">
+      <c r="AD7" s="8">
         <v>42019</v>
       </c>
-      <c r="AE7" s="10">
+      <c r="AE7" s="8">
         <v>43098</v>
       </c>
-      <c r="AF7" s="11">
+      <c r="AF7" s="9">
         <v>780</v>
       </c>
-      <c r="AG7" s="11">
+      <c r="AG7" s="9">
         <v>360</v>
       </c>
-      <c r="AH7" s="11">
+      <c r="AH7" s="9">
         <v>380</v>
       </c>
-      <c r="AI7" s="12">
+      <c r="AI7" s="10">
         <v>50000</v>
       </c>
-      <c r="AJ7" s="12">
+      <c r="AJ7" s="10">
         <v>88670.32</v>
       </c>
-      <c r="AK7" s="12">
+      <c r="AK7" s="10">
         <v>-5166.64</v>
       </c>
-      <c r="AL7" s="9">
+      <c r="AL7" s="7">
         <v>-0.0575</v>
       </c>
-      <c r="AM7" s="12">
+      <c r="AM7" s="10">
         <f t="shared" si="0"/>
         <v>38670.32</v>
       </c>
-      <c r="AN7" s="12">
+      <c r="AN7" s="10">
         <v>893.68</v>
       </c>
-      <c r="AO7" s="12">
+      <c r="AO7" s="10">
         <v>3956</v>
       </c>
-      <c r="AP7" s="12">
+      <c r="AP7" s="10">
         <v>8936840</v>
       </c>
-      <c r="AQ7" s="11">
+      <c r="AQ7" s="9">
         <v>1969</v>
       </c>
-      <c r="AR7" s="12">
+      <c r="AR7" s="10">
         <v>49.58</v>
       </c>
-      <c r="AS7" s="12">
+      <c r="AS7" s="10">
         <v>1.15</v>
       </c>
-      <c r="AT7" s="12">
+      <c r="AT7" s="10">
         <v>5.07</v>
       </c>
-      <c r="AU7" s="12">
+      <c r="AU7" s="10">
         <v>11457.49</v>
       </c>
-      <c r="AV7" s="12">
+      <c r="AV7" s="10">
         <v>2.52</v>
       </c>
-      <c r="AW7" s="9">
+      <c r="AW7" s="7">
         <v>0.0007</v>
       </c>
-      <c r="AX7" s="9">
+      <c r="AX7" s="7">
         <v>0.0056</v>
       </c>
-      <c r="AY7" s="11">
+      <c r="AY7" s="9">
         <v>2.02</v>
       </c>
-      <c r="AZ7" s="12">
+      <c r="AZ7" s="10">
         <v>13.44</v>
       </c>
     </row>
@@ -2667,7 +2661,7 @@
       <c r="I8" s="5">
         <v>43465</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="21" t="s">
         <v>63</v>
       </c>
       <c r="K8" s="6">
@@ -2721,10 +2715,10 @@
       <c r="AA8" s="6">
         <v>0</v>
       </c>
-      <c r="AB8" s="9">
+      <c r="AB8" s="7">
         <v>0.9564</v>
       </c>
-      <c r="AC8" s="9">
+      <c r="AC8" s="7">
         <v>0.3123</v>
       </c>
     </row>
@@ -2789,10 +2783,10 @@
       <c r="AA9" s="6">
         <v>0</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AB9" s="7">
         <v>0.6397</v>
       </c>
-      <c r="AC9" s="9">
+      <c r="AC9" s="7">
         <v>0.2129</v>
       </c>
     </row>
@@ -2803,64 +2797,64 @@
       <c r="I10" s="5">
         <v>44196</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="6">
         <v>13</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="6">
         <v>24</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="6">
         <v>20</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="6">
         <v>6</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="R10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="6">
         <v>8</v>
       </c>
-      <c r="T10" s="8" t="s">
+      <c r="T10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="6">
         <v>30</v>
       </c>
-      <c r="V10" s="8" t="s">
+      <c r="V10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W10" s="6">
         <v>1</v>
       </c>
-      <c r="X10" s="8" t="s">
+      <c r="X10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Y10" s="6">
         <v>0.2</v>
       </c>
-      <c r="Z10" s="8" t="s">
+      <c r="Z10" s="6" t="s">
         <v>71</v>
       </c>
       <c r="AA10" s="6">
         <v>0</v>
       </c>
-      <c r="AB10" s="9">
+      <c r="AB10" s="7">
         <v>0.4474</v>
       </c>
-      <c r="AC10" s="9">
+      <c r="AC10" s="7">
         <v>0.1491</v>
       </c>
     </row>

--- a/1-策略开发/1-开发中的策略/1-bar回测/7-multi_timeframe/multi_timeframe参数优化记录.xlsx
+++ b/1-策略开发/1-开发中的策略/1-bar回测/7-multi_timeframe/multi_timeframe参数优化记录.xlsx
@@ -4,21 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="255"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="425" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="参数优化区间设置" sheetId="3" r:id="rId1"/>
-    <sheet name="3年期滚动回测结果" sheetId="6" r:id="rId2"/>
+    <sheet name="1-参数优化区间设置" sheetId="3" r:id="rId1"/>
+    <sheet name="1-3年期滚动回测结果" sheetId="6" r:id="rId2"/>
+    <sheet name="2-参数优化区间设置" sheetId="7" r:id="rId3"/>
+    <sheet name="2-3年期滚动回测结果" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'3年期滚动回测结果'!$A$1:$AZ$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1-3年期滚动回测结果'!$A$1:$AZ$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2-3年期滚动回测结果'!$A$1:$AZ$10</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="72">
   <si>
     <t>multi_timeframe参数优化区间设置</t>
   </si>
@@ -242,13 +245,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
     <numFmt numFmtId="176" formatCode="#,##0.000000_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0&quot;组&quot;"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0&quot;组&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="180" formatCode="#,##0.00&quot;小时&quot;"/>
     <numFmt numFmtId="181" formatCode="#,##0.00&quot;天&quot;"/>
   </numFmts>
@@ -284,28 +287,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,7 +303,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,23 +333,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,15 +393,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,17 +408,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,9 +423,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,7 +451,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,31 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,19 +517,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +541,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,7 +565,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,49 +601,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,31 +619,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,28 +723,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,17 +759,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,16 +789,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,10 +825,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -834,137 +837,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -974,15 +977,18 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -995,7 +1001,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1019,7 +1025,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1100,7 +1106,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1352,7 +1358,7 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1362,7 +1368,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.46666666666667" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.46666666666667" style="12" customWidth="1"/>
     <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="12.4416666666667" customWidth="1"/>
     <col min="4" max="4" width="11.975" customWidth="1"/>
@@ -1372,230 +1378,230 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="14">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="15">
         <v>3</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="15">
         <v>2</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="15">
         <v>17</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="15">
         <f t="shared" ref="F3:F8" si="0">((E3-C3)/D3)+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="16">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="17">
         <v>14</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="17">
         <v>2</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="17">
         <v>30</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="15">
         <v>10</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="15">
         <v>5</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="15">
         <v>35</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="16">
+      <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="17">
         <v>3</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="17">
         <v>3</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="17">
         <v>33</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="14">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="15">
         <v>2</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="15">
         <v>2</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="15">
         <v>30</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="16">
+      <c r="A8" s="17">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="17">
         <v>6</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="17">
         <v>3</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="17">
         <v>42</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="14">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="16">
+      <c r="A10" s="17">
         <v>8</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="14">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="18">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="19">
         <f>PRODUCT(F3:F8)</f>
         <v>926640</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="19">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="20">
         <f>(F12*1.9)/3600</f>
         <v>489.06</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:6">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="20">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="21">
         <f>F13/24</f>
         <v>20.3775</v>
       </c>
@@ -1617,7 +1623,7 @@
   <dimension ref="A1:AZ10"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1830,135 +1836,135 @@
       <c r="I2" s="5">
         <v>41274</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="7">
         <v>17</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="7">
         <v>14</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="7">
         <v>10</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="7">
         <v>24</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="7">
         <v>12</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="7">
         <v>42</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="7">
         <v>1</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Y2" s="7">
         <v>0.2</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AA2" s="7">
         <v>0</v>
       </c>
-      <c r="AB2" s="7">
+      <c r="AB2" s="8">
         <f>(AJ2-AI2)/AI2</f>
         <v>0.586545</v>
       </c>
-      <c r="AC2" s="7">
+      <c r="AC2" s="8">
         <v>0.1958</v>
       </c>
-      <c r="AD2" s="8">
+      <c r="AD2" s="9">
         <v>40193</v>
       </c>
-      <c r="AE2" s="8">
+      <c r="AE2" s="9">
         <v>41271</v>
       </c>
-      <c r="AF2" s="9">
+      <c r="AF2" s="10">
         <v>719</v>
       </c>
-      <c r="AG2" s="9">
+      <c r="AG2" s="10">
         <v>313</v>
       </c>
-      <c r="AH2" s="9">
+      <c r="AH2" s="10">
         <v>292</v>
       </c>
-      <c r="AI2" s="10">
+      <c r="AI2" s="11">
         <v>50000</v>
       </c>
-      <c r="AJ2" s="10">
+      <c r="AJ2" s="11">
         <v>79327.25</v>
       </c>
-      <c r="AK2" s="10">
+      <c r="AK2" s="11">
         <v>-3461.23</v>
       </c>
-      <c r="AL2" s="7">
+      <c r="AL2" s="8">
         <v>-0.0478</v>
       </c>
-      <c r="AM2" s="10">
+      <c r="AM2" s="11">
         <f t="shared" ref="AM2:AM7" si="0">AJ2-AI2</f>
         <v>29327.25</v>
       </c>
-      <c r="AN2" s="10">
+      <c r="AN2" s="11">
         <v>1004.75</v>
       </c>
-      <c r="AO2" s="10">
+      <c r="AO2" s="11">
         <v>758</v>
       </c>
-      <c r="AP2" s="10">
+      <c r="AP2" s="11">
         <v>10047530</v>
       </c>
-      <c r="AQ2" s="9">
+      <c r="AQ2" s="10">
         <v>376</v>
       </c>
-      <c r="AR2" s="10">
+      <c r="AR2" s="11">
         <v>40.79</v>
       </c>
-      <c r="AS2" s="10">
+      <c r="AS2" s="11">
         <v>1.4</v>
       </c>
-      <c r="AT2" s="10">
+      <c r="AT2" s="11">
         <v>1.05</v>
       </c>
-      <c r="AU2" s="10">
+      <c r="AU2" s="11">
         <v>13974.31</v>
       </c>
-      <c r="AV2" s="10">
+      <c r="AV2" s="11">
         <v>0.52</v>
       </c>
-      <c r="AW2" s="7">
+      <c r="AW2" s="8">
         <v>0.0006</v>
       </c>
-      <c r="AX2" s="7">
+      <c r="AX2" s="8">
         <v>0.0052</v>
       </c>
-      <c r="AY2" s="9">
+      <c r="AY2" s="10">
         <v>1.86</v>
       </c>
-      <c r="AZ2" s="10">
+      <c r="AZ2" s="11">
         <v>12.27</v>
       </c>
     </row>
@@ -1969,135 +1975,135 @@
       <c r="I3" s="5">
         <v>41639</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="7">
         <v>13</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="7">
         <v>22</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="7">
         <v>10</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="7">
         <v>9</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="7">
         <v>4</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="7">
         <v>12</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="7">
         <v>1</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Y3" s="7">
         <v>0.2</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="Z3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AA3" s="7">
         <v>0</v>
       </c>
-      <c r="AB3" s="7">
+      <c r="AB3" s="8">
         <f>(AJ3-AI3)/AI3</f>
         <v>0.5454278</v>
       </c>
-      <c r="AC3" s="7">
+      <c r="AC3" s="8">
         <v>0.1831</v>
       </c>
-      <c r="AD3" s="8">
+      <c r="AD3" s="9">
         <v>40560</v>
       </c>
-      <c r="AE3" s="8">
+      <c r="AE3" s="9">
         <v>41638</v>
       </c>
-      <c r="AF3" s="9">
+      <c r="AF3" s="10">
         <v>715</v>
       </c>
-      <c r="AG3" s="9">
+      <c r="AG3" s="10">
         <v>323</v>
       </c>
-      <c r="AH3" s="9">
+      <c r="AH3" s="10">
         <v>384</v>
       </c>
-      <c r="AI3" s="10">
+      <c r="AI3" s="11">
         <v>50000</v>
       </c>
-      <c r="AJ3" s="10">
+      <c r="AJ3" s="11">
         <v>77271.39</v>
       </c>
-      <c r="AK3" s="10">
+      <c r="AK3" s="11">
         <v>-4646.44</v>
       </c>
-      <c r="AL3" s="7">
+      <c r="AL3" s="8">
         <v>-0.0745</v>
       </c>
-      <c r="AM3" s="10">
+      <c r="AM3" s="11">
         <f t="shared" si="0"/>
         <v>27271.39</v>
       </c>
-      <c r="AN3" s="10">
+      <c r="AN3" s="11">
         <v>2700.61</v>
       </c>
-      <c r="AO3" s="10">
+      <c r="AO3" s="11">
         <v>2398</v>
       </c>
-      <c r="AP3" s="10">
+      <c r="AP3" s="11">
         <v>27006140</v>
       </c>
-      <c r="AQ3" s="9">
+      <c r="AQ3" s="10">
         <v>1192</v>
       </c>
-      <c r="AR3" s="10">
+      <c r="AR3" s="11">
         <v>38.14</v>
       </c>
-      <c r="AS3" s="10">
+      <c r="AS3" s="11">
         <v>3.78</v>
       </c>
-      <c r="AT3" s="10">
+      <c r="AT3" s="11">
         <v>3.35</v>
       </c>
-      <c r="AU3" s="10">
+      <c r="AU3" s="11">
         <v>37770.83</v>
       </c>
-      <c r="AV3" s="10">
+      <c r="AV3" s="11">
         <v>1.67</v>
       </c>
-      <c r="AW3" s="7">
+      <c r="AW3" s="8">
         <v>0.0006</v>
       </c>
-      <c r="AX3" s="7">
+      <c r="AX3" s="8">
         <v>0.0045</v>
       </c>
-      <c r="AY3" s="9">
+      <c r="AY3" s="10">
         <v>2.12</v>
       </c>
-      <c r="AZ3" s="10">
+      <c r="AZ3" s="11">
         <v>7.32</v>
       </c>
     </row>
@@ -2108,135 +2114,135 @@
       <c r="I4" s="5">
         <v>42004</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="7">
         <v>9</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="7">
         <v>14</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="7">
         <v>10</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="7">
         <v>15</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="7">
         <v>2</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="7">
         <v>18</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="7">
         <v>1</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="7">
         <v>0.2</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="Z4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="AA4" s="7">
         <v>0</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AB4" s="8">
         <f>(AJ4-AI4)/AI4</f>
         <v>0.4702732</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AC4" s="8">
         <v>0.1572</v>
       </c>
-      <c r="AD4" s="8">
+      <c r="AD4" s="9">
         <v>40925</v>
       </c>
-      <c r="AE4" s="8">
+      <c r="AE4" s="9">
         <v>42004</v>
       </c>
-      <c r="AF4" s="9">
+      <c r="AF4" s="10">
         <v>718</v>
       </c>
-      <c r="AG4" s="9">
+      <c r="AG4" s="10">
         <v>320</v>
       </c>
-      <c r="AH4" s="9">
+      <c r="AH4" s="10">
         <v>386</v>
       </c>
-      <c r="AI4" s="10">
+      <c r="AI4" s="11">
         <v>50000</v>
       </c>
-      <c r="AJ4" s="10">
+      <c r="AJ4" s="11">
         <v>73513.66</v>
       </c>
-      <c r="AK4" s="10">
+      <c r="AK4" s="11">
         <v>-2326.22</v>
       </c>
-      <c r="AL4" s="7">
+      <c r="AL4" s="8">
         <v>-0.0316</v>
       </c>
-      <c r="AM4" s="10">
+      <c r="AM4" s="11">
         <f t="shared" si="0"/>
         <v>23513.66</v>
       </c>
-      <c r="AN4" s="10">
+      <c r="AN4" s="11">
         <v>1844.35</v>
       </c>
-      <c r="AO4" s="10">
+      <c r="AO4" s="11">
         <v>2342</v>
       </c>
-      <c r="AP4" s="10">
+      <c r="AP4" s="11">
         <v>18443450</v>
       </c>
-      <c r="AQ4" s="9">
+      <c r="AQ4" s="10">
         <v>1167</v>
       </c>
-      <c r="AR4" s="10">
+      <c r="AR4" s="11">
         <v>32.75</v>
       </c>
-      <c r="AS4" s="10">
+      <c r="AS4" s="11">
         <v>2.57</v>
       </c>
-      <c r="AT4" s="10">
+      <c r="AT4" s="11">
         <v>3.26</v>
       </c>
-      <c r="AU4" s="10">
+      <c r="AU4" s="11">
         <v>25687.26</v>
       </c>
-      <c r="AV4" s="10">
+      <c r="AV4" s="11">
         <v>1.63</v>
       </c>
-      <c r="AW4" s="7">
+      <c r="AW4" s="8">
         <v>0.0005</v>
       </c>
-      <c r="AX4" s="7">
+      <c r="AX4" s="8">
         <v>0.0041</v>
       </c>
-      <c r="AY4" s="9">
+      <c r="AY4" s="10">
         <v>1.99</v>
       </c>
-      <c r="AZ4" s="10">
+      <c r="AZ4" s="11">
         <v>14.9</v>
       </c>
     </row>
@@ -2247,134 +2253,134 @@
       <c r="I5" s="5">
         <v>42369</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="7">
         <v>17</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="7">
         <v>30</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="7">
         <v>10</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="7">
         <v>27</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="R5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="7">
         <v>18</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="7">
         <v>42</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="7">
         <v>1</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="X5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Y5" s="7">
         <v>0.2</v>
       </c>
-      <c r="Z5" s="6" t="s">
+      <c r="Z5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AA5" s="7">
         <v>0</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AB5" s="8">
         <v>0.322</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AC5" s="8">
         <v>0.1013</v>
       </c>
-      <c r="AD5" s="8">
+      <c r="AD5" s="9">
         <v>41291</v>
       </c>
-      <c r="AE5" s="8">
+      <c r="AE5" s="9">
         <v>42369</v>
       </c>
-      <c r="AF5" s="9">
+      <c r="AF5" s="10">
         <v>763</v>
       </c>
-      <c r="AG5" s="9">
+      <c r="AG5" s="10">
         <v>276</v>
       </c>
-      <c r="AH5" s="9">
+      <c r="AH5" s="10">
         <v>269</v>
       </c>
-      <c r="AI5" s="10">
+      <c r="AI5" s="11">
         <v>50000</v>
       </c>
-      <c r="AJ5" s="10">
+      <c r="AJ5" s="11">
         <v>66098.05</v>
       </c>
-      <c r="AK5" s="10">
+      <c r="AK5" s="11">
         <v>-1957.84</v>
       </c>
-      <c r="AL5" s="7">
+      <c r="AL5" s="8">
         <v>-0.0358</v>
       </c>
-      <c r="AM5" s="10">
+      <c r="AM5" s="11">
         <f t="shared" si="0"/>
         <v>16098.05</v>
       </c>
-      <c r="AN5" s="10">
+      <c r="AN5" s="11">
         <v>191.95</v>
       </c>
-      <c r="AO5" s="10">
+      <c r="AO5" s="11">
         <v>680</v>
       </c>
-      <c r="AP5" s="10">
+      <c r="AP5" s="11">
         <v>1919510</v>
       </c>
-      <c r="AQ5" s="9">
+      <c r="AQ5" s="10">
         <v>339</v>
       </c>
-      <c r="AR5" s="10">
+      <c r="AR5" s="11">
         <v>21.1</v>
       </c>
-      <c r="AS5" s="10">
+      <c r="AS5" s="11">
         <v>0.25</v>
       </c>
-      <c r="AT5" s="10">
+      <c r="AT5" s="11">
         <v>0.89</v>
       </c>
-      <c r="AU5" s="10">
+      <c r="AU5" s="11">
         <v>2515.74</v>
       </c>
-      <c r="AV5" s="10">
+      <c r="AV5" s="11">
         <v>0.44</v>
       </c>
-      <c r="AW5" s="7">
+      <c r="AW5" s="8">
         <v>0.0004</v>
       </c>
-      <c r="AX5" s="7">
+      <c r="AX5" s="8">
         <v>0.0036</v>
       </c>
-      <c r="AY5" s="9">
+      <c r="AY5" s="10">
         <v>1.56</v>
       </c>
-      <c r="AZ5" s="10">
+      <c r="AZ5" s="11">
         <v>8.98</v>
       </c>
     </row>
@@ -2385,134 +2391,134 @@
       <c r="I6" s="5">
         <v>42735</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="7">
         <v>9</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="7">
         <v>26</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="7">
         <v>15</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="7">
         <v>9</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="7">
         <v>4</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="7">
         <v>30</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="7">
         <v>1</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="X6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Y6" s="6">
+      <c r="Y6" s="7">
         <v>0.2</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="Z6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="7">
         <v>0</v>
       </c>
-      <c r="AB6" s="7">
+      <c r="AB6" s="8">
         <v>0.6254</v>
       </c>
-      <c r="AC6" s="7">
+      <c r="AC6" s="8">
         <v>0.1919</v>
       </c>
-      <c r="AD6" s="8">
+      <c r="AD6" s="9">
         <v>41654</v>
       </c>
-      <c r="AE6" s="8">
+      <c r="AE6" s="9">
         <v>42734</v>
       </c>
-      <c r="AF6" s="9">
+      <c r="AF6" s="10">
         <v>782</v>
       </c>
-      <c r="AG6" s="9">
+      <c r="AG6" s="10">
         <v>345</v>
       </c>
-      <c r="AH6" s="9">
+      <c r="AH6" s="10">
         <v>384</v>
       </c>
-      <c r="AI6" s="10">
+      <c r="AI6" s="11">
         <v>50000</v>
       </c>
-      <c r="AJ6" s="10">
+      <c r="AJ6" s="11">
         <v>81270.19</v>
       </c>
-      <c r="AK6" s="10">
+      <c r="AK6" s="11">
         <v>-2321.78</v>
       </c>
-      <c r="AL6" s="7">
+      <c r="AL6" s="8">
         <v>-0.0352</v>
       </c>
-      <c r="AM6" s="10">
+      <c r="AM6" s="11">
         <f t="shared" si="0"/>
         <v>31270.19</v>
       </c>
-      <c r="AN6" s="10">
+      <c r="AN6" s="11">
         <v>317.81</v>
       </c>
-      <c r="AO6" s="10">
+      <c r="AO6" s="11">
         <v>3382</v>
       </c>
-      <c r="AP6" s="10">
+      <c r="AP6" s="11">
         <v>3178140</v>
       </c>
-      <c r="AQ6" s="9">
+      <c r="AQ6" s="10">
         <v>1686</v>
       </c>
-      <c r="AR6" s="10">
+      <c r="AR6" s="11">
         <v>39.99</v>
       </c>
-      <c r="AS6" s="10">
+      <c r="AS6" s="11">
         <v>0.41</v>
       </c>
-      <c r="AT6" s="10">
+      <c r="AT6" s="11">
         <v>4.32</v>
       </c>
-      <c r="AU6" s="10">
+      <c r="AU6" s="11">
         <v>4064.12</v>
       </c>
-      <c r="AV6" s="10">
+      <c r="AV6" s="11">
         <v>2.16</v>
       </c>
-      <c r="AW6" s="7">
+      <c r="AW6" s="8">
         <v>0.0006</v>
       </c>
-      <c r="AX6" s="7">
+      <c r="AX6" s="8">
         <v>0.0045</v>
       </c>
-      <c r="AY6" s="9">
+      <c r="AY6" s="10">
         <v>2.15</v>
       </c>
-      <c r="AZ6" s="10">
+      <c r="AZ6" s="11">
         <v>17.76</v>
       </c>
     </row>
@@ -2523,134 +2529,134 @@
       <c r="I7" s="5">
         <v>43100</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="7">
         <v>13</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="7">
         <v>20</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="7">
         <v>15</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="7">
         <v>6</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="7">
         <v>12</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="7">
         <v>27</v>
       </c>
-      <c r="V7" s="6" t="s">
+      <c r="V7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="7">
         <v>1</v>
       </c>
-      <c r="X7" s="6" t="s">
+      <c r="X7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Y7" s="7">
         <v>0.2</v>
       </c>
-      <c r="Z7" s="6" t="s">
+      <c r="Z7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AA7" s="7">
         <v>0</v>
       </c>
-      <c r="AB7" s="7">
+      <c r="AB7" s="8">
         <v>0.7734</v>
       </c>
-      <c r="AC7" s="7">
+      <c r="AC7" s="8">
         <v>0.238</v>
       </c>
-      <c r="AD7" s="8">
+      <c r="AD7" s="9">
         <v>42019</v>
       </c>
-      <c r="AE7" s="8">
+      <c r="AE7" s="9">
         <v>43098</v>
       </c>
-      <c r="AF7" s="9">
+      <c r="AF7" s="10">
         <v>780</v>
       </c>
-      <c r="AG7" s="9">
+      <c r="AG7" s="10">
         <v>360</v>
       </c>
-      <c r="AH7" s="9">
+      <c r="AH7" s="10">
         <v>380</v>
       </c>
-      <c r="AI7" s="10">
+      <c r="AI7" s="11">
         <v>50000</v>
       </c>
-      <c r="AJ7" s="10">
+      <c r="AJ7" s="11">
         <v>88670.32</v>
       </c>
-      <c r="AK7" s="10">
+      <c r="AK7" s="11">
         <v>-5166.64</v>
       </c>
-      <c r="AL7" s="7">
+      <c r="AL7" s="8">
         <v>-0.0575</v>
       </c>
-      <c r="AM7" s="10">
+      <c r="AM7" s="11">
         <f t="shared" si="0"/>
         <v>38670.32</v>
       </c>
-      <c r="AN7" s="10">
+      <c r="AN7" s="11">
         <v>893.68</v>
       </c>
-      <c r="AO7" s="10">
+      <c r="AO7" s="11">
         <v>3956</v>
       </c>
-      <c r="AP7" s="10">
+      <c r="AP7" s="11">
         <v>8936840</v>
       </c>
-      <c r="AQ7" s="9">
+      <c r="AQ7" s="10">
         <v>1969</v>
       </c>
-      <c r="AR7" s="10">
+      <c r="AR7" s="11">
         <v>49.58</v>
       </c>
-      <c r="AS7" s="10">
+      <c r="AS7" s="11">
         <v>1.15</v>
       </c>
-      <c r="AT7" s="10">
+      <c r="AT7" s="11">
         <v>5.07</v>
       </c>
-      <c r="AU7" s="10">
+      <c r="AU7" s="11">
         <v>11457.49</v>
       </c>
-      <c r="AV7" s="10">
+      <c r="AV7" s="11">
         <v>2.52</v>
       </c>
-      <c r="AW7" s="7">
+      <c r="AW7" s="8">
         <v>0.0007</v>
       </c>
-      <c r="AX7" s="7">
+      <c r="AX7" s="8">
         <v>0.0056</v>
       </c>
-      <c r="AY7" s="9">
+      <c r="AY7" s="10">
         <v>2.02</v>
       </c>
-      <c r="AZ7" s="10">
+      <c r="AZ7" s="11">
         <v>13.44</v>
       </c>
     </row>
@@ -2661,64 +2667,64 @@
       <c r="I8" s="5">
         <v>43465</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="7">
         <v>14</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="7">
         <v>18</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="7">
         <v>15</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="7">
         <v>6</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="7">
         <v>6</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="T8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="7">
         <v>42</v>
       </c>
-      <c r="V8" s="6" t="s">
+      <c r="V8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="7">
         <v>1</v>
       </c>
-      <c r="X8" s="6" t="s">
+      <c r="X8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Y8" s="6">
+      <c r="Y8" s="7">
         <v>0.2</v>
       </c>
-      <c r="Z8" s="6" t="s">
+      <c r="Z8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AA8" s="6">
+      <c r="AA8" s="7">
         <v>0</v>
       </c>
-      <c r="AB8" s="7">
+      <c r="AB8" s="8">
         <v>0.9564</v>
       </c>
-      <c r="AC8" s="7">
+      <c r="AC8" s="8">
         <v>0.3123</v>
       </c>
     </row>
@@ -2729,64 +2735,64 @@
       <c r="I9" s="5">
         <v>43830</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="7">
         <v>13</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="7">
         <v>16</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="7">
         <v>20</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="P9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="7">
         <v>6</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="7">
         <v>8</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="T9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="7">
         <v>36</v>
       </c>
-      <c r="V9" s="6" t="s">
+      <c r="V9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="7">
         <v>1</v>
       </c>
-      <c r="X9" s="6" t="s">
+      <c r="X9" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="Y9" s="7">
         <v>0.2</v>
       </c>
-      <c r="Z9" s="6" t="s">
+      <c r="Z9" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AA9" s="6">
+      <c r="AA9" s="7">
         <v>0</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AB9" s="8">
         <v>0.6397</v>
       </c>
-      <c r="AC9" s="7">
+      <c r="AC9" s="8">
         <v>0.2129</v>
       </c>
     </row>
@@ -2797,66 +2803,953 @@
       <c r="I10" s="5">
         <v>44196</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="7">
         <v>13</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="7">
         <v>24</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="7">
         <v>20</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="7">
         <v>6</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="7">
         <v>8</v>
       </c>
-      <c r="T10" s="6" t="s">
+      <c r="T10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="7">
         <v>30</v>
       </c>
-      <c r="V10" s="6" t="s">
+      <c r="V10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="7">
         <v>1</v>
       </c>
-      <c r="X10" s="6" t="s">
+      <c r="X10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Y10" s="7">
         <v>0.2</v>
       </c>
-      <c r="Z10" s="6" t="s">
+      <c r="Z10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AA10" s="7">
         <v>0</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AB10" s="8">
         <v>0.4474</v>
       </c>
-      <c r="AC10" s="7">
+      <c r="AC10" s="8">
         <v>0.1491</v>
       </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AZ10">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="5.46666666666667" style="12" customWidth="1"/>
+    <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="11.975" customWidth="1"/>
+    <col min="5" max="5" width="12.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="21.6" customWidth="1"/>
+    <col min="8" max="8" width="11.6"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="15">
+        <v>3</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15">
+        <v>17</v>
+      </c>
+      <c r="F3" s="15">
+        <f t="shared" ref="F3:F8" si="0">((E3-C3)/D3)+1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="17">
+        <v>14</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17">
+        <v>30</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>36</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="17">
+        <v>3</v>
+      </c>
+      <c r="D6" s="17">
+        <v>2</v>
+      </c>
+      <c r="E6" s="17">
+        <v>33</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="15">
+        <v>2</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
+        <v>30</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="17">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="17">
+        <v>6</v>
+      </c>
+      <c r="D8" s="17">
+        <v>2</v>
+      </c>
+      <c r="E8" s="17">
+        <v>42</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="17">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15">
+        <v>9</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="19">
+        <f>PRODUCT(F3:F8)</f>
+        <v>31473120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="20">
+        <f>(F12*1.9)/3600</f>
+        <v>16610.8133333333</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:6">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="21">
+        <f>F13/24</f>
+        <v>692.117222222222</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E14"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AZ10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="3" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="9.875"/>
+    <col min="9" max="9" width="11"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="3.375" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="3.375" customWidth="1"/>
+    <col min="14" max="14" width="9.75" customWidth="1"/>
+    <col min="15" max="15" width="3.375" customWidth="1"/>
+    <col min="16" max="16" width="11.625" customWidth="1"/>
+    <col min="17" max="17" width="3.375" customWidth="1"/>
+    <col min="18" max="18" width="12.875" customWidth="1"/>
+    <col min="19" max="19" width="3.375" customWidth="1"/>
+    <col min="20" max="20" width="13.75" customWidth="1"/>
+    <col min="21" max="21" width="3.375" customWidth="1"/>
+    <col min="22" max="22" width="10.25" customWidth="1"/>
+    <col min="23" max="23" width="2.375" customWidth="1"/>
+    <col min="24" max="24" width="19.625" customWidth="1"/>
+    <col min="25" max="25" width="4.375" customWidth="1"/>
+    <col min="26" max="26" width="19.625" customWidth="1"/>
+    <col min="27" max="27" width="2.375" customWidth="1"/>
+    <col min="28" max="28" width="9.375" customWidth="1"/>
+    <col min="30" max="31" width="11.5" customWidth="1"/>
+    <col min="32" max="32" width="9.375" customWidth="1"/>
+    <col min="33" max="34" width="11.5" customWidth="1"/>
+    <col min="35" max="35" width="9.875" customWidth="1"/>
+    <col min="36" max="37" width="9.875"/>
+    <col min="38" max="38" width="16" customWidth="1"/>
+    <col min="39" max="39" width="9.875"/>
+    <col min="42" max="42" width="13.75"/>
+    <col min="43" max="43" width="11.5" customWidth="1"/>
+    <col min="45" max="45" width="11.5" customWidth="1"/>
+    <col min="47" max="47" width="11.5" customWidth="1"/>
+    <col min="48" max="48" width="13.75" customWidth="1"/>
+    <col min="49" max="50" width="11.5" customWidth="1"/>
+    <col min="51" max="51" width="9.375" customWidth="1"/>
+    <col min="52" max="52" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.0001</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>50000</v>
+      </c>
+      <c r="H2" s="5">
+        <v>40179</v>
+      </c>
+      <c r="I2" s="5">
+        <v>44012</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="6">
+        <v>14</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="6">
+        <v>23</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="6">
+        <v>12</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>7</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S2" s="6">
+        <v>6</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2" s="6">
+        <v>32</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W2" s="6">
+        <v>1</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>1.1619</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>0.1536</v>
+      </c>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="11"/>
+    </row>
+    <row r="3" spans="8:52">
+      <c r="H3" s="5">
+        <v>43831</v>
+      </c>
+      <c r="I3" s="5">
+        <v>44012</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="11"/>
+    </row>
+    <row r="4" spans="8:52">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="11"/>
+    </row>
+    <row r="5" spans="8:52">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="11"/>
+    </row>
+    <row r="6" spans="8:52">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="11"/>
+    </row>
+    <row r="7" spans="8:52">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="10"/>
+      <c r="AZ7" s="11"/>
+    </row>
+    <row r="8" spans="8:29">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+    </row>
+    <row r="9" spans="8:29">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+    </row>
+    <row r="10" spans="8:29">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AZ10">

--- a/1-策略开发/1-开发中的策略/1-bar回测/7-multi_timeframe/multi_timeframe参数优化记录.xlsx
+++ b/1-策略开发/1-开发中的策略/1-bar回测/7-multi_timeframe/multi_timeframe参数优化记录.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="72">
   <si>
     <t>multi_timeframe参数优化区间设置</t>
   </si>
@@ -245,13 +245,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
     <numFmt numFmtId="176" formatCode="#,##0.000000_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0&quot;组&quot;"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0&quot;组&quot;"/>
     <numFmt numFmtId="180" formatCode="#,##0.00&quot;小时&quot;"/>
     <numFmt numFmtId="181" formatCode="#,##0.00&quot;天&quot;"/>
   </numFmts>
@@ -287,7 +287,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,15 +341,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,46 +393,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -379,52 +424,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,7 +451,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,31 +469,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,13 +493,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,19 +571,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,19 +601,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,67 +625,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,11 +720,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,6 +745,39 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -762,8 +801,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,45 +817,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -825,10 +825,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,37 +837,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -876,98 +870,104 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -977,18 +977,21 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1001,7 +1004,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1025,7 +1028,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1036,6 +1039,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1106,7 +1112,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1368,7 +1374,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.46666666666667" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.46666666666667" style="13" customWidth="1"/>
     <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="12.4416666666667" customWidth="1"/>
     <col min="4" max="4" width="11.975" customWidth="1"/>
@@ -1378,230 +1384,230 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="15">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="16">
         <v>3</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="16">
         <v>2</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="16">
         <v>17</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="16">
         <f t="shared" ref="F3:F8" si="0">((E3-C3)/D3)+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="18">
         <v>14</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="18">
         <v>2</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="18">
         <v>30</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="16">
         <v>10</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="16">
         <v>5</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="16">
         <v>35</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="18">
         <v>3</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="18">
         <v>3</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="18">
         <v>33</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="18">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="15">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="16">
         <v>2</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="16">
         <v>2</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="16">
         <v>30</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="17">
+      <c r="A8" s="18">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="18">
         <v>6</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="18">
         <v>3</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="18">
         <v>42</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="15">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="17">
+      <c r="A10" s="18">
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="15">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="19">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="20">
         <f>PRODUCT(F3:F8)</f>
         <v>926640</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="20">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="21">
         <f>(F12*1.9)/3600</f>
         <v>489.06</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:6">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="21">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="22">
         <f>F13/24</f>
         <v>20.3775</v>
       </c>
@@ -1836,135 +1842,135 @@
       <c r="I2" s="5">
         <v>41274</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="8">
         <v>17</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="8">
         <v>14</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="8">
         <v>10</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="8">
         <v>24</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="8">
         <v>12</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="8">
         <v>42</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="W2" s="7">
+      <c r="W2" s="8">
         <v>1</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="Y2" s="8">
         <v>0.2</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="7">
+      <c r="AA2" s="8">
         <v>0</v>
       </c>
-      <c r="AB2" s="8">
+      <c r="AB2" s="9">
         <f>(AJ2-AI2)/AI2</f>
         <v>0.586545</v>
       </c>
-      <c r="AC2" s="8">
+      <c r="AC2" s="9">
         <v>0.1958</v>
       </c>
-      <c r="AD2" s="9">
+      <c r="AD2" s="10">
         <v>40193</v>
       </c>
-      <c r="AE2" s="9">
+      <c r="AE2" s="10">
         <v>41271</v>
       </c>
-      <c r="AF2" s="10">
+      <c r="AF2" s="11">
         <v>719</v>
       </c>
-      <c r="AG2" s="10">
+      <c r="AG2" s="11">
         <v>313</v>
       </c>
-      <c r="AH2" s="10">
+      <c r="AH2" s="11">
         <v>292</v>
       </c>
-      <c r="AI2" s="11">
+      <c r="AI2" s="12">
         <v>50000</v>
       </c>
-      <c r="AJ2" s="11">
+      <c r="AJ2" s="12">
         <v>79327.25</v>
       </c>
-      <c r="AK2" s="11">
+      <c r="AK2" s="12">
         <v>-3461.23</v>
       </c>
-      <c r="AL2" s="8">
+      <c r="AL2" s="9">
         <v>-0.0478</v>
       </c>
-      <c r="AM2" s="11">
+      <c r="AM2" s="12">
         <f t="shared" ref="AM2:AM7" si="0">AJ2-AI2</f>
         <v>29327.25</v>
       </c>
-      <c r="AN2" s="11">
+      <c r="AN2" s="12">
         <v>1004.75</v>
       </c>
-      <c r="AO2" s="11">
+      <c r="AO2" s="12">
         <v>758</v>
       </c>
-      <c r="AP2" s="11">
+      <c r="AP2" s="12">
         <v>10047530</v>
       </c>
-      <c r="AQ2" s="10">
+      <c r="AQ2" s="11">
         <v>376</v>
       </c>
-      <c r="AR2" s="11">
+      <c r="AR2" s="12">
         <v>40.79</v>
       </c>
-      <c r="AS2" s="11">
+      <c r="AS2" s="12">
         <v>1.4</v>
       </c>
-      <c r="AT2" s="11">
+      <c r="AT2" s="12">
         <v>1.05</v>
       </c>
-      <c r="AU2" s="11">
+      <c r="AU2" s="12">
         <v>13974.31</v>
       </c>
-      <c r="AV2" s="11">
+      <c r="AV2" s="12">
         <v>0.52</v>
       </c>
-      <c r="AW2" s="8">
+      <c r="AW2" s="9">
         <v>0.0006</v>
       </c>
-      <c r="AX2" s="8">
+      <c r="AX2" s="9">
         <v>0.0052</v>
       </c>
-      <c r="AY2" s="10">
+      <c r="AY2" s="11">
         <v>1.86</v>
       </c>
-      <c r="AZ2" s="11">
+      <c r="AZ2" s="12">
         <v>12.27</v>
       </c>
     </row>
@@ -1975,135 +1981,135 @@
       <c r="I3" s="5">
         <v>41639</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="8">
         <v>13</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="8">
         <v>22</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="8">
         <v>10</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="8">
         <v>9</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="8">
         <v>4</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="8">
         <v>12</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="8">
         <v>1</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3" s="8">
         <v>0.2</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="Z3" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AA3" s="7">
+      <c r="AA3" s="8">
         <v>0</v>
       </c>
-      <c r="AB3" s="8">
+      <c r="AB3" s="9">
         <f>(AJ3-AI3)/AI3</f>
         <v>0.5454278</v>
       </c>
-      <c r="AC3" s="8">
+      <c r="AC3" s="9">
         <v>0.1831</v>
       </c>
-      <c r="AD3" s="9">
+      <c r="AD3" s="10">
         <v>40560</v>
       </c>
-      <c r="AE3" s="9">
+      <c r="AE3" s="10">
         <v>41638</v>
       </c>
-      <c r="AF3" s="10">
+      <c r="AF3" s="11">
         <v>715</v>
       </c>
-      <c r="AG3" s="10">
+      <c r="AG3" s="11">
         <v>323</v>
       </c>
-      <c r="AH3" s="10">
+      <c r="AH3" s="11">
         <v>384</v>
       </c>
-      <c r="AI3" s="11">
+      <c r="AI3" s="12">
         <v>50000</v>
       </c>
-      <c r="AJ3" s="11">
+      <c r="AJ3" s="12">
         <v>77271.39</v>
       </c>
-      <c r="AK3" s="11">
+      <c r="AK3" s="12">
         <v>-4646.44</v>
       </c>
-      <c r="AL3" s="8">
+      <c r="AL3" s="9">
         <v>-0.0745</v>
       </c>
-      <c r="AM3" s="11">
+      <c r="AM3" s="12">
         <f t="shared" si="0"/>
         <v>27271.39</v>
       </c>
-      <c r="AN3" s="11">
+      <c r="AN3" s="12">
         <v>2700.61</v>
       </c>
-      <c r="AO3" s="11">
+      <c r="AO3" s="12">
         <v>2398</v>
       </c>
-      <c r="AP3" s="11">
+      <c r="AP3" s="12">
         <v>27006140</v>
       </c>
-      <c r="AQ3" s="10">
+      <c r="AQ3" s="11">
         <v>1192</v>
       </c>
-      <c r="AR3" s="11">
+      <c r="AR3" s="12">
         <v>38.14</v>
       </c>
-      <c r="AS3" s="11">
+      <c r="AS3" s="12">
         <v>3.78</v>
       </c>
-      <c r="AT3" s="11">
+      <c r="AT3" s="12">
         <v>3.35</v>
       </c>
-      <c r="AU3" s="11">
+      <c r="AU3" s="12">
         <v>37770.83</v>
       </c>
-      <c r="AV3" s="11">
+      <c r="AV3" s="12">
         <v>1.67</v>
       </c>
-      <c r="AW3" s="8">
+      <c r="AW3" s="9">
         <v>0.0006</v>
       </c>
-      <c r="AX3" s="8">
+      <c r="AX3" s="9">
         <v>0.0045</v>
       </c>
-      <c r="AY3" s="10">
+      <c r="AY3" s="11">
         <v>2.12</v>
       </c>
-      <c r="AZ3" s="11">
+      <c r="AZ3" s="12">
         <v>7.32</v>
       </c>
     </row>
@@ -2114,135 +2120,135 @@
       <c r="I4" s="5">
         <v>42004</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="8">
         <v>9</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="8">
         <v>14</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="8">
         <v>10</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="8">
         <v>15</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="8">
         <v>2</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="8">
         <v>18</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="W4" s="7">
+      <c r="W4" s="8">
         <v>1</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="X4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="8">
         <v>0.2</v>
       </c>
-      <c r="Z4" s="7" t="s">
+      <c r="Z4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA4" s="8">
         <v>0</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB4" s="9">
         <f>(AJ4-AI4)/AI4</f>
         <v>0.4702732</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AC4" s="9">
         <v>0.1572</v>
       </c>
-      <c r="AD4" s="9">
+      <c r="AD4" s="10">
         <v>40925</v>
       </c>
-      <c r="AE4" s="9">
+      <c r="AE4" s="10">
         <v>42004</v>
       </c>
-      <c r="AF4" s="10">
+      <c r="AF4" s="11">
         <v>718</v>
       </c>
-      <c r="AG4" s="10">
+      <c r="AG4" s="11">
         <v>320</v>
       </c>
-      <c r="AH4" s="10">
+      <c r="AH4" s="11">
         <v>386</v>
       </c>
-      <c r="AI4" s="11">
+      <c r="AI4" s="12">
         <v>50000</v>
       </c>
-      <c r="AJ4" s="11">
+      <c r="AJ4" s="12">
         <v>73513.66</v>
       </c>
-      <c r="AK4" s="11">
+      <c r="AK4" s="12">
         <v>-2326.22</v>
       </c>
-      <c r="AL4" s="8">
+      <c r="AL4" s="9">
         <v>-0.0316</v>
       </c>
-      <c r="AM4" s="11">
+      <c r="AM4" s="12">
         <f t="shared" si="0"/>
         <v>23513.66</v>
       </c>
-      <c r="AN4" s="11">
+      <c r="AN4" s="12">
         <v>1844.35</v>
       </c>
-      <c r="AO4" s="11">
+      <c r="AO4" s="12">
         <v>2342</v>
       </c>
-      <c r="AP4" s="11">
+      <c r="AP4" s="12">
         <v>18443450</v>
       </c>
-      <c r="AQ4" s="10">
+      <c r="AQ4" s="11">
         <v>1167</v>
       </c>
-      <c r="AR4" s="11">
+      <c r="AR4" s="12">
         <v>32.75</v>
       </c>
-      <c r="AS4" s="11">
+      <c r="AS4" s="12">
         <v>2.57</v>
       </c>
-      <c r="AT4" s="11">
+      <c r="AT4" s="12">
         <v>3.26</v>
       </c>
-      <c r="AU4" s="11">
+      <c r="AU4" s="12">
         <v>25687.26</v>
       </c>
-      <c r="AV4" s="11">
+      <c r="AV4" s="12">
         <v>1.63</v>
       </c>
-      <c r="AW4" s="8">
+      <c r="AW4" s="9">
         <v>0.0005</v>
       </c>
-      <c r="AX4" s="8">
+      <c r="AX4" s="9">
         <v>0.0041</v>
       </c>
-      <c r="AY4" s="10">
+      <c r="AY4" s="11">
         <v>1.99</v>
       </c>
-      <c r="AZ4" s="11">
+      <c r="AZ4" s="12">
         <v>14.9</v>
       </c>
     </row>
@@ -2253,134 +2259,134 @@
       <c r="I5" s="5">
         <v>42369</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="8">
         <v>17</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="8">
         <v>30</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="8">
         <v>10</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="8">
         <v>27</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="8">
         <v>18</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="T5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="8">
         <v>42</v>
       </c>
-      <c r="V5" s="7" t="s">
+      <c r="V5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="W5" s="7">
+      <c r="W5" s="8">
         <v>1</v>
       </c>
-      <c r="X5" s="7" t="s">
+      <c r="X5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y5" s="8">
         <v>0.2</v>
       </c>
-      <c r="Z5" s="7" t="s">
+      <c r="Z5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AA5" s="8">
         <v>0</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AB5" s="9">
         <v>0.322</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AC5" s="9">
         <v>0.1013</v>
       </c>
-      <c r="AD5" s="9">
+      <c r="AD5" s="10">
         <v>41291</v>
       </c>
-      <c r="AE5" s="9">
+      <c r="AE5" s="10">
         <v>42369</v>
       </c>
-      <c r="AF5" s="10">
+      <c r="AF5" s="11">
         <v>763</v>
       </c>
-      <c r="AG5" s="10">
+      <c r="AG5" s="11">
         <v>276</v>
       </c>
-      <c r="AH5" s="10">
+      <c r="AH5" s="11">
         <v>269</v>
       </c>
-      <c r="AI5" s="11">
+      <c r="AI5" s="12">
         <v>50000</v>
       </c>
-      <c r="AJ5" s="11">
+      <c r="AJ5" s="12">
         <v>66098.05</v>
       </c>
-      <c r="AK5" s="11">
+      <c r="AK5" s="12">
         <v>-1957.84</v>
       </c>
-      <c r="AL5" s="8">
+      <c r="AL5" s="9">
         <v>-0.0358</v>
       </c>
-      <c r="AM5" s="11">
+      <c r="AM5" s="12">
         <f t="shared" si="0"/>
         <v>16098.05</v>
       </c>
-      <c r="AN5" s="11">
+      <c r="AN5" s="12">
         <v>191.95</v>
       </c>
-      <c r="AO5" s="11">
+      <c r="AO5" s="12">
         <v>680</v>
       </c>
-      <c r="AP5" s="11">
+      <c r="AP5" s="12">
         <v>1919510</v>
       </c>
-      <c r="AQ5" s="10">
+      <c r="AQ5" s="11">
         <v>339</v>
       </c>
-      <c r="AR5" s="11">
+      <c r="AR5" s="12">
         <v>21.1</v>
       </c>
-      <c r="AS5" s="11">
+      <c r="AS5" s="12">
         <v>0.25</v>
       </c>
-      <c r="AT5" s="11">
+      <c r="AT5" s="12">
         <v>0.89</v>
       </c>
-      <c r="AU5" s="11">
+      <c r="AU5" s="12">
         <v>2515.74</v>
       </c>
-      <c r="AV5" s="11">
+      <c r="AV5" s="12">
         <v>0.44</v>
       </c>
-      <c r="AW5" s="8">
+      <c r="AW5" s="9">
         <v>0.0004</v>
       </c>
-      <c r="AX5" s="8">
+      <c r="AX5" s="9">
         <v>0.0036</v>
       </c>
-      <c r="AY5" s="10">
+      <c r="AY5" s="11">
         <v>1.56</v>
       </c>
-      <c r="AZ5" s="11">
+      <c r="AZ5" s="12">
         <v>8.98</v>
       </c>
     </row>
@@ -2391,134 +2397,134 @@
       <c r="I6" s="5">
         <v>42735</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="8">
         <v>9</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="8">
         <v>26</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="8">
         <v>15</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="8">
         <v>9</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="8">
         <v>4</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="8">
         <v>30</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="V6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="W6" s="7">
+      <c r="W6" s="8">
         <v>1</v>
       </c>
-      <c r="X6" s="7" t="s">
+      <c r="X6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="Y6" s="8">
         <v>0.2</v>
       </c>
-      <c r="Z6" s="7" t="s">
+      <c r="Z6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AA6" s="8">
         <v>0</v>
       </c>
-      <c r="AB6" s="8">
+      <c r="AB6" s="9">
         <v>0.6254</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AC6" s="9">
         <v>0.1919</v>
       </c>
-      <c r="AD6" s="9">
+      <c r="AD6" s="10">
         <v>41654</v>
       </c>
-      <c r="AE6" s="9">
+      <c r="AE6" s="10">
         <v>42734</v>
       </c>
-      <c r="AF6" s="10">
+      <c r="AF6" s="11">
         <v>782</v>
       </c>
-      <c r="AG6" s="10">
+      <c r="AG6" s="11">
         <v>345</v>
       </c>
-      <c r="AH6" s="10">
+      <c r="AH6" s="11">
         <v>384</v>
       </c>
-      <c r="AI6" s="11">
+      <c r="AI6" s="12">
         <v>50000</v>
       </c>
-      <c r="AJ6" s="11">
+      <c r="AJ6" s="12">
         <v>81270.19</v>
       </c>
-      <c r="AK6" s="11">
+      <c r="AK6" s="12">
         <v>-2321.78</v>
       </c>
-      <c r="AL6" s="8">
+      <c r="AL6" s="9">
         <v>-0.0352</v>
       </c>
-      <c r="AM6" s="11">
+      <c r="AM6" s="12">
         <f t="shared" si="0"/>
         <v>31270.19</v>
       </c>
-      <c r="AN6" s="11">
+      <c r="AN6" s="12">
         <v>317.81</v>
       </c>
-      <c r="AO6" s="11">
+      <c r="AO6" s="12">
         <v>3382</v>
       </c>
-      <c r="AP6" s="11">
+      <c r="AP6" s="12">
         <v>3178140</v>
       </c>
-      <c r="AQ6" s="10">
+      <c r="AQ6" s="11">
         <v>1686</v>
       </c>
-      <c r="AR6" s="11">
+      <c r="AR6" s="12">
         <v>39.99</v>
       </c>
-      <c r="AS6" s="11">
+      <c r="AS6" s="12">
         <v>0.41</v>
       </c>
-      <c r="AT6" s="11">
+      <c r="AT6" s="12">
         <v>4.32</v>
       </c>
-      <c r="AU6" s="11">
+      <c r="AU6" s="12">
         <v>4064.12</v>
       </c>
-      <c r="AV6" s="11">
+      <c r="AV6" s="12">
         <v>2.16</v>
       </c>
-      <c r="AW6" s="8">
+      <c r="AW6" s="9">
         <v>0.0006</v>
       </c>
-      <c r="AX6" s="8">
+      <c r="AX6" s="9">
         <v>0.0045</v>
       </c>
-      <c r="AY6" s="10">
+      <c r="AY6" s="11">
         <v>2.15</v>
       </c>
-      <c r="AZ6" s="11">
+      <c r="AZ6" s="12">
         <v>17.76</v>
       </c>
     </row>
@@ -2529,134 +2535,134 @@
       <c r="I7" s="5">
         <v>43100</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="8">
         <v>13</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="8">
         <v>20</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="8">
         <v>15</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="8">
         <v>6</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="8">
         <v>12</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="8">
         <v>27</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="V7" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="W7" s="7">
+      <c r="W7" s="8">
         <v>1</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="X7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="Y7" s="8">
         <v>0.2</v>
       </c>
-      <c r="Z7" s="7" t="s">
+      <c r="Z7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="8">
         <v>0</v>
       </c>
-      <c r="AB7" s="8">
+      <c r="AB7" s="9">
         <v>0.7734</v>
       </c>
-      <c r="AC7" s="8">
+      <c r="AC7" s="9">
         <v>0.238</v>
       </c>
-      <c r="AD7" s="9">
+      <c r="AD7" s="10">
         <v>42019</v>
       </c>
-      <c r="AE7" s="9">
+      <c r="AE7" s="10">
         <v>43098</v>
       </c>
-      <c r="AF7" s="10">
+      <c r="AF7" s="11">
         <v>780</v>
       </c>
-      <c r="AG7" s="10">
+      <c r="AG7" s="11">
         <v>360</v>
       </c>
-      <c r="AH7" s="10">
+      <c r="AH7" s="11">
         <v>380</v>
       </c>
-      <c r="AI7" s="11">
+      <c r="AI7" s="12">
         <v>50000</v>
       </c>
-      <c r="AJ7" s="11">
+      <c r="AJ7" s="12">
         <v>88670.32</v>
       </c>
-      <c r="AK7" s="11">
+      <c r="AK7" s="12">
         <v>-5166.64</v>
       </c>
-      <c r="AL7" s="8">
+      <c r="AL7" s="9">
         <v>-0.0575</v>
       </c>
-      <c r="AM7" s="11">
+      <c r="AM7" s="12">
         <f t="shared" si="0"/>
         <v>38670.32</v>
       </c>
-      <c r="AN7" s="11">
+      <c r="AN7" s="12">
         <v>893.68</v>
       </c>
-      <c r="AO7" s="11">
+      <c r="AO7" s="12">
         <v>3956</v>
       </c>
-      <c r="AP7" s="11">
+      <c r="AP7" s="12">
         <v>8936840</v>
       </c>
-      <c r="AQ7" s="10">
+      <c r="AQ7" s="11">
         <v>1969</v>
       </c>
-      <c r="AR7" s="11">
+      <c r="AR7" s="12">
         <v>49.58</v>
       </c>
-      <c r="AS7" s="11">
+      <c r="AS7" s="12">
         <v>1.15</v>
       </c>
-      <c r="AT7" s="11">
+      <c r="AT7" s="12">
         <v>5.07</v>
       </c>
-      <c r="AU7" s="11">
+      <c r="AU7" s="12">
         <v>11457.49</v>
       </c>
-      <c r="AV7" s="11">
+      <c r="AV7" s="12">
         <v>2.52</v>
       </c>
-      <c r="AW7" s="8">
+      <c r="AW7" s="9">
         <v>0.0007</v>
       </c>
-      <c r="AX7" s="8">
+      <c r="AX7" s="9">
         <v>0.0056</v>
       </c>
-      <c r="AY7" s="10">
+      <c r="AY7" s="11">
         <v>2.02</v>
       </c>
-      <c r="AZ7" s="11">
+      <c r="AZ7" s="12">
         <v>13.44</v>
       </c>
     </row>
@@ -2667,64 +2673,64 @@
       <c r="I8" s="5">
         <v>43465</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="8">
         <v>14</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="8">
         <v>18</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="8">
         <v>15</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="8">
         <v>6</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="R8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="8">
         <v>6</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="T8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="8">
         <v>42</v>
       </c>
-      <c r="V8" s="7" t="s">
+      <c r="V8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="8">
         <v>1</v>
       </c>
-      <c r="X8" s="7" t="s">
+      <c r="X8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y8" s="8">
         <v>0.2</v>
       </c>
-      <c r="Z8" s="7" t="s">
+      <c r="Z8" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AA8" s="8">
         <v>0</v>
       </c>
-      <c r="AB8" s="8">
+      <c r="AB8" s="9">
         <v>0.9564</v>
       </c>
-      <c r="AC8" s="8">
+      <c r="AC8" s="9">
         <v>0.3123</v>
       </c>
     </row>
@@ -2735,64 +2741,64 @@
       <c r="I9" s="5">
         <v>43830</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="8">
         <v>13</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="8">
         <v>16</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="8">
         <v>20</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="8">
         <v>6</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="R9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="8">
         <v>8</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="T9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="8">
         <v>36</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="V9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W9" s="8">
         <v>1</v>
       </c>
-      <c r="X9" s="7" t="s">
+      <c r="X9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Y9" s="7">
+      <c r="Y9" s="8">
         <v>0.2</v>
       </c>
-      <c r="Z9" s="7" t="s">
+      <c r="Z9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="AA9" s="8">
         <v>0</v>
       </c>
-      <c r="AB9" s="8">
+      <c r="AB9" s="9">
         <v>0.6397</v>
       </c>
-      <c r="AC9" s="8">
+      <c r="AC9" s="9">
         <v>0.2129</v>
       </c>
     </row>
@@ -2803,64 +2809,64 @@
       <c r="I10" s="5">
         <v>44196</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="8">
         <v>13</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="8">
         <v>24</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="8">
         <v>20</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="8">
         <v>6</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="8">
         <v>8</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="T10" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="8">
         <v>30</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="V10" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="W10" s="7">
+      <c r="W10" s="8">
         <v>1</v>
       </c>
-      <c r="X10" s="7" t="s">
+      <c r="X10" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Y10" s="7">
+      <c r="Y10" s="8">
         <v>0.2</v>
       </c>
-      <c r="Z10" s="7" t="s">
+      <c r="Z10" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AA10" s="8">
         <v>0</v>
       </c>
-      <c r="AB10" s="8">
+      <c r="AB10" s="9">
         <v>0.4474</v>
       </c>
-      <c r="AC10" s="8">
+      <c r="AC10" s="9">
         <v>0.1491</v>
       </c>
     </row>
@@ -2883,12 +2889,12 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.46666666666667" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.46666666666667" style="13" customWidth="1"/>
     <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="12.4416666666667" customWidth="1"/>
     <col min="4" max="4" width="11.975" customWidth="1"/>
@@ -2898,232 +2904,232 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="15">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="16">
         <v>3</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="16">
         <v>1</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="16">
         <v>17</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="16">
         <f t="shared" ref="F3:F8" si="0">((E3-C3)/D3)+1</f>
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="17">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="18">
         <v>14</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="18">
         <v>1</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="18">
         <v>30</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="16">
         <v>10</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="16">
         <v>2</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="16">
         <v>36</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="17">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="18">
         <v>3</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="18">
         <v>2</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="18">
         <v>33</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="15">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="16">
         <v>2</v>
       </c>
-      <c r="D7" s="15">
-        <v>1</v>
-      </c>
-      <c r="E7" s="15">
+      <c r="D7" s="16">
+        <v>2</v>
+      </c>
+      <c r="E7" s="16">
         <v>30</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="16">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="17">
+      <c r="A8" s="18">
         <v>6</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="18">
         <v>6</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="18">
         <v>2</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="18">
         <v>42</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="18">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="15">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="17">
+      <c r="A10" s="18">
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="15">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="19">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="20">
         <f>PRODUCT(F3:F8)</f>
-        <v>31473120</v>
+        <v>16279200</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="20">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="21">
         <f>(F12*1.9)/3600</f>
-        <v>16610.8133333333</v>
+        <v>8591.8</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:6">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="21">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="22">
         <f>F13/24</f>
-        <v>692.117222222222</v>
+        <v>357.991666666667</v>
       </c>
     </row>
   </sheetData>
@@ -3142,8 +3148,8 @@
   <sheetPr/>
   <dimension ref="A1:AZ10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -3410,346 +3416,390 @@
       <c r="AA2" s="6">
         <v>0</v>
       </c>
-      <c r="AB2" s="8">
+      <c r="AB2" s="9">
         <v>1.1619</v>
       </c>
-      <c r="AC2" s="8">
+      <c r="AC2" s="9">
         <v>0.1536</v>
       </c>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="10"/>
-      <c r="AZ2" s="11"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="9"/>
+      <c r="AX2" s="9"/>
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="12"/>
     </row>
     <row r="3" spans="8:52">
       <c r="H3" s="5">
         <v>43831</v>
       </c>
       <c r="I3" s="5">
+        <v>44196</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="6">
+        <v>17</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="6">
+        <v>29</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="6">
+        <v>10</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>9</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S3" s="6">
+        <v>7</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="U3" s="6">
+        <v>14</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" s="6">
+        <v>1</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>0.1477</v>
+      </c>
+      <c r="AC3" s="9">
+        <v>0.3056</v>
+      </c>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="12"/>
+    </row>
+    <row r="4" spans="8:52">
+      <c r="H4" s="5">
+        <v>43647</v>
+      </c>
+      <c r="I4" s="5">
         <v>44012</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="11"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="10"/>
-      <c r="AZ3" s="11"/>
-    </row>
-    <row r="4" spans="8:52">
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="11"/>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="11"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="10"/>
-      <c r="AZ4" s="11"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="12"/>
     </row>
     <row r="5" spans="8:52">
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="11"/>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="11"/>
-      <c r="AN5" s="11"/>
-      <c r="AO5" s="11"/>
-      <c r="AP5" s="11"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="11"/>
-      <c r="AS5" s="11"/>
-      <c r="AT5" s="11"/>
-      <c r="AU5" s="11"/>
-      <c r="AV5" s="11"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="10"/>
-      <c r="AZ5" s="11"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="11"/>
+      <c r="AZ5" s="12"/>
     </row>
     <row r="6" spans="8:52">
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="11"/>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="11"/>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="11"/>
-      <c r="AV6" s="11"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="10"/>
-      <c r="AZ6" s="11"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="12"/>
     </row>
     <row r="7" spans="8:52">
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="8"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="11"/>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
-      <c r="AV7" s="11"/>
-      <c r="AW7" s="8"/>
-      <c r="AX7" s="8"/>
-      <c r="AY7" s="10"/>
-      <c r="AZ7" s="11"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="9"/>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="12"/>
     </row>
     <row r="8" spans="8:29">
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
     </row>
     <row r="9" spans="8:29">
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
     </row>
     <row r="10" spans="8:29">
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AZ10">

--- a/1-策略开发/1-开发中的策略/1-bar回测/7-multi_timeframe/multi_timeframe参数优化记录.xlsx
+++ b/1-策略开发/1-开发中的策略/1-bar回测/7-multi_timeframe/multi_timeframe参数优化记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="425" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="425" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1-参数优化区间设置" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="72">
   <si>
     <t>multi_timeframe参数优化区间设置</t>
   </si>
@@ -243,17 +243,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
+  <numFmts count="11">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.000000_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0&quot;组&quot;"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00&quot;小时&quot;"/>
-    <numFmt numFmtId="181" formatCode="#,##0.00&quot;天&quot;"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="180" formatCode="#,##0&quot;组&quot;"/>
+    <numFmt numFmtId="181" formatCode="#,##0.00&quot;小时&quot;"/>
+    <numFmt numFmtId="182" formatCode="#,##0.00&quot;天&quot;"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -286,8 +287,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,6 +324,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -308,31 +354,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -349,21 +379,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,30 +401,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,17 +417,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,7 +458,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,7 +482,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,43 +530,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,19 +560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,37 +578,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,13 +608,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,25 +632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,6 +721,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -731,6 +743,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,15 +786,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -783,21 +801,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -809,11 +812,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,10 +826,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,137 +838,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,64 +985,79 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1374,7 +1390,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.46666666666667" style="13" customWidth="1"/>
+    <col min="1" max="1" width="5.46666666666667" style="16" customWidth="1"/>
     <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="12.4416666666667" customWidth="1"/>
     <col min="4" max="4" width="11.975" customWidth="1"/>
@@ -1384,230 +1400,230 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="16">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="19">
         <v>3</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="19">
         <v>2</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="19">
         <v>17</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="19">
         <f t="shared" ref="F3:F8" si="0">((E3-C3)/D3)+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="18">
+      <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="21">
         <v>14</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="21">
         <v>2</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="21">
         <v>30</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="16">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="19">
         <v>10</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="19">
         <v>5</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="19">
         <v>35</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="18">
+      <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="21">
         <v>3</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="21">
         <v>3</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="21">
         <v>33</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="16">
+      <c r="A7" s="19">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="19">
         <v>2</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="19">
         <v>2</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="19">
         <v>30</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="19">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="18">
+      <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="21">
         <v>6</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="21">
         <v>3</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="21">
         <v>42</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="21">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="16">
+      <c r="A9" s="19">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="18">
+      <c r="A10" s="21">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="16">
+      <c r="A11" s="19">
         <v>9</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="20">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="23">
         <f>PRODUCT(F3:F8)</f>
         <v>926640</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="21">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="24">
         <f>(F12*1.9)/3600</f>
         <v>489.06</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:6">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="22">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="25">
         <f>F13/24</f>
         <v>20.3775</v>
       </c>
@@ -1836,1037 +1852,1037 @@
       <c r="G2" s="4">
         <v>50000</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>40179</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="6">
         <v>41274</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="11">
         <v>17</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="11">
         <v>14</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="11">
         <v>10</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="11">
         <v>24</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="11">
         <v>12</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="11">
         <v>42</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="11">
         <v>1</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="11">
         <v>0.2</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="8">
+      <c r="AA2" s="11">
         <v>0</v>
       </c>
-      <c r="AB2" s="9">
+      <c r="AB2" s="12">
         <f>(AJ2-AI2)/AI2</f>
         <v>0.586545</v>
       </c>
-      <c r="AC2" s="9">
+      <c r="AC2" s="12">
         <v>0.1958</v>
       </c>
-      <c r="AD2" s="10">
+      <c r="AD2" s="26">
         <v>40193</v>
       </c>
-      <c r="AE2" s="10">
+      <c r="AE2" s="26">
         <v>41271</v>
       </c>
-      <c r="AF2" s="11">
+      <c r="AF2" s="14">
         <v>719</v>
       </c>
-      <c r="AG2" s="11">
+      <c r="AG2" s="14">
         <v>313</v>
       </c>
-      <c r="AH2" s="11">
+      <c r="AH2" s="14">
         <v>292</v>
       </c>
-      <c r="AI2" s="12">
+      <c r="AI2" s="15">
         <v>50000</v>
       </c>
-      <c r="AJ2" s="12">
+      <c r="AJ2" s="15">
         <v>79327.25</v>
       </c>
-      <c r="AK2" s="12">
+      <c r="AK2" s="15">
         <v>-3461.23</v>
       </c>
-      <c r="AL2" s="9">
+      <c r="AL2" s="12">
         <v>-0.0478</v>
       </c>
-      <c r="AM2" s="12">
+      <c r="AM2" s="15">
         <f t="shared" ref="AM2:AM7" si="0">AJ2-AI2</f>
         <v>29327.25</v>
       </c>
-      <c r="AN2" s="12">
+      <c r="AN2" s="15">
         <v>1004.75</v>
       </c>
-      <c r="AO2" s="12">
+      <c r="AO2" s="15">
         <v>758</v>
       </c>
-      <c r="AP2" s="12">
+      <c r="AP2" s="15">
         <v>10047530</v>
       </c>
-      <c r="AQ2" s="11">
+      <c r="AQ2" s="14">
         <v>376</v>
       </c>
-      <c r="AR2" s="12">
+      <c r="AR2" s="15">
         <v>40.79</v>
       </c>
-      <c r="AS2" s="12">
+      <c r="AS2" s="15">
         <v>1.4</v>
       </c>
-      <c r="AT2" s="12">
+      <c r="AT2" s="15">
         <v>1.05</v>
       </c>
-      <c r="AU2" s="12">
+      <c r="AU2" s="15">
         <v>13974.31</v>
       </c>
-      <c r="AV2" s="12">
+      <c r="AV2" s="15">
         <v>0.52</v>
       </c>
-      <c r="AW2" s="9">
+      <c r="AW2" s="12">
         <v>0.0006</v>
       </c>
-      <c r="AX2" s="9">
+      <c r="AX2" s="12">
         <v>0.0052</v>
       </c>
-      <c r="AY2" s="11">
+      <c r="AY2" s="14">
         <v>1.86</v>
       </c>
-      <c r="AZ2" s="12">
+      <c r="AZ2" s="15">
         <v>12.27</v>
       </c>
     </row>
     <row r="3" spans="8:52">
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>40544</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>41639</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="11">
         <v>13</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="11">
         <v>22</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="11">
         <v>10</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="11">
         <v>9</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="11">
         <v>4</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="11">
         <v>12</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3" s="11">
         <v>1</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Y3" s="11">
         <v>0.2</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="Z3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AA3" s="8">
+      <c r="AA3" s="11">
         <v>0</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AB3" s="12">
         <f>(AJ3-AI3)/AI3</f>
         <v>0.5454278</v>
       </c>
-      <c r="AC3" s="9">
+      <c r="AC3" s="12">
         <v>0.1831</v>
       </c>
-      <c r="AD3" s="10">
+      <c r="AD3" s="26">
         <v>40560</v>
       </c>
-      <c r="AE3" s="10">
+      <c r="AE3" s="26">
         <v>41638</v>
       </c>
-      <c r="AF3" s="11">
+      <c r="AF3" s="14">
         <v>715</v>
       </c>
-      <c r="AG3" s="11">
+      <c r="AG3" s="14">
         <v>323</v>
       </c>
-      <c r="AH3" s="11">
+      <c r="AH3" s="14">
         <v>384</v>
       </c>
-      <c r="AI3" s="12">
+      <c r="AI3" s="15">
         <v>50000</v>
       </c>
-      <c r="AJ3" s="12">
+      <c r="AJ3" s="15">
         <v>77271.39</v>
       </c>
-      <c r="AK3" s="12">
+      <c r="AK3" s="15">
         <v>-4646.44</v>
       </c>
-      <c r="AL3" s="9">
+      <c r="AL3" s="12">
         <v>-0.0745</v>
       </c>
-      <c r="AM3" s="12">
+      <c r="AM3" s="15">
         <f t="shared" si="0"/>
         <v>27271.39</v>
       </c>
-      <c r="AN3" s="12">
+      <c r="AN3" s="15">
         <v>2700.61</v>
       </c>
-      <c r="AO3" s="12">
+      <c r="AO3" s="15">
         <v>2398</v>
       </c>
-      <c r="AP3" s="12">
+      <c r="AP3" s="15">
         <v>27006140</v>
       </c>
-      <c r="AQ3" s="11">
+      <c r="AQ3" s="14">
         <v>1192</v>
       </c>
-      <c r="AR3" s="12">
+      <c r="AR3" s="15">
         <v>38.14</v>
       </c>
-      <c r="AS3" s="12">
+      <c r="AS3" s="15">
         <v>3.78</v>
       </c>
-      <c r="AT3" s="12">
+      <c r="AT3" s="15">
         <v>3.35</v>
       </c>
-      <c r="AU3" s="12">
+      <c r="AU3" s="15">
         <v>37770.83</v>
       </c>
-      <c r="AV3" s="12">
+      <c r="AV3" s="15">
         <v>1.67</v>
       </c>
-      <c r="AW3" s="9">
+      <c r="AW3" s="12">
         <v>0.0006</v>
       </c>
-      <c r="AX3" s="9">
+      <c r="AX3" s="12">
         <v>0.0045</v>
       </c>
-      <c r="AY3" s="11">
+      <c r="AY3" s="14">
         <v>2.12</v>
       </c>
-      <c r="AZ3" s="12">
+      <c r="AZ3" s="15">
         <v>7.32</v>
       </c>
     </row>
     <row r="4" spans="8:52">
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>40909</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>42004</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="11">
         <v>9</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="11">
         <v>14</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="11">
         <v>10</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="11">
         <v>15</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="11">
         <v>2</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="11">
         <v>18</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="V4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="W4" s="8">
+      <c r="W4" s="11">
         <v>1</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="X4" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Y4" s="8">
+      <c r="Y4" s="11">
         <v>0.2</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="Z4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AA4" s="8">
+      <c r="AA4" s="11">
         <v>0</v>
       </c>
-      <c r="AB4" s="9">
+      <c r="AB4" s="12">
         <f>(AJ4-AI4)/AI4</f>
         <v>0.4702732</v>
       </c>
-      <c r="AC4" s="9">
+      <c r="AC4" s="12">
         <v>0.1572</v>
       </c>
-      <c r="AD4" s="10">
+      <c r="AD4" s="26">
         <v>40925</v>
       </c>
-      <c r="AE4" s="10">
+      <c r="AE4" s="26">
         <v>42004</v>
       </c>
-      <c r="AF4" s="11">
+      <c r="AF4" s="14">
         <v>718</v>
       </c>
-      <c r="AG4" s="11">
+      <c r="AG4" s="14">
         <v>320</v>
       </c>
-      <c r="AH4" s="11">
+      <c r="AH4" s="14">
         <v>386</v>
       </c>
-      <c r="AI4" s="12">
+      <c r="AI4" s="15">
         <v>50000</v>
       </c>
-      <c r="AJ4" s="12">
+      <c r="AJ4" s="15">
         <v>73513.66</v>
       </c>
-      <c r="AK4" s="12">
+      <c r="AK4" s="15">
         <v>-2326.22</v>
       </c>
-      <c r="AL4" s="9">
+      <c r="AL4" s="12">
         <v>-0.0316</v>
       </c>
-      <c r="AM4" s="12">
+      <c r="AM4" s="15">
         <f t="shared" si="0"/>
         <v>23513.66</v>
       </c>
-      <c r="AN4" s="12">
+      <c r="AN4" s="15">
         <v>1844.35</v>
       </c>
-      <c r="AO4" s="12">
+      <c r="AO4" s="15">
         <v>2342</v>
       </c>
-      <c r="AP4" s="12">
+      <c r="AP4" s="15">
         <v>18443450</v>
       </c>
-      <c r="AQ4" s="11">
+      <c r="AQ4" s="14">
         <v>1167</v>
       </c>
-      <c r="AR4" s="12">
+      <c r="AR4" s="15">
         <v>32.75</v>
       </c>
-      <c r="AS4" s="12">
+      <c r="AS4" s="15">
         <v>2.57</v>
       </c>
-      <c r="AT4" s="12">
+      <c r="AT4" s="15">
         <v>3.26</v>
       </c>
-      <c r="AU4" s="12">
+      <c r="AU4" s="15">
         <v>25687.26</v>
       </c>
-      <c r="AV4" s="12">
+      <c r="AV4" s="15">
         <v>1.63</v>
       </c>
-      <c r="AW4" s="9">
+      <c r="AW4" s="12">
         <v>0.0005</v>
       </c>
-      <c r="AX4" s="9">
+      <c r="AX4" s="12">
         <v>0.0041</v>
       </c>
-      <c r="AY4" s="11">
+      <c r="AY4" s="14">
         <v>1.99</v>
       </c>
-      <c r="AZ4" s="12">
+      <c r="AZ4" s="15">
         <v>14.9</v>
       </c>
     </row>
     <row r="5" spans="8:52">
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>41275</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <v>42369</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="11">
         <v>17</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="11">
         <v>30</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="11">
         <v>10</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="11">
         <v>27</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="11">
         <v>18</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="T5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="11">
         <v>42</v>
       </c>
-      <c r="V5" s="8" t="s">
+      <c r="V5" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="11">
         <v>1</v>
       </c>
-      <c r="X5" s="8" t="s">
+      <c r="X5" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="11">
         <v>0.2</v>
       </c>
-      <c r="Z5" s="8" t="s">
+      <c r="Z5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AA5" s="11">
         <v>0</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AB5" s="12">
         <v>0.322</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AC5" s="12">
         <v>0.1013</v>
       </c>
-      <c r="AD5" s="10">
+      <c r="AD5" s="26">
         <v>41291</v>
       </c>
-      <c r="AE5" s="10">
+      <c r="AE5" s="26">
         <v>42369</v>
       </c>
-      <c r="AF5" s="11">
+      <c r="AF5" s="14">
         <v>763</v>
       </c>
-      <c r="AG5" s="11">
+      <c r="AG5" s="14">
         <v>276</v>
       </c>
-      <c r="AH5" s="11">
+      <c r="AH5" s="14">
         <v>269</v>
       </c>
-      <c r="AI5" s="12">
+      <c r="AI5" s="15">
         <v>50000</v>
       </c>
-      <c r="AJ5" s="12">
+      <c r="AJ5" s="15">
         <v>66098.05</v>
       </c>
-      <c r="AK5" s="12">
+      <c r="AK5" s="15">
         <v>-1957.84</v>
       </c>
-      <c r="AL5" s="9">
+      <c r="AL5" s="12">
         <v>-0.0358</v>
       </c>
-      <c r="AM5" s="12">
+      <c r="AM5" s="15">
         <f t="shared" si="0"/>
         <v>16098.05</v>
       </c>
-      <c r="AN5" s="12">
+      <c r="AN5" s="15">
         <v>191.95</v>
       </c>
-      <c r="AO5" s="12">
+      <c r="AO5" s="15">
         <v>680</v>
       </c>
-      <c r="AP5" s="12">
+      <c r="AP5" s="15">
         <v>1919510</v>
       </c>
-      <c r="AQ5" s="11">
+      <c r="AQ5" s="14">
         <v>339</v>
       </c>
-      <c r="AR5" s="12">
+      <c r="AR5" s="15">
         <v>21.1</v>
       </c>
-      <c r="AS5" s="12">
+      <c r="AS5" s="15">
         <v>0.25</v>
       </c>
-      <c r="AT5" s="12">
+      <c r="AT5" s="15">
         <v>0.89</v>
       </c>
-      <c r="AU5" s="12">
+      <c r="AU5" s="15">
         <v>2515.74</v>
       </c>
-      <c r="AV5" s="12">
+      <c r="AV5" s="15">
         <v>0.44</v>
       </c>
-      <c r="AW5" s="9">
+      <c r="AW5" s="12">
         <v>0.0004</v>
       </c>
-      <c r="AX5" s="9">
+      <c r="AX5" s="12">
         <v>0.0036</v>
       </c>
-      <c r="AY5" s="11">
+      <c r="AY5" s="14">
         <v>1.56</v>
       </c>
-      <c r="AZ5" s="12">
+      <c r="AZ5" s="15">
         <v>8.98</v>
       </c>
     </row>
     <row r="6" spans="8:52">
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>41640</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="6">
         <v>42735</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="11">
         <v>9</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="11">
         <v>26</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="11">
         <v>15</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="11">
         <v>9</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="11">
         <v>4</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="11">
         <v>30</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="V6" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="W6" s="8">
+      <c r="W6" s="11">
         <v>1</v>
       </c>
-      <c r="X6" s="8" t="s">
+      <c r="X6" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Y6" s="8">
+      <c r="Y6" s="11">
         <v>0.2</v>
       </c>
-      <c r="Z6" s="8" t="s">
+      <c r="Z6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AA6" s="8">
+      <c r="AA6" s="11">
         <v>0</v>
       </c>
-      <c r="AB6" s="9">
+      <c r="AB6" s="12">
         <v>0.6254</v>
       </c>
-      <c r="AC6" s="9">
+      <c r="AC6" s="12">
         <v>0.1919</v>
       </c>
-      <c r="AD6" s="10">
+      <c r="AD6" s="26">
         <v>41654</v>
       </c>
-      <c r="AE6" s="10">
+      <c r="AE6" s="26">
         <v>42734</v>
       </c>
-      <c r="AF6" s="11">
+      <c r="AF6" s="14">
         <v>782</v>
       </c>
-      <c r="AG6" s="11">
+      <c r="AG6" s="14">
         <v>345</v>
       </c>
-      <c r="AH6" s="11">
+      <c r="AH6" s="14">
         <v>384</v>
       </c>
-      <c r="AI6" s="12">
+      <c r="AI6" s="15">
         <v>50000</v>
       </c>
-      <c r="AJ6" s="12">
+      <c r="AJ6" s="15">
         <v>81270.19</v>
       </c>
-      <c r="AK6" s="12">
+      <c r="AK6" s="15">
         <v>-2321.78</v>
       </c>
-      <c r="AL6" s="9">
+      <c r="AL6" s="12">
         <v>-0.0352</v>
       </c>
-      <c r="AM6" s="12">
+      <c r="AM6" s="15">
         <f t="shared" si="0"/>
         <v>31270.19</v>
       </c>
-      <c r="AN6" s="12">
+      <c r="AN6" s="15">
         <v>317.81</v>
       </c>
-      <c r="AO6" s="12">
+      <c r="AO6" s="15">
         <v>3382</v>
       </c>
-      <c r="AP6" s="12">
+      <c r="AP6" s="15">
         <v>3178140</v>
       </c>
-      <c r="AQ6" s="11">
+      <c r="AQ6" s="14">
         <v>1686</v>
       </c>
-      <c r="AR6" s="12">
+      <c r="AR6" s="15">
         <v>39.99</v>
       </c>
-      <c r="AS6" s="12">
+      <c r="AS6" s="15">
         <v>0.41</v>
       </c>
-      <c r="AT6" s="12">
+      <c r="AT6" s="15">
         <v>4.32</v>
       </c>
-      <c r="AU6" s="12">
+      <c r="AU6" s="15">
         <v>4064.12</v>
       </c>
-      <c r="AV6" s="12">
+      <c r="AV6" s="15">
         <v>2.16</v>
       </c>
-      <c r="AW6" s="9">
+      <c r="AW6" s="12">
         <v>0.0006</v>
       </c>
-      <c r="AX6" s="9">
+      <c r="AX6" s="12">
         <v>0.0045</v>
       </c>
-      <c r="AY6" s="11">
+      <c r="AY6" s="14">
         <v>2.15</v>
       </c>
-      <c r="AZ6" s="12">
+      <c r="AZ6" s="15">
         <v>17.76</v>
       </c>
     </row>
     <row r="7" spans="8:52">
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>42005</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>43100</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="11">
         <v>13</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="11">
         <v>20</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="11">
         <v>15</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="11">
         <v>6</v>
       </c>
-      <c r="R7" s="8" t="s">
+      <c r="R7" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="11">
         <v>12</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="T7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="11">
         <v>27</v>
       </c>
-      <c r="V7" s="8" t="s">
+      <c r="V7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="W7" s="8">
+      <c r="W7" s="11">
         <v>1</v>
       </c>
-      <c r="X7" s="8" t="s">
+      <c r="X7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Y7" s="8">
+      <c r="Y7" s="11">
         <v>0.2</v>
       </c>
-      <c r="Z7" s="8" t="s">
+      <c r="Z7" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AA7" s="8">
+      <c r="AA7" s="11">
         <v>0</v>
       </c>
-      <c r="AB7" s="9">
+      <c r="AB7" s="12">
         <v>0.7734</v>
       </c>
-      <c r="AC7" s="9">
+      <c r="AC7" s="12">
         <v>0.238</v>
       </c>
-      <c r="AD7" s="10">
+      <c r="AD7" s="26">
         <v>42019</v>
       </c>
-      <c r="AE7" s="10">
+      <c r="AE7" s="26">
         <v>43098</v>
       </c>
-      <c r="AF7" s="11">
+      <c r="AF7" s="14">
         <v>780</v>
       </c>
-      <c r="AG7" s="11">
+      <c r="AG7" s="14">
         <v>360</v>
       </c>
-      <c r="AH7" s="11">
+      <c r="AH7" s="14">
         <v>380</v>
       </c>
-      <c r="AI7" s="12">
+      <c r="AI7" s="15">
         <v>50000</v>
       </c>
-      <c r="AJ7" s="12">
+      <c r="AJ7" s="15">
         <v>88670.32</v>
       </c>
-      <c r="AK7" s="12">
+      <c r="AK7" s="15">
         <v>-5166.64</v>
       </c>
-      <c r="AL7" s="9">
+      <c r="AL7" s="12">
         <v>-0.0575</v>
       </c>
-      <c r="AM7" s="12">
+      <c r="AM7" s="15">
         <f t="shared" si="0"/>
         <v>38670.32</v>
       </c>
-      <c r="AN7" s="12">
+      <c r="AN7" s="15">
         <v>893.68</v>
       </c>
-      <c r="AO7" s="12">
+      <c r="AO7" s="15">
         <v>3956</v>
       </c>
-      <c r="AP7" s="12">
+      <c r="AP7" s="15">
         <v>8936840</v>
       </c>
-      <c r="AQ7" s="11">
+      <c r="AQ7" s="14">
         <v>1969</v>
       </c>
-      <c r="AR7" s="12">
+      <c r="AR7" s="15">
         <v>49.58</v>
       </c>
-      <c r="AS7" s="12">
+      <c r="AS7" s="15">
         <v>1.15</v>
       </c>
-      <c r="AT7" s="12">
+      <c r="AT7" s="15">
         <v>5.07</v>
       </c>
-      <c r="AU7" s="12">
+      <c r="AU7" s="15">
         <v>11457.49</v>
       </c>
-      <c r="AV7" s="12">
+      <c r="AV7" s="15">
         <v>2.52</v>
       </c>
-      <c r="AW7" s="9">
+      <c r="AW7" s="12">
         <v>0.0007</v>
       </c>
-      <c r="AX7" s="9">
+      <c r="AX7" s="12">
         <v>0.0056</v>
       </c>
-      <c r="AY7" s="11">
+      <c r="AY7" s="14">
         <v>2.02</v>
       </c>
-      <c r="AZ7" s="12">
+      <c r="AZ7" s="15">
         <v>13.44</v>
       </c>
     </row>
     <row r="8" spans="8:29">
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>42370</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <v>43465</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="11">
         <v>14</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="11">
         <v>18</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="11">
         <v>15</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="11">
         <v>6</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="11">
         <v>6</v>
       </c>
-      <c r="T8" s="8" t="s">
+      <c r="T8" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="11">
         <v>42</v>
       </c>
-      <c r="V8" s="8" t="s">
+      <c r="V8" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="11">
         <v>1</v>
       </c>
-      <c r="X8" s="8" t="s">
+      <c r="X8" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Y8" s="11">
         <v>0.2</v>
       </c>
-      <c r="Z8" s="8" t="s">
+      <c r="Z8" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AA8" s="8">
+      <c r="AA8" s="11">
         <v>0</v>
       </c>
-      <c r="AB8" s="9">
+      <c r="AB8" s="12">
         <v>0.9564</v>
       </c>
-      <c r="AC8" s="9">
+      <c r="AC8" s="12">
         <v>0.3123</v>
       </c>
     </row>
     <row r="9" spans="8:29">
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>42736</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <v>43830</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="11">
         <v>13</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="11">
         <v>16</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="11">
         <v>20</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="11">
         <v>6</v>
       </c>
-      <c r="R9" s="8" t="s">
+      <c r="R9" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="11">
         <v>8</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="T9" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="11">
         <v>36</v>
       </c>
-      <c r="V9" s="8" t="s">
+      <c r="V9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="W9" s="8">
+      <c r="W9" s="11">
         <v>1</v>
       </c>
-      <c r="X9" s="8" t="s">
+      <c r="X9" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Y9" s="8">
+      <c r="Y9" s="11">
         <v>0.2</v>
       </c>
-      <c r="Z9" s="8" t="s">
+      <c r="Z9" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AA9" s="8">
+      <c r="AA9" s="11">
         <v>0</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AB9" s="12">
         <v>0.6397</v>
       </c>
-      <c r="AC9" s="9">
+      <c r="AC9" s="12">
         <v>0.2129</v>
       </c>
     </row>
     <row r="10" spans="8:29">
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <v>43101</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="6">
         <v>44196</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="11">
         <v>13</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="11">
         <v>24</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="11">
         <v>20</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="11">
         <v>6</v>
       </c>
-      <c r="R10" s="8" t="s">
+      <c r="R10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="11">
         <v>8</v>
       </c>
-      <c r="T10" s="8" t="s">
+      <c r="T10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="11">
         <v>30</v>
       </c>
-      <c r="V10" s="8" t="s">
+      <c r="V10" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="W10" s="8">
+      <c r="W10" s="11">
         <v>1</v>
       </c>
-      <c r="X10" s="8" t="s">
+      <c r="X10" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Y10" s="8">
+      <c r="Y10" s="11">
         <v>0.2</v>
       </c>
-      <c r="Z10" s="8" t="s">
+      <c r="Z10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AA10" s="8">
+      <c r="AA10" s="11">
         <v>0</v>
       </c>
-      <c r="AB10" s="9">
+      <c r="AB10" s="12">
         <v>0.4474</v>
       </c>
-      <c r="AC10" s="9">
+      <c r="AC10" s="12">
         <v>0.1491</v>
       </c>
     </row>
@@ -2884,17 +2900,17 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.46666666666667" style="13" customWidth="1"/>
+    <col min="1" max="1" width="5.46666666666667" style="16" customWidth="1"/>
     <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="12.4416666666667" customWidth="1"/>
     <col min="4" max="4" width="11.975" customWidth="1"/>
@@ -2904,230 +2920,230 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="16">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="19">
         <v>3</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="19">
         <v>1</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="19">
         <v>17</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="19">
         <f t="shared" ref="F3:F8" si="0">((E3-C3)/D3)+1</f>
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="18">
+      <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="21">
         <v>14</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="21">
         <v>1</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="21">
         <v>30</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="21">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="16">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="19">
         <v>10</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="19">
         <v>2</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="19">
         <v>36</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="19">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="18">
+      <c r="A6" s="21">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="21">
         <v>3</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="21">
         <v>2</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="21">
         <v>33</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="16">
+      <c r="A7" s="19">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="19">
         <v>2</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="19">
         <v>2</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="19">
         <v>30</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="19">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="18">
+      <c r="A8" s="21">
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="21">
         <v>6</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="21">
         <v>2</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="21">
         <v>42</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="16">
+      <c r="A9" s="19">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="18">
+      <c r="A10" s="21">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="16">
+      <c r="A11" s="19">
         <v>9</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="20">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="23">
         <f>PRODUCT(F3:F8)</f>
         <v>16279200</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="21">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="24">
         <f>(F12*1.9)/3600</f>
         <v>8591.8</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:6">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="22">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="25">
         <f>F13/24</f>
         <v>357.991666666667</v>
       </c>
@@ -3148,8 +3164,8 @@
   <sheetPr/>
   <dimension ref="A1:AZ10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -3357,449 +3373,748 @@
         <v>50000</v>
       </c>
       <c r="H2" s="5">
-        <v>40179</v>
+        <v>43831</v>
       </c>
       <c r="I2" s="5">
+        <v>44196</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="8">
+        <v>13</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="8">
+        <v>23</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="8">
+        <v>20</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>7</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S2" s="8">
+        <v>6</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="U2" s="8">
+        <v>38</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="W2" s="8">
+        <v>1</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="12">
+        <v>0.1899</v>
+      </c>
+      <c r="AC2" s="12">
+        <v>0.1956</v>
+      </c>
+      <c r="AD2" s="13">
+        <v>43845</v>
+      </c>
+      <c r="AE2" s="13">
+        <v>44195</v>
+      </c>
+      <c r="AF2" s="14">
+        <v>233</v>
+      </c>
+      <c r="AG2" s="14">
+        <v>86</v>
+      </c>
+      <c r="AH2" s="14">
+        <v>118</v>
+      </c>
+      <c r="AI2" s="15">
+        <v>50000</v>
+      </c>
+      <c r="AJ2" s="15">
+        <v>59494.67</v>
+      </c>
+      <c r="AK2" s="15">
+        <v>-2023.93</v>
+      </c>
+      <c r="AL2" s="12">
+        <v>-0.0352</v>
+      </c>
+      <c r="AM2" s="15">
+        <f>AJ2-AI2</f>
+        <v>9494.67</v>
+      </c>
+      <c r="AN2" s="15">
+        <v>1173.33</v>
+      </c>
+      <c r="AO2" s="15">
+        <v>672</v>
+      </c>
+      <c r="AP2" s="15">
+        <v>11733280</v>
+      </c>
+      <c r="AQ2" s="14">
+        <v>336</v>
+      </c>
+      <c r="AR2" s="15">
+        <v>40.75</v>
+      </c>
+      <c r="AS2" s="15">
+        <v>5.04</v>
+      </c>
+      <c r="AT2" s="15">
+        <v>2.88</v>
+      </c>
+      <c r="AU2" s="15">
+        <v>50357.42</v>
+      </c>
+      <c r="AV2" s="15">
+        <v>1.44</v>
+      </c>
+      <c r="AW2" s="12">
+        <v>0.0008</v>
+      </c>
+      <c r="AX2" s="12">
+        <v>0.0066</v>
+      </c>
+      <c r="AY2" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="AZ2" s="15">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5">
+        <v>43647</v>
+      </c>
+      <c r="I3" s="5">
         <v>44012</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J3" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K3" s="10">
+        <v>10</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="10">
+        <v>19</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="10">
+        <v>18</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>15</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S3" s="10">
+        <v>10</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="U3" s="10">
+        <v>12</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" s="10">
+        <v>1</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>0.2044</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>0.2105</v>
+      </c>
+      <c r="AD3" s="13">
+        <v>43658</v>
+      </c>
+      <c r="AE3" s="13">
+        <v>44011</v>
+      </c>
+      <c r="AF3" s="14">
+        <v>233</v>
+      </c>
+      <c r="AG3" s="14">
+        <v>83</v>
+      </c>
+      <c r="AH3" s="14">
+        <v>78</v>
+      </c>
+      <c r="AI3" s="15">
+        <v>50000</v>
+      </c>
+      <c r="AJ3" s="15">
+        <v>60217.68</v>
+      </c>
+      <c r="AK3" s="15">
+        <v>-1787.42</v>
+      </c>
+      <c r="AL3" s="12">
+        <v>-0.0316</v>
+      </c>
+      <c r="AM3" s="15">
+        <f>AJ3-AI3</f>
+        <v>10217.68</v>
+      </c>
+      <c r="AN3" s="15">
+        <v>658.32</v>
+      </c>
+      <c r="AO3" s="15">
+        <v>424</v>
+      </c>
+      <c r="AP3" s="15">
+        <v>6583220</v>
+      </c>
+      <c r="AQ3" s="14">
+        <v>209</v>
+      </c>
+      <c r="AR3" s="15">
+        <v>43.85</v>
+      </c>
+      <c r="AS3" s="15">
+        <v>2.83</v>
+      </c>
+      <c r="AT3" s="15">
+        <v>1.82</v>
+      </c>
+      <c r="AU3" s="15">
+        <v>28254.16</v>
+      </c>
+      <c r="AV3" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="AW3" s="12">
+        <v>0.0008</v>
+      </c>
+      <c r="AX3" s="12">
+        <v>0.0055</v>
+      </c>
+      <c r="AY3" s="14">
+        <v>2.17</v>
+      </c>
+      <c r="AZ3" s="15">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5">
+        <v>43466</v>
+      </c>
+      <c r="I4" s="5">
+        <v>43830</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="10">
+        <v>13</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="10">
+        <v>28</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="10">
+        <v>18</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>7</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S4" s="10">
         <v>14</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="6">
-        <v>23</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" s="6">
-        <v>12</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>7</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="S2" s="6">
-        <v>6</v>
-      </c>
-      <c r="T2" s="6" t="s">
+      <c r="T4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="U2" s="6">
-        <v>32</v>
-      </c>
-      <c r="V2" s="6" t="s">
+      <c r="U4" s="10">
+        <v>22</v>
+      </c>
+      <c r="V4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W4" s="10">
         <v>1</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Y4" s="10">
         <v>0.2</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="AA4" s="10">
         <v>0</v>
       </c>
-      <c r="AB2" s="9">
-        <v>1.1619</v>
-      </c>
-      <c r="AC2" s="9">
-        <v>0.1536</v>
-      </c>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="12"/>
-    </row>
-    <row r="3" spans="8:52">
-      <c r="H3" s="5">
-        <v>43831</v>
-      </c>
-      <c r="I3" s="5">
-        <v>44196</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="6">
-        <v>17</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" s="6">
-        <v>29</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3" s="6">
-        <v>10</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>9</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="S3" s="6">
-        <v>7</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="U3" s="6">
-        <v>14</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="W3" s="6">
-        <v>1</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="9">
-        <v>0.1477</v>
-      </c>
-      <c r="AC3" s="9">
-        <v>0.3056</v>
-      </c>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
-      <c r="AV3" s="12"/>
-      <c r="AW3" s="9"/>
-      <c r="AX3" s="9"/>
-      <c r="AY3" s="11"/>
-      <c r="AZ3" s="12"/>
-    </row>
-    <row r="4" spans="8:52">
-      <c r="H4" s="5">
-        <v>43647</v>
-      </c>
-      <c r="I4" s="5">
-        <v>44012</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="9"/>
-      <c r="AX4" s="9"/>
-      <c r="AY4" s="11"/>
-      <c r="AZ4" s="12"/>
-    </row>
-    <row r="5" spans="8:52">
+      <c r="AB4" s="12">
+        <v>0.2082</v>
+      </c>
+      <c r="AC4" s="12">
+        <v>0.2136</v>
+      </c>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="15"/>
+    </row>
+    <row r="5" spans="1:52">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="11"/>
-      <c r="AR5" s="12"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="9"/>
-      <c r="AX5" s="9"/>
-      <c r="AY5" s="11"/>
-      <c r="AZ5" s="12"/>
-    </row>
-    <row r="6" spans="8:52">
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="11"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="11"/>
-      <c r="AZ6" s="12"/>
-    </row>
-    <row r="7" spans="8:52">
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="11"/>
-      <c r="AR7" s="12"/>
-      <c r="AS7" s="12"/>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
-      <c r="AV7" s="12"/>
-      <c r="AW7" s="9"/>
-      <c r="AX7" s="9"/>
-      <c r="AY7" s="11"/>
-      <c r="AZ7" s="12"/>
-    </row>
-    <row r="8" spans="8:29">
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-    </row>
-    <row r="9" spans="8:29">
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-    </row>
-    <row r="10" spans="8:29">
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
+      <c r="J5" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="10">
+        <v>11</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="10">
+        <v>18</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="10">
+        <v>10</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>11</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S5" s="10">
+        <v>14</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="U5" s="10">
+        <v>28</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5" s="10">
+        <v>1</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="12">
+        <v>0.235</v>
+      </c>
+      <c r="AC5" s="12">
+        <v>0.2411</v>
+      </c>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="14"/>
+      <c r="AZ5" s="15"/>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="14"/>
+      <c r="AZ6" s="15"/>
+    </row>
+    <row r="7" spans="1:52">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="12"/>
+      <c r="AY7" s="14"/>
+      <c r="AZ7" s="15"/>
+    </row>
+    <row r="8" spans="1:52">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="15"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="15"/>
+      <c r="AS8" s="15"/>
+      <c r="AT8" s="15"/>
+      <c r="AU8" s="15"/>
+      <c r="AV8" s="15"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+      <c r="AY8" s="14"/>
+      <c r="AZ8" s="15"/>
+    </row>
+    <row r="9" spans="1:52">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="15"/>
+      <c r="AO9" s="15"/>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="15"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="12"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="15"/>
+    </row>
+    <row r="10" spans="1:52">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="12"/>
+      <c r="AY10" s="14"/>
+      <c r="AZ10" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AZ10">

--- a/1-策略开发/1-开发中的策略/1-bar回测/7-multi_timeframe/multi_timeframe参数优化记录.xlsx
+++ b/1-策略开发/1-开发中的策略/1-bar回测/7-multi_timeframe/multi_timeframe参数优化记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="425" firstSheet="1" activeTab="3"/>
+    <workbookView windowHeight="16040" tabRatio="425" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1-参数优化区间设置" sheetId="3" r:id="rId1"/>
@@ -14,14 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1-3年期滚动回测结果'!$A$1:$AZ$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2-3年期滚动回测结果'!$A$1:$AZ$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2-3年期滚动回测结果'!$A$1:$AZ$9</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>multi_timeframe参数优化区间设置</t>
   </si>
@@ -244,17 +244,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="#,##0.000000_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00&quot;天&quot;"/>
+    <numFmt numFmtId="177" formatCode="#,##0&quot;组&quot;"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.000000_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0.00&quot;小时&quot;"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="180" formatCode="#,##0&quot;组&quot;"/>
-    <numFmt numFmtId="181" formatCode="#,##0.00&quot;小时&quot;"/>
-    <numFmt numFmtId="182" formatCode="#,##0.00&quot;天&quot;"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -289,6 +289,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -296,21 +303,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,25 +349,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,7 +372,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,14 +402,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -387,38 +418,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,7 +452,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,49 +578,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,7 +602,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,109 +626,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,11 +723,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,21 +741,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,9 +762,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,171 +818,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -975,48 +975,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1038,13 +1038,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1056,60 +1056,60 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1128,7 +1128,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1376,7 +1376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -1388,7 +1388,7 @@
       <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="5.46666666666667" style="16" customWidth="1"/>
     <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
@@ -1617,7 +1617,7 @@
         <v>489.06</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:6">
+    <row r="14" ht="13.95" spans="1:6">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -1640,7 +1640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:AZ10"/>
   <sheetViews>
@@ -1648,7 +1648,7 @@
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="3" max="7" width="13.75" customWidth="1"/>
@@ -1861,55 +1861,55 @@
       <c r="J2" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="9">
         <v>17</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="9">
         <v>14</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="9">
         <v>10</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="9">
         <v>24</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="11">
+      <c r="S2" s="9">
         <v>12</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="9">
         <v>42</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="W2" s="11">
+      <c r="W2" s="9">
         <v>1</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="Y2" s="9">
         <v>0.2</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="Z2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="11">
+      <c r="AA2" s="9">
         <v>0</v>
       </c>
       <c r="AB2" s="12">
@@ -2000,55 +2000,55 @@
       <c r="J3" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="9">
         <v>13</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="9">
         <v>22</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="9">
         <v>10</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="9">
         <v>9</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="9">
         <v>4</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="9">
         <v>12</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="9">
         <v>1</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="X3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="9">
         <v>0.2</v>
       </c>
-      <c r="Z3" s="11" t="s">
+      <c r="Z3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AA3" s="11">
+      <c r="AA3" s="9">
         <v>0</v>
       </c>
       <c r="AB3" s="12">
@@ -2139,55 +2139,55 @@
       <c r="J4" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="9">
         <v>9</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="9">
         <v>14</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="9">
         <v>10</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="9">
         <v>15</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="9">
         <v>2</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="9">
         <v>18</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="V4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="W4" s="11">
+      <c r="W4" s="9">
         <v>1</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="X4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="9">
         <v>0.2</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="Z4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AA4" s="11">
+      <c r="AA4" s="9">
         <v>0</v>
       </c>
       <c r="AB4" s="12">
@@ -2278,55 +2278,55 @@
       <c r="J5" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <v>17</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="9">
         <v>30</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="9">
         <v>10</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="9">
         <v>27</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="9">
         <v>18</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="T5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="9">
         <v>42</v>
       </c>
-      <c r="V5" s="11" t="s">
+      <c r="V5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="9">
         <v>1</v>
       </c>
-      <c r="X5" s="11" t="s">
+      <c r="X5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="9">
         <v>0.2</v>
       </c>
-      <c r="Z5" s="11" t="s">
+      <c r="Z5" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="11">
+      <c r="AA5" s="9">
         <v>0</v>
       </c>
       <c r="AB5" s="12">
@@ -2416,55 +2416,55 @@
       <c r="J6" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="9">
         <v>9</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="9">
         <v>26</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="9">
         <v>15</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="9">
         <v>9</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="R6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="9">
         <v>4</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="T6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="9">
         <v>30</v>
       </c>
-      <c r="V6" s="11" t="s">
+      <c r="V6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="W6" s="11">
+      <c r="W6" s="9">
         <v>1</v>
       </c>
-      <c r="X6" s="11" t="s">
+      <c r="X6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Y6" s="9">
         <v>0.2</v>
       </c>
-      <c r="Z6" s="11" t="s">
+      <c r="Z6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AA6" s="11">
+      <c r="AA6" s="9">
         <v>0</v>
       </c>
       <c r="AB6" s="12">
@@ -2554,55 +2554,55 @@
       <c r="J7" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="9">
         <v>13</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="9">
         <v>20</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="9">
         <v>15</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="9">
         <v>6</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="9">
         <v>12</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="T7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="11">
+      <c r="U7" s="9">
         <v>27</v>
       </c>
-      <c r="V7" s="11" t="s">
+      <c r="V7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="W7" s="11">
+      <c r="W7" s="9">
         <v>1</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="X7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="9">
         <v>0.2</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="Z7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AA7" s="11">
+      <c r="AA7" s="9">
         <v>0</v>
       </c>
       <c r="AB7" s="12">
@@ -2692,55 +2692,55 @@
       <c r="J8" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="9">
         <v>14</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="9">
         <v>18</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="9">
         <v>15</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="9">
         <v>6</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="9">
         <v>6</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="T8" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U8" s="11">
+      <c r="U8" s="9">
         <v>42</v>
       </c>
-      <c r="V8" s="11" t="s">
+      <c r="V8" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="W8" s="11">
+      <c r="W8" s="9">
         <v>1</v>
       </c>
-      <c r="X8" s="11" t="s">
+      <c r="X8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Y8" s="9">
         <v>0.2</v>
       </c>
-      <c r="Z8" s="11" t="s">
+      <c r="Z8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AA8" s="11">
+      <c r="AA8" s="9">
         <v>0</v>
       </c>
       <c r="AB8" s="12">
@@ -2757,58 +2757,58 @@
       <c r="I9" s="6">
         <v>43830</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <v>13</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="9">
         <v>16</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="9">
         <v>20</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="9">
         <v>6</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="9">
         <v>8</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U9" s="11">
+      <c r="U9" s="9">
         <v>36</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="V9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="W9" s="11">
+      <c r="W9" s="9">
         <v>1</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="X9" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="Y9" s="9">
         <v>0.2</v>
       </c>
-      <c r="Z9" s="11" t="s">
+      <c r="Z9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AA9" s="11">
+      <c r="AA9" s="9">
         <v>0</v>
       </c>
       <c r="AB9" s="12">
@@ -2825,58 +2825,58 @@
       <c r="I10" s="6">
         <v>44196</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="9">
         <v>13</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="9">
         <v>24</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="9">
         <v>20</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="9">
         <v>6</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S10" s="9">
         <v>8</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="T10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U10" s="11">
+      <c r="U10" s="9">
         <v>30</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="V10" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="W10" s="11">
+      <c r="W10" s="9">
         <v>1</v>
       </c>
-      <c r="X10" s="11" t="s">
+      <c r="X10" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Y10" s="9">
         <v>0.2</v>
       </c>
-      <c r="Z10" s="11" t="s">
+      <c r="Z10" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AA10" s="11">
+      <c r="AA10" s="9">
         <v>0</v>
       </c>
       <c r="AB10" s="12">
@@ -2887,16 +2887,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AZ10">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:AZ10"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -2908,7 +2906,7 @@
       <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="5.46666666666667" style="16" customWidth="1"/>
     <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
@@ -3137,7 +3135,7 @@
         <v>8591.8</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:6">
+    <row r="14" ht="13.95" spans="1:6">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -3160,20 +3158,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AZ10"/>
+  <dimension ref="A1:AZ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="3" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="9.875"/>
-    <col min="9" max="9" width="11"/>
+    <col min="8" max="8" width="11.1333333333333"/>
+    <col min="9" max="9" width="12.2"/>
     <col min="10" max="10" width="12.875" customWidth="1"/>
     <col min="11" max="11" width="3.375" customWidth="1"/>
     <col min="12" max="12" width="13.875" customWidth="1"/>
@@ -3196,11 +3194,13 @@
     <col min="30" max="31" width="11.5" customWidth="1"/>
     <col min="32" max="32" width="9.375" customWidth="1"/>
     <col min="33" max="34" width="11.5" customWidth="1"/>
-    <col min="35" max="35" width="9.875" customWidth="1"/>
-    <col min="36" max="37" width="9.875"/>
+    <col min="35" max="35" width="11.6" customWidth="1"/>
+    <col min="36" max="36" width="11.6"/>
+    <col min="37" max="37" width="12.0666666666667"/>
     <col min="38" max="38" width="16" customWidth="1"/>
-    <col min="39" max="39" width="9.875"/>
-    <col min="42" max="42" width="13.75"/>
+    <col min="39" max="39" width="11.6"/>
+    <col min="40" max="40" width="10.5333333333333"/>
+    <col min="42" max="42" width="16.0666666666667"/>
     <col min="43" max="43" width="11.5" customWidth="1"/>
     <col min="45" max="45" width="11.5" customWidth="1"/>
     <col min="47" max="47" width="11.5" customWidth="1"/>
@@ -3381,62 +3381,62 @@
       <c r="J2" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="8">
-        <v>13</v>
-      </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="9">
+        <v>9</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="8">
-        <v>23</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="M2" s="9">
+        <v>20</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="8">
-        <v>20</v>
-      </c>
-      <c r="P2" s="8" t="s">
+      <c r="O2" s="9">
+        <v>12</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="9">
         <v>7</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="9">
         <v>6</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U2" s="8">
-        <v>38</v>
-      </c>
-      <c r="V2" s="8" t="s">
+      <c r="U2" s="9">
+        <v>40</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="9">
         <v>1</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="9">
         <v>0.2</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="8">
+      <c r="AA2" s="9">
         <v>0</v>
       </c>
       <c r="AB2" s="12">
-        <v>0.1899</v>
+        <v>0.1912</v>
       </c>
       <c r="AC2" s="12">
-        <v>0.1956</v>
+        <v>0.197</v>
       </c>
       <c r="AD2" s="13">
         <v>43845</v>
@@ -3523,58 +3523,58 @@
       <c r="I3" s="5">
         <v>44012</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>10</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="9">
         <v>19</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="9">
         <v>18</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="9">
         <v>15</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="9">
         <v>10</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U3" s="9">
         <v>12</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="W3" s="10">
+      <c r="W3" s="9">
         <v>1</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="X3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="Y3" s="9">
         <v>0.2</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="Z3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AA3" s="9">
         <v>0</v>
       </c>
       <c r="AB3" s="12">
@@ -3668,65 +3668,65 @@
       <c r="I4" s="5">
         <v>43830</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="10">
-        <v>13</v>
-      </c>
-      <c r="L4" s="10" t="s">
+      <c r="K4" s="9">
+        <v>11</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="9">
+        <v>18</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="9">
+        <v>10</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>11</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="S4" s="9">
+        <v>14</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="U4" s="9">
         <v>28</v>
       </c>
-      <c r="N4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="10">
-        <v>18</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>7</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="S4" s="10">
-        <v>14</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="U4" s="10">
-        <v>22</v>
-      </c>
-      <c r="V4" s="10" t="s">
+      <c r="V4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="W4" s="10">
+      <c r="W4" s="9">
         <v>1</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="X4" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="Y4" s="9">
         <v>0.2</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="Z4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AA4" s="9">
         <v>0</v>
       </c>
       <c r="AB4" s="12">
-        <v>0.2082</v>
+        <v>0.235</v>
       </c>
       <c r="AC4" s="12">
-        <v>0.2136</v>
+        <v>0.2411</v>
       </c>
       <c r="AD4" s="13"/>
       <c r="AE4" s="13"/>
@@ -3760,67 +3760,71 @@
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="29" t="s">
+      <c r="H5" s="5">
+        <v>43282</v>
+      </c>
+      <c r="I5" s="5">
+        <v>43646</v>
+      </c>
+      <c r="J5" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="10">
-        <v>11</v>
-      </c>
-      <c r="L5" s="10" t="s">
+      <c r="K5" s="9">
+        <v>14</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="10">
-        <v>18</v>
-      </c>
-      <c r="N5" s="10" t="s">
+      <c r="M5" s="9">
+        <v>20</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="10">
-        <v>10</v>
-      </c>
-      <c r="P5" s="10" t="s">
+      <c r="O5" s="9">
+        <v>14</v>
+      </c>
+      <c r="P5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Q5" s="10">
-        <v>11</v>
-      </c>
-      <c r="R5" s="10" t="s">
+      <c r="Q5" s="9">
+        <v>7</v>
+      </c>
+      <c r="R5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S5" s="10">
-        <v>14</v>
-      </c>
-      <c r="T5" s="10" t="s">
+      <c r="S5" s="9">
+        <v>24</v>
+      </c>
+      <c r="T5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U5" s="10">
-        <v>28</v>
-      </c>
-      <c r="V5" s="10" t="s">
+      <c r="U5" s="9">
+        <v>42</v>
+      </c>
+      <c r="V5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="W5" s="10">
+      <c r="W5" s="9">
         <v>1</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="X5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Y5" s="9">
         <v>0.2</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="Z5" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AA5" s="9">
         <v>0</v>
       </c>
       <c r="AB5" s="12">
-        <v>0.235</v>
+        <v>0.2365</v>
       </c>
       <c r="AC5" s="12">
-        <v>0.2411</v>
+        <v>0.2436</v>
       </c>
       <c r="AD5" s="13"/>
       <c r="AE5" s="13"/>
@@ -3856,24 +3860,24 @@
       <c r="G6" s="4"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
       <c r="AD6" s="13"/>
@@ -3908,28 +3912,72 @@
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
+      <c r="H7" s="7">
+        <v>43945</v>
+      </c>
+      <c r="I7" s="7">
+        <v>44309</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="11">
+        <v>8</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="11">
+        <v>18</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="11">
+        <v>18</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>11</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" s="11">
+        <v>8</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="U7" s="11">
+        <v>20</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="W7" s="11">
+        <v>1</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="12">
+        <v>0.1806</v>
+      </c>
+      <c r="AC7" s="12">
+        <v>0.186</v>
+      </c>
       <c r="AD7" s="13"/>
       <c r="AE7" s="13"/>
       <c r="AF7" s="14"/>
@@ -3964,24 +4012,24 @@
       <c r="G8" s="4"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
       <c r="AD8" s="13"/>
@@ -4018,24 +4066,24 @@
       <c r="G9" s="4"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
       <c r="AD9" s="13"/>
@@ -4062,64 +4110,8 @@
       <c r="AY9" s="14"/>
       <c r="AZ9" s="15"/>
     </row>
-    <row r="10" spans="1:52">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="15"/>
-      <c r="AN10" s="15"/>
-      <c r="AO10" s="15"/>
-      <c r="AP10" s="15"/>
-      <c r="AQ10" s="14"/>
-      <c r="AR10" s="15"/>
-      <c r="AS10" s="15"/>
-      <c r="AT10" s="15"/>
-      <c r="AU10" s="15"/>
-      <c r="AV10" s="15"/>
-      <c r="AW10" s="12"/>
-      <c r="AX10" s="12"/>
-      <c r="AY10" s="14"/>
-      <c r="AZ10" s="15"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AZ10">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:AZ9"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/1-策略开发/1-开发中的策略/1-bar回测/7-multi_timeframe/multi_timeframe参数优化记录.xlsx
+++ b/1-策略开发/1-开发中的策略/1-bar回测/7-multi_timeframe/multi_timeframe参数优化记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16040" tabRatio="425" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="16380" windowHeight="7155" tabRatio="425" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1-参数优化区间设置" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="72">
   <si>
     <t>multi_timeframe参数优化区间设置</t>
   </si>
@@ -244,17 +244,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="#,##0.00&quot;天&quot;"/>
-    <numFmt numFmtId="177" formatCode="#,##0&quot;组&quot;"/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="180" formatCode="#,##0.000000_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0.00&quot;小时&quot;"/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.000000_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="#,##0_ "/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00&quot;小时&quot;"/>
+    <numFmt numFmtId="181" formatCode="#,##0&quot;组&quot;"/>
+    <numFmt numFmtId="182" formatCode="#,##0.00&quot;天&quot;"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -287,16 +287,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,11 +331,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -325,16 +361,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,75 +418,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,13 +452,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,19 +578,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,145 +626,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,11 +721,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,6 +777,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -759,232 +818,173 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -999,22 +999,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1038,13 +1032,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="181" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1055,61 +1049,58 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1376,7 +1367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -1388,9 +1379,9 @@
       <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.46666666666667" style="16" customWidth="1"/>
+    <col min="1" max="1" width="5.46666666666667" style="14" customWidth="1"/>
     <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="12.4416666666667" customWidth="1"/>
     <col min="4" max="4" width="11.975" customWidth="1"/>
@@ -1400,230 +1391,230 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="19">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <v>3</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="17">
         <v>2</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <v>17</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="17">
         <f t="shared" ref="F3:F8" si="0">((E3-C3)/D3)+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="21">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="19">
         <v>14</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="19">
         <v>2</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="19">
         <v>30</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="19">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="19">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <v>10</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="17">
         <v>5</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="17">
         <v>35</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21">
+      <c r="A6" s="19">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <v>3</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="19">
         <v>3</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <v>33</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="19">
+      <c r="A7" s="17">
         <v>5</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="17">
         <v>2</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="17">
         <v>2</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <v>30</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="21">
+      <c r="A8" s="19">
         <v>6</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="19">
         <v>6</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="19">
         <v>3</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <v>42</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="21">
+      <c r="A10" s="19">
         <v>8</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>9</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="23">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="21">
         <f>PRODUCT(F3:F8)</f>
         <v>926640</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="24">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="22">
         <f>(F12*1.9)/3600</f>
         <v>489.06</v>
       </c>
     </row>
-    <row r="14" ht="13.95" spans="1:6">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="25">
+    <row r="14" ht="16.5" spans="1:6">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="23">
         <f>F13/24</f>
         <v>20.3775</v>
       </c>
@@ -1640,7 +1631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AZ10"/>
   <sheetViews>
@@ -1648,7 +1639,7 @@
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="3" max="7" width="13.75" customWidth="1"/>
@@ -1858,7 +1849,7 @@
       <c r="I2" s="6">
         <v>41274</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="25" t="s">
         <v>63</v>
       </c>
       <c r="K2" s="9">
@@ -1912,81 +1903,81 @@
       <c r="AA2" s="9">
         <v>0</v>
       </c>
-      <c r="AB2" s="12">
+      <c r="AB2" s="10">
         <f>(AJ2-AI2)/AI2</f>
         <v>0.586545</v>
       </c>
-      <c r="AC2" s="12">
+      <c r="AC2" s="10">
         <v>0.1958</v>
       </c>
-      <c r="AD2" s="26">
+      <c r="AD2" s="24">
         <v>40193</v>
       </c>
-      <c r="AE2" s="26">
+      <c r="AE2" s="24">
         <v>41271</v>
       </c>
-      <c r="AF2" s="14">
+      <c r="AF2" s="12">
         <v>719</v>
       </c>
-      <c r="AG2" s="14">
+      <c r="AG2" s="12">
         <v>313</v>
       </c>
-      <c r="AH2" s="14">
+      <c r="AH2" s="12">
         <v>292</v>
       </c>
-      <c r="AI2" s="15">
+      <c r="AI2" s="13">
         <v>50000</v>
       </c>
-      <c r="AJ2" s="15">
+      <c r="AJ2" s="13">
         <v>79327.25</v>
       </c>
-      <c r="AK2" s="15">
+      <c r="AK2" s="13">
         <v>-3461.23</v>
       </c>
-      <c r="AL2" s="12">
+      <c r="AL2" s="10">
         <v>-0.0478</v>
       </c>
-      <c r="AM2" s="15">
+      <c r="AM2" s="13">
         <f t="shared" ref="AM2:AM7" si="0">AJ2-AI2</f>
         <v>29327.25</v>
       </c>
-      <c r="AN2" s="15">
+      <c r="AN2" s="13">
         <v>1004.75</v>
       </c>
-      <c r="AO2" s="15">
+      <c r="AO2" s="13">
         <v>758</v>
       </c>
-      <c r="AP2" s="15">
+      <c r="AP2" s="13">
         <v>10047530</v>
       </c>
-      <c r="AQ2" s="14">
+      <c r="AQ2" s="12">
         <v>376</v>
       </c>
-      <c r="AR2" s="15">
+      <c r="AR2" s="13">
         <v>40.79</v>
       </c>
-      <c r="AS2" s="15">
+      <c r="AS2" s="13">
         <v>1.4</v>
       </c>
-      <c r="AT2" s="15">
+      <c r="AT2" s="13">
         <v>1.05</v>
       </c>
-      <c r="AU2" s="15">
+      <c r="AU2" s="13">
         <v>13974.31</v>
       </c>
-      <c r="AV2" s="15">
+      <c r="AV2" s="13">
         <v>0.52</v>
       </c>
-      <c r="AW2" s="12">
+      <c r="AW2" s="10">
         <v>0.0006</v>
       </c>
-      <c r="AX2" s="12">
+      <c r="AX2" s="10">
         <v>0.0052</v>
       </c>
-      <c r="AY2" s="14">
+      <c r="AY2" s="12">
         <v>1.86</v>
       </c>
-      <c r="AZ2" s="15">
+      <c r="AZ2" s="13">
         <v>12.27</v>
       </c>
     </row>
@@ -1997,7 +1988,7 @@
       <c r="I3" s="6">
         <v>41639</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="25" t="s">
         <v>63</v>
       </c>
       <c r="K3" s="9">
@@ -2051,81 +2042,81 @@
       <c r="AA3" s="9">
         <v>0</v>
       </c>
-      <c r="AB3" s="12">
+      <c r="AB3" s="10">
         <f>(AJ3-AI3)/AI3</f>
         <v>0.5454278</v>
       </c>
-      <c r="AC3" s="12">
+      <c r="AC3" s="10">
         <v>0.1831</v>
       </c>
-      <c r="AD3" s="26">
+      <c r="AD3" s="24">
         <v>40560</v>
       </c>
-      <c r="AE3" s="26">
+      <c r="AE3" s="24">
         <v>41638</v>
       </c>
-      <c r="AF3" s="14">
+      <c r="AF3" s="12">
         <v>715</v>
       </c>
-      <c r="AG3" s="14">
+      <c r="AG3" s="12">
         <v>323</v>
       </c>
-      <c r="AH3" s="14">
+      <c r="AH3" s="12">
         <v>384</v>
       </c>
-      <c r="AI3" s="15">
+      <c r="AI3" s="13">
         <v>50000</v>
       </c>
-      <c r="AJ3" s="15">
+      <c r="AJ3" s="13">
         <v>77271.39</v>
       </c>
-      <c r="AK3" s="15">
+      <c r="AK3" s="13">
         <v>-4646.44</v>
       </c>
-      <c r="AL3" s="12">
+      <c r="AL3" s="10">
         <v>-0.0745</v>
       </c>
-      <c r="AM3" s="15">
+      <c r="AM3" s="13">
         <f t="shared" si="0"/>
         <v>27271.39</v>
       </c>
-      <c r="AN3" s="15">
+      <c r="AN3" s="13">
         <v>2700.61</v>
       </c>
-      <c r="AO3" s="15">
+      <c r="AO3" s="13">
         <v>2398</v>
       </c>
-      <c r="AP3" s="15">
+      <c r="AP3" s="13">
         <v>27006140</v>
       </c>
-      <c r="AQ3" s="14">
+      <c r="AQ3" s="12">
         <v>1192</v>
       </c>
-      <c r="AR3" s="15">
+      <c r="AR3" s="13">
         <v>38.14</v>
       </c>
-      <c r="AS3" s="15">
+      <c r="AS3" s="13">
         <v>3.78</v>
       </c>
-      <c r="AT3" s="15">
+      <c r="AT3" s="13">
         <v>3.35</v>
       </c>
-      <c r="AU3" s="15">
+      <c r="AU3" s="13">
         <v>37770.83</v>
       </c>
-      <c r="AV3" s="15">
+      <c r="AV3" s="13">
         <v>1.67</v>
       </c>
-      <c r="AW3" s="12">
+      <c r="AW3" s="10">
         <v>0.0006</v>
       </c>
-      <c r="AX3" s="12">
+      <c r="AX3" s="10">
         <v>0.0045</v>
       </c>
-      <c r="AY3" s="14">
+      <c r="AY3" s="12">
         <v>2.12</v>
       </c>
-      <c r="AZ3" s="15">
+      <c r="AZ3" s="13">
         <v>7.32</v>
       </c>
     </row>
@@ -2136,7 +2127,7 @@
       <c r="I4" s="6">
         <v>42004</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="25" t="s">
         <v>63</v>
       </c>
       <c r="K4" s="9">
@@ -2190,81 +2181,81 @@
       <c r="AA4" s="9">
         <v>0</v>
       </c>
-      <c r="AB4" s="12">
+      <c r="AB4" s="10">
         <f>(AJ4-AI4)/AI4</f>
         <v>0.4702732</v>
       </c>
-      <c r="AC4" s="12">
+      <c r="AC4" s="10">
         <v>0.1572</v>
       </c>
-      <c r="AD4" s="26">
+      <c r="AD4" s="24">
         <v>40925</v>
       </c>
-      <c r="AE4" s="26">
+      <c r="AE4" s="24">
         <v>42004</v>
       </c>
-      <c r="AF4" s="14">
+      <c r="AF4" s="12">
         <v>718</v>
       </c>
-      <c r="AG4" s="14">
+      <c r="AG4" s="12">
         <v>320</v>
       </c>
-      <c r="AH4" s="14">
+      <c r="AH4" s="12">
         <v>386</v>
       </c>
-      <c r="AI4" s="15">
+      <c r="AI4" s="13">
         <v>50000</v>
       </c>
-      <c r="AJ4" s="15">
+      <c r="AJ4" s="13">
         <v>73513.66</v>
       </c>
-      <c r="AK4" s="15">
+      <c r="AK4" s="13">
         <v>-2326.22</v>
       </c>
-      <c r="AL4" s="12">
+      <c r="AL4" s="10">
         <v>-0.0316</v>
       </c>
-      <c r="AM4" s="15">
+      <c r="AM4" s="13">
         <f t="shared" si="0"/>
         <v>23513.66</v>
       </c>
-      <c r="AN4" s="15">
+      <c r="AN4" s="13">
         <v>1844.35</v>
       </c>
-      <c r="AO4" s="15">
+      <c r="AO4" s="13">
         <v>2342</v>
       </c>
-      <c r="AP4" s="15">
+      <c r="AP4" s="13">
         <v>18443450</v>
       </c>
-      <c r="AQ4" s="14">
+      <c r="AQ4" s="12">
         <v>1167</v>
       </c>
-      <c r="AR4" s="15">
+      <c r="AR4" s="13">
         <v>32.75</v>
       </c>
-      <c r="AS4" s="15">
+      <c r="AS4" s="13">
         <v>2.57</v>
       </c>
-      <c r="AT4" s="15">
+      <c r="AT4" s="13">
         <v>3.26</v>
       </c>
-      <c r="AU4" s="15">
+      <c r="AU4" s="13">
         <v>25687.26</v>
       </c>
-      <c r="AV4" s="15">
+      <c r="AV4" s="13">
         <v>1.63</v>
       </c>
-      <c r="AW4" s="12">
+      <c r="AW4" s="10">
         <v>0.0005</v>
       </c>
-      <c r="AX4" s="12">
+      <c r="AX4" s="10">
         <v>0.0041</v>
       </c>
-      <c r="AY4" s="14">
+      <c r="AY4" s="12">
         <v>1.99</v>
       </c>
-      <c r="AZ4" s="15">
+      <c r="AZ4" s="13">
         <v>14.9</v>
       </c>
     </row>
@@ -2275,7 +2266,7 @@
       <c r="I5" s="6">
         <v>42369</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="25" t="s">
         <v>63</v>
       </c>
       <c r="K5" s="9">
@@ -2329,80 +2320,80 @@
       <c r="AA5" s="9">
         <v>0</v>
       </c>
-      <c r="AB5" s="12">
+      <c r="AB5" s="10">
         <v>0.322</v>
       </c>
-      <c r="AC5" s="12">
+      <c r="AC5" s="10">
         <v>0.1013</v>
       </c>
-      <c r="AD5" s="26">
+      <c r="AD5" s="24">
         <v>41291</v>
       </c>
-      <c r="AE5" s="26">
+      <c r="AE5" s="24">
         <v>42369</v>
       </c>
-      <c r="AF5" s="14">
+      <c r="AF5" s="12">
         <v>763</v>
       </c>
-      <c r="AG5" s="14">
+      <c r="AG5" s="12">
         <v>276</v>
       </c>
-      <c r="AH5" s="14">
+      <c r="AH5" s="12">
         <v>269</v>
       </c>
-      <c r="AI5" s="15">
+      <c r="AI5" s="13">
         <v>50000</v>
       </c>
-      <c r="AJ5" s="15">
+      <c r="AJ5" s="13">
         <v>66098.05</v>
       </c>
-      <c r="AK5" s="15">
+      <c r="AK5" s="13">
         <v>-1957.84</v>
       </c>
-      <c r="AL5" s="12">
+      <c r="AL5" s="10">
         <v>-0.0358</v>
       </c>
-      <c r="AM5" s="15">
+      <c r="AM5" s="13">
         <f t="shared" si="0"/>
         <v>16098.05</v>
       </c>
-      <c r="AN5" s="15">
+      <c r="AN5" s="13">
         <v>191.95</v>
       </c>
-      <c r="AO5" s="15">
+      <c r="AO5" s="13">
         <v>680</v>
       </c>
-      <c r="AP5" s="15">
+      <c r="AP5" s="13">
         <v>1919510</v>
       </c>
-      <c r="AQ5" s="14">
+      <c r="AQ5" s="12">
         <v>339</v>
       </c>
-      <c r="AR5" s="15">
+      <c r="AR5" s="13">
         <v>21.1</v>
       </c>
-      <c r="AS5" s="15">
+      <c r="AS5" s="13">
         <v>0.25</v>
       </c>
-      <c r="AT5" s="15">
+      <c r="AT5" s="13">
         <v>0.89</v>
       </c>
-      <c r="AU5" s="15">
+      <c r="AU5" s="13">
         <v>2515.74</v>
       </c>
-      <c r="AV5" s="15">
+      <c r="AV5" s="13">
         <v>0.44</v>
       </c>
-      <c r="AW5" s="12">
+      <c r="AW5" s="10">
         <v>0.0004</v>
       </c>
-      <c r="AX5" s="12">
+      <c r="AX5" s="10">
         <v>0.0036</v>
       </c>
-      <c r="AY5" s="14">
+      <c r="AY5" s="12">
         <v>1.56</v>
       </c>
-      <c r="AZ5" s="15">
+      <c r="AZ5" s="13">
         <v>8.98</v>
       </c>
     </row>
@@ -2413,7 +2404,7 @@
       <c r="I6" s="6">
         <v>42735</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="25" t="s">
         <v>63</v>
       </c>
       <c r="K6" s="9">
@@ -2467,80 +2458,80 @@
       <c r="AA6" s="9">
         <v>0</v>
       </c>
-      <c r="AB6" s="12">
+      <c r="AB6" s="10">
         <v>0.6254</v>
       </c>
-      <c r="AC6" s="12">
+      <c r="AC6" s="10">
         <v>0.1919</v>
       </c>
-      <c r="AD6" s="26">
+      <c r="AD6" s="24">
         <v>41654</v>
       </c>
-      <c r="AE6" s="26">
+      <c r="AE6" s="24">
         <v>42734</v>
       </c>
-      <c r="AF6" s="14">
+      <c r="AF6" s="12">
         <v>782</v>
       </c>
-      <c r="AG6" s="14">
+      <c r="AG6" s="12">
         <v>345</v>
       </c>
-      <c r="AH6" s="14">
+      <c r="AH6" s="12">
         <v>384</v>
       </c>
-      <c r="AI6" s="15">
+      <c r="AI6" s="13">
         <v>50000</v>
       </c>
-      <c r="AJ6" s="15">
+      <c r="AJ6" s="13">
         <v>81270.19</v>
       </c>
-      <c r="AK6" s="15">
+      <c r="AK6" s="13">
         <v>-2321.78</v>
       </c>
-      <c r="AL6" s="12">
+      <c r="AL6" s="10">
         <v>-0.0352</v>
       </c>
-      <c r="AM6" s="15">
+      <c r="AM6" s="13">
         <f t="shared" si="0"/>
         <v>31270.19</v>
       </c>
-      <c r="AN6" s="15">
+      <c r="AN6" s="13">
         <v>317.81</v>
       </c>
-      <c r="AO6" s="15">
+      <c r="AO6" s="13">
         <v>3382</v>
       </c>
-      <c r="AP6" s="15">
+      <c r="AP6" s="13">
         <v>3178140</v>
       </c>
-      <c r="AQ6" s="14">
+      <c r="AQ6" s="12">
         <v>1686</v>
       </c>
-      <c r="AR6" s="15">
+      <c r="AR6" s="13">
         <v>39.99</v>
       </c>
-      <c r="AS6" s="15">
+      <c r="AS6" s="13">
         <v>0.41</v>
       </c>
-      <c r="AT6" s="15">
+      <c r="AT6" s="13">
         <v>4.32</v>
       </c>
-      <c r="AU6" s="15">
+      <c r="AU6" s="13">
         <v>4064.12</v>
       </c>
-      <c r="AV6" s="15">
+      <c r="AV6" s="13">
         <v>2.16</v>
       </c>
-      <c r="AW6" s="12">
+      <c r="AW6" s="10">
         <v>0.0006</v>
       </c>
-      <c r="AX6" s="12">
+      <c r="AX6" s="10">
         <v>0.0045</v>
       </c>
-      <c r="AY6" s="14">
+      <c r="AY6" s="12">
         <v>2.15</v>
       </c>
-      <c r="AZ6" s="15">
+      <c r="AZ6" s="13">
         <v>17.76</v>
       </c>
     </row>
@@ -2551,7 +2542,7 @@
       <c r="I7" s="6">
         <v>43100</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="25" t="s">
         <v>63</v>
       </c>
       <c r="K7" s="9">
@@ -2605,80 +2596,80 @@
       <c r="AA7" s="9">
         <v>0</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AB7" s="10">
         <v>0.7734</v>
       </c>
-      <c r="AC7" s="12">
+      <c r="AC7" s="10">
         <v>0.238</v>
       </c>
-      <c r="AD7" s="26">
+      <c r="AD7" s="24">
         <v>42019</v>
       </c>
-      <c r="AE7" s="26">
+      <c r="AE7" s="24">
         <v>43098</v>
       </c>
-      <c r="AF7" s="14">
+      <c r="AF7" s="12">
         <v>780</v>
       </c>
-      <c r="AG7" s="14">
+      <c r="AG7" s="12">
         <v>360</v>
       </c>
-      <c r="AH7" s="14">
+      <c r="AH7" s="12">
         <v>380</v>
       </c>
-      <c r="AI7" s="15">
+      <c r="AI7" s="13">
         <v>50000</v>
       </c>
-      <c r="AJ7" s="15">
+      <c r="AJ7" s="13">
         <v>88670.32</v>
       </c>
-      <c r="AK7" s="15">
+      <c r="AK7" s="13">
         <v>-5166.64</v>
       </c>
-      <c r="AL7" s="12">
+      <c r="AL7" s="10">
         <v>-0.0575</v>
       </c>
-      <c r="AM7" s="15">
+      <c r="AM7" s="13">
         <f t="shared" si="0"/>
         <v>38670.32</v>
       </c>
-      <c r="AN7" s="15">
+      <c r="AN7" s="13">
         <v>893.68</v>
       </c>
-      <c r="AO7" s="15">
+      <c r="AO7" s="13">
         <v>3956</v>
       </c>
-      <c r="AP7" s="15">
+      <c r="AP7" s="13">
         <v>8936840</v>
       </c>
-      <c r="AQ7" s="14">
+      <c r="AQ7" s="12">
         <v>1969</v>
       </c>
-      <c r="AR7" s="15">
+      <c r="AR7" s="13">
         <v>49.58</v>
       </c>
-      <c r="AS7" s="15">
+      <c r="AS7" s="13">
         <v>1.15</v>
       </c>
-      <c r="AT7" s="15">
+      <c r="AT7" s="13">
         <v>5.07</v>
       </c>
-      <c r="AU7" s="15">
+      <c r="AU7" s="13">
         <v>11457.49</v>
       </c>
-      <c r="AV7" s="15">
+      <c r="AV7" s="13">
         <v>2.52</v>
       </c>
-      <c r="AW7" s="12">
+      <c r="AW7" s="10">
         <v>0.0007</v>
       </c>
-      <c r="AX7" s="12">
+      <c r="AX7" s="10">
         <v>0.0056</v>
       </c>
-      <c r="AY7" s="14">
+      <c r="AY7" s="12">
         <v>2.02</v>
       </c>
-      <c r="AZ7" s="15">
+      <c r="AZ7" s="13">
         <v>13.44</v>
       </c>
     </row>
@@ -2689,7 +2680,7 @@
       <c r="I8" s="6">
         <v>43465</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="25" t="s">
         <v>63</v>
       </c>
       <c r="K8" s="9">
@@ -2743,10 +2734,10 @@
       <c r="AA8" s="9">
         <v>0</v>
       </c>
-      <c r="AB8" s="12">
+      <c r="AB8" s="10">
         <v>0.9564</v>
       </c>
-      <c r="AC8" s="12">
+      <c r="AC8" s="10">
         <v>0.3123</v>
       </c>
     </row>
@@ -2811,10 +2802,10 @@
       <c r="AA9" s="9">
         <v>0</v>
       </c>
-      <c r="AB9" s="12">
+      <c r="AB9" s="10">
         <v>0.6397</v>
       </c>
-      <c r="AC9" s="12">
+      <c r="AC9" s="10">
         <v>0.2129</v>
       </c>
     </row>
@@ -2879,22 +2870,24 @@
       <c r="AA10" s="9">
         <v>0</v>
       </c>
-      <c r="AB10" s="12">
+      <c r="AB10" s="10">
         <v>0.4474</v>
       </c>
-      <c r="AC10" s="12">
+      <c r="AC10" s="10">
         <v>0.1491</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AZ10"/>
+  <autoFilter ref="A1:AZ10">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -2906,9 +2899,9 @@
       <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="5.46666666666667" style="16" customWidth="1"/>
+    <col min="1" max="1" width="5.46666666666667" style="14" customWidth="1"/>
     <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="12.4416666666667" customWidth="1"/>
     <col min="4" max="4" width="11.975" customWidth="1"/>
@@ -2918,230 +2911,230 @@
   </cols>
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="19">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <v>3</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="17">
         <v>1</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <v>17</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="17">
         <f t="shared" ref="F3:F8" si="0">((E3-C3)/D3)+1</f>
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="21">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="19">
         <v>14</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="19">
         <v>1</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="19">
         <v>30</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="19">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <v>10</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="17">
         <v>2</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="17">
         <v>36</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="17">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21">
+      <c r="A6" s="19">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <v>3</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="19">
         <v>2</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <v>33</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="19">
+      <c r="A7" s="17">
         <v>5</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="17">
         <v>2</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="17">
         <v>2</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <v>30</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="21">
+      <c r="A8" s="19">
         <v>6</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="19">
         <v>6</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="19">
         <v>2</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <v>42</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="21">
+      <c r="A10" s="19">
         <v>8</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>9</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="23">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="21">
         <f>PRODUCT(F3:F8)</f>
         <v>16279200</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="24">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="22">
         <f>(F12*1.9)/3600</f>
         <v>8591.8</v>
       </c>
     </row>
-    <row r="14" ht="13.95" spans="1:6">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="25">
+    <row r="14" ht="16.5" spans="1:6">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="23">
         <f>F13/24</f>
         <v>357.991666666667</v>
       </c>
@@ -3158,15 +3151,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AZ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="3" max="7" width="13.75" customWidth="1"/>
@@ -3378,7 +3371,7 @@
       <c r="I2" s="5">
         <v>44196</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="26" t="s">
         <v>63</v>
       </c>
       <c r="K2" s="9">
@@ -3432,80 +3425,80 @@
       <c r="AA2" s="9">
         <v>0</v>
       </c>
-      <c r="AB2" s="12">
+      <c r="AB2" s="10">
         <v>0.1912</v>
       </c>
-      <c r="AC2" s="12">
+      <c r="AC2" s="10">
         <v>0.197</v>
       </c>
-      <c r="AD2" s="13">
+      <c r="AD2" s="11">
         <v>43845</v>
       </c>
-      <c r="AE2" s="13">
+      <c r="AE2" s="11">
         <v>44195</v>
       </c>
-      <c r="AF2" s="14">
+      <c r="AF2" s="12">
         <v>233</v>
       </c>
-      <c r="AG2" s="14">
+      <c r="AG2" s="12">
         <v>86</v>
       </c>
-      <c r="AH2" s="14">
+      <c r="AH2" s="12">
         <v>118</v>
       </c>
-      <c r="AI2" s="15">
+      <c r="AI2" s="13">
         <v>50000</v>
       </c>
-      <c r="AJ2" s="15">
+      <c r="AJ2" s="13">
         <v>59494.67</v>
       </c>
-      <c r="AK2" s="15">
+      <c r="AK2" s="13">
         <v>-2023.93</v>
       </c>
-      <c r="AL2" s="12">
+      <c r="AL2" s="10">
         <v>-0.0352</v>
       </c>
-      <c r="AM2" s="15">
+      <c r="AM2" s="13">
         <f>AJ2-AI2</f>
         <v>9494.67</v>
       </c>
-      <c r="AN2" s="15">
+      <c r="AN2" s="13">
         <v>1173.33</v>
       </c>
-      <c r="AO2" s="15">
+      <c r="AO2" s="13">
         <v>672</v>
       </c>
-      <c r="AP2" s="15">
+      <c r="AP2" s="13">
         <v>11733280</v>
       </c>
-      <c r="AQ2" s="14">
+      <c r="AQ2" s="12">
         <v>336</v>
       </c>
-      <c r="AR2" s="15">
+      <c r="AR2" s="13">
         <v>40.75</v>
       </c>
-      <c r="AS2" s="15">
+      <c r="AS2" s="13">
         <v>5.04</v>
       </c>
-      <c r="AT2" s="15">
+      <c r="AT2" s="13">
         <v>2.88</v>
       </c>
-      <c r="AU2" s="15">
+      <c r="AU2" s="13">
         <v>50357.42</v>
       </c>
-      <c r="AV2" s="15">
+      <c r="AV2" s="13">
         <v>1.44</v>
       </c>
-      <c r="AW2" s="12">
+      <c r="AW2" s="10">
         <v>0.0008</v>
       </c>
-      <c r="AX2" s="12">
+      <c r="AX2" s="10">
         <v>0.0066</v>
       </c>
-      <c r="AY2" s="14">
+      <c r="AY2" s="12">
         <v>1.8</v>
       </c>
-      <c r="AZ2" s="15">
+      <c r="AZ2" s="13">
         <v>5.39</v>
       </c>
     </row>
@@ -3523,7 +3516,7 @@
       <c r="I3" s="5">
         <v>44012</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="26" t="s">
         <v>63</v>
       </c>
       <c r="K3" s="9">
@@ -3577,80 +3570,80 @@
       <c r="AA3" s="9">
         <v>0</v>
       </c>
-      <c r="AB3" s="12">
+      <c r="AB3" s="10">
         <v>0.2044</v>
       </c>
-      <c r="AC3" s="12">
+      <c r="AC3" s="10">
         <v>0.2105</v>
       </c>
-      <c r="AD3" s="13">
+      <c r="AD3" s="11">
         <v>43658</v>
       </c>
-      <c r="AE3" s="13">
+      <c r="AE3" s="11">
         <v>44011</v>
       </c>
-      <c r="AF3" s="14">
+      <c r="AF3" s="12">
         <v>233</v>
       </c>
-      <c r="AG3" s="14">
+      <c r="AG3" s="12">
         <v>83</v>
       </c>
-      <c r="AH3" s="14">
+      <c r="AH3" s="12">
         <v>78</v>
       </c>
-      <c r="AI3" s="15">
+      <c r="AI3" s="13">
         <v>50000</v>
       </c>
-      <c r="AJ3" s="15">
+      <c r="AJ3" s="13">
         <v>60217.68</v>
       </c>
-      <c r="AK3" s="15">
+      <c r="AK3" s="13">
         <v>-1787.42</v>
       </c>
-      <c r="AL3" s="12">
+      <c r="AL3" s="10">
         <v>-0.0316</v>
       </c>
-      <c r="AM3" s="15">
+      <c r="AM3" s="13">
         <f>AJ3-AI3</f>
         <v>10217.68</v>
       </c>
-      <c r="AN3" s="15">
+      <c r="AN3" s="13">
         <v>658.32</v>
       </c>
-      <c r="AO3" s="15">
+      <c r="AO3" s="13">
         <v>424</v>
       </c>
-      <c r="AP3" s="15">
+      <c r="AP3" s="13">
         <v>6583220</v>
       </c>
-      <c r="AQ3" s="14">
+      <c r="AQ3" s="12">
         <v>209</v>
       </c>
-      <c r="AR3" s="15">
+      <c r="AR3" s="13">
         <v>43.85</v>
       </c>
-      <c r="AS3" s="15">
+      <c r="AS3" s="13">
         <v>2.83</v>
       </c>
-      <c r="AT3" s="15">
+      <c r="AT3" s="13">
         <v>1.82</v>
       </c>
-      <c r="AU3" s="15">
+      <c r="AU3" s="13">
         <v>28254.16</v>
       </c>
-      <c r="AV3" s="15">
+      <c r="AV3" s="13">
         <v>0.9</v>
       </c>
-      <c r="AW3" s="12">
+      <c r="AW3" s="10">
         <v>0.0008</v>
       </c>
-      <c r="AX3" s="12">
+      <c r="AX3" s="10">
         <v>0.0055</v>
       </c>
-      <c r="AY3" s="14">
+      <c r="AY3" s="12">
         <v>2.17</v>
       </c>
-      <c r="AZ3" s="15">
+      <c r="AZ3" s="13">
         <v>6.46</v>
       </c>
     </row>
@@ -3668,7 +3661,7 @@
       <c r="I4" s="5">
         <v>43830</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="26" t="s">
         <v>63</v>
       </c>
       <c r="K4" s="9">
@@ -3722,35 +3715,35 @@
       <c r="AA4" s="9">
         <v>0</v>
       </c>
-      <c r="AB4" s="12">
+      <c r="AB4" s="10">
         <v>0.235</v>
       </c>
-      <c r="AC4" s="12">
+      <c r="AC4" s="10">
         <v>0.2411</v>
       </c>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="14"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="14"/>
-      <c r="AR4" s="15"/>
-      <c r="AS4" s="15"/>
-      <c r="AT4" s="15"/>
-      <c r="AU4" s="15"/>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="12"/>
-      <c r="AX4" s="12"/>
-      <c r="AY4" s="14"/>
-      <c r="AZ4" s="15"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="13"/>
     </row>
     <row r="5" spans="1:52">
       <c r="A5" s="1"/>
@@ -3766,7 +3759,7 @@
       <c r="I5" s="5">
         <v>43646</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="26" t="s">
         <v>63</v>
       </c>
       <c r="K5" s="9">
@@ -3820,35 +3813,35 @@
       <c r="AA5" s="9">
         <v>0</v>
       </c>
-      <c r="AB5" s="12">
+      <c r="AB5" s="10">
         <v>0.2365</v>
       </c>
-      <c r="AC5" s="12">
+      <c r="AC5" s="10">
         <v>0.2436</v>
       </c>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="15"/>
-      <c r="AP5" s="15"/>
-      <c r="AQ5" s="14"/>
-      <c r="AR5" s="15"/>
-      <c r="AS5" s="15"/>
-      <c r="AT5" s="15"/>
-      <c r="AU5" s="15"/>
-      <c r="AV5" s="15"/>
-      <c r="AW5" s="12"/>
-      <c r="AX5" s="12"/>
-      <c r="AY5" s="14"/>
-      <c r="AZ5" s="15"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="12"/>
+      <c r="AZ5" s="13"/>
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="1"/>
@@ -3878,31 +3871,31 @@
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="14"/>
-      <c r="AR6" s="15"/>
-      <c r="AS6" s="15"/>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="15"/>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="12"/>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="14"/>
-      <c r="AZ6" s="15"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="13"/>
     </row>
     <row r="7" spans="1:52">
       <c r="A7" s="1"/>
@@ -3918,89 +3911,89 @@
       <c r="I7" s="7">
         <v>44309</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="9">
         <v>8</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="9">
         <v>18</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="9">
         <v>18</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="9">
         <v>11</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="9">
         <v>8</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="T7" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="11">
+      <c r="U7" s="9">
         <v>20</v>
       </c>
-      <c r="V7" s="11" t="s">
+      <c r="V7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="W7" s="11">
+      <c r="W7" s="9">
         <v>1</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="X7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="9">
         <v>0.2</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="Z7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AA7" s="11">
+      <c r="AA7" s="9">
         <v>0</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AB7" s="10">
         <v>0.1806</v>
       </c>
-      <c r="AC7" s="12">
+      <c r="AC7" s="10">
         <v>0.186</v>
       </c>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="15"/>
-      <c r="AO7" s="15"/>
-      <c r="AP7" s="15"/>
-      <c r="AQ7" s="14"/>
-      <c r="AR7" s="15"/>
-      <c r="AS7" s="15"/>
-      <c r="AT7" s="15"/>
-      <c r="AU7" s="15"/>
-      <c r="AV7" s="15"/>
-      <c r="AW7" s="12"/>
-      <c r="AX7" s="12"/>
-      <c r="AY7" s="14"/>
-      <c r="AZ7" s="15"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="13"/>
     </row>
     <row r="8" spans="1:52">
       <c r="A8" s="1"/>
@@ -4012,49 +4005,89 @@
       <c r="G8" s="4"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="15"/>
-      <c r="AO8" s="15"/>
-      <c r="AP8" s="15"/>
-      <c r="AQ8" s="14"/>
-      <c r="AR8" s="15"/>
-      <c r="AS8" s="15"/>
-      <c r="AT8" s="15"/>
-      <c r="AU8" s="15"/>
-      <c r="AV8" s="15"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
-      <c r="AY8" s="14"/>
-      <c r="AZ8" s="15"/>
+      <c r="J8" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="9">
+        <v>8</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="9">
+        <v>29</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="9">
+        <v>18</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>11</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="S8" s="9">
+        <v>6</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="U8" s="9">
+        <v>22</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="W8" s="9">
+        <v>1</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>0.1935</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>0.1993</v>
+      </c>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="13"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="1"/>
@@ -4084,34 +4117,36 @@
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="15"/>
-      <c r="AO9" s="15"/>
-      <c r="AP9" s="15"/>
-      <c r="AQ9" s="14"/>
-      <c r="AR9" s="15"/>
-      <c r="AS9" s="15"/>
-      <c r="AT9" s="15"/>
-      <c r="AU9" s="15"/>
-      <c r="AV9" s="15"/>
-      <c r="AW9" s="12"/>
-      <c r="AX9" s="12"/>
-      <c r="AY9" s="14"/>
-      <c r="AZ9" s="15"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="10"/>
+      <c r="AX9" s="10"/>
+      <c r="AY9" s="12"/>
+      <c r="AZ9" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AZ9"/>
+  <autoFilter ref="A1:AZ9">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/1-策略开发/1-开发中的策略/1-bar回测/7-multi_timeframe/multi_timeframe参数优化记录.xlsx
+++ b/1-策略开发/1-开发中的策略/1-bar回测/7-multi_timeframe/multi_timeframe参数优化记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16380" windowHeight="7155" tabRatio="425" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="425" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1-参数优化区间设置" sheetId="3" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="2-3年期滚动回测结果" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1-3年期滚动回测结果'!$A$1:$AZ$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1-3年期滚动回测结果'!$A$1:$AZ$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2-3年期滚动回测结果'!$A$1:$AZ$9</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -244,15 +244,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.000000_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.000000_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00&quot;小时&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00&quot;小时&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="181" formatCode="#,##0&quot;组&quot;"/>
     <numFmt numFmtId="182" formatCode="#,##0.00&quot;天&quot;"/>
   </numFmts>
@@ -287,6 +287,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -310,6 +340,69 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -325,22 +418,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,84 +426,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,7 +452,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,13 +536,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,151 +620,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,6 +722,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -732,6 +747,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,39 +810,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -803,21 +818,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -826,10 +826,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -838,133 +838,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -975,16 +975,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1002,15 +1002,15 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1035,7 +1035,7 @@
     <xf numFmtId="181" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1119,7 +1119,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1633,10 +1633,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AZ10"/>
+  <dimension ref="A1:AZ11"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2877,8 +2877,28 @@
         <v>0.1491</v>
       </c>
     </row>
+    <row r="11" spans="11:21">
+      <c r="K11">
+        <v>13</v>
+      </c>
+      <c r="M11">
+        <v>14</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+      <c r="S11">
+        <v>8</v>
+      </c>
+      <c r="U11">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AZ10">
+  <autoFilter ref="A1:AZ11">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3155,8 +3175,8 @@
   <sheetPr/>
   <dimension ref="A1:AZ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
